--- a/data/924/PBC/SIPR/Statistics of Interbank Pledged Repo - Historical.xlsx
+++ b/data/924/PBC/SIPR/Statistics of Interbank Pledged Repo - Historical.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,767 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
-  <si>
-    <t>2002-01</t>
-  </si>
-  <si>
-    <t>2002-02</t>
-  </si>
-  <si>
-    <t>2002-03</t>
-  </si>
-  <si>
-    <t>2002-04</t>
-  </si>
-  <si>
-    <t>2002-05</t>
-  </si>
-  <si>
-    <t>2002-06</t>
-  </si>
-  <si>
-    <t>2002-07</t>
-  </si>
-  <si>
-    <t>2002-08</t>
-  </si>
-  <si>
-    <t>2002-09</t>
-  </si>
-  <si>
-    <t>2002-10</t>
-  </si>
-  <si>
-    <t>2002-11</t>
-  </si>
-  <si>
-    <t>2002-12</t>
-  </si>
-  <si>
-    <t>2003-01</t>
-  </si>
-  <si>
-    <t>2003-02</t>
-  </si>
-  <si>
-    <t>2003-03</t>
-  </si>
-  <si>
-    <t>2003-04</t>
-  </si>
-  <si>
-    <t>2003-05</t>
-  </si>
-  <si>
-    <t>2003-06</t>
-  </si>
-  <si>
-    <t>2003-07</t>
-  </si>
-  <si>
-    <t>2003-08</t>
-  </si>
-  <si>
-    <t>2003-09</t>
-  </si>
-  <si>
-    <t>2003-10</t>
-  </si>
-  <si>
-    <t>2003-11</t>
-  </si>
-  <si>
-    <t>2003-12</t>
-  </si>
-  <si>
-    <t>2004-01</t>
-  </si>
-  <si>
-    <t>2004-02</t>
-  </si>
-  <si>
-    <t>2004-03</t>
-  </si>
-  <si>
-    <t>2004-04</t>
-  </si>
-  <si>
-    <t>2004-05</t>
-  </si>
-  <si>
-    <t>2004-06</t>
-  </si>
-  <si>
-    <t>2004-07</t>
-  </si>
-  <si>
-    <t>2004-08</t>
-  </si>
-  <si>
-    <t>2004-09</t>
-  </si>
-  <si>
-    <t>2004-10</t>
-  </si>
-  <si>
-    <t>2004-11</t>
-  </si>
-  <si>
-    <t>2004-12</t>
-  </si>
-  <si>
-    <t>2005-01</t>
-  </si>
-  <si>
-    <t>2005-02</t>
-  </si>
-  <si>
-    <t>2005-03</t>
-  </si>
-  <si>
-    <t>2005-04</t>
-  </si>
-  <si>
-    <t>2005-05</t>
-  </si>
-  <si>
-    <t>2005-06</t>
-  </si>
-  <si>
-    <t>2005-07</t>
-  </si>
-  <si>
-    <t>2005-08</t>
-  </si>
-  <si>
-    <t>2005-09</t>
-  </si>
-  <si>
-    <t>2005-10</t>
-  </si>
-  <si>
-    <t>2005-11</t>
-  </si>
-  <si>
-    <t>2005-12</t>
-  </si>
-  <si>
-    <t>2006-01</t>
-  </si>
-  <si>
-    <t>2006-02</t>
-  </si>
-  <si>
-    <t>2006-03</t>
-  </si>
-  <si>
-    <t>2006-04</t>
-  </si>
-  <si>
-    <t>2006-05</t>
-  </si>
-  <si>
-    <t>2006-06</t>
-  </si>
-  <si>
-    <t>2006-07</t>
-  </si>
-  <si>
-    <t>2006-08</t>
-  </si>
-  <si>
-    <t>2006-09</t>
-  </si>
-  <si>
-    <t>2006-10</t>
-  </si>
-  <si>
-    <t>2006-11</t>
-  </si>
-  <si>
-    <t>2006-12</t>
-  </si>
-  <si>
-    <t>2007-01</t>
-  </si>
-  <si>
-    <t>2007-02</t>
-  </si>
-  <si>
-    <t>2007-03</t>
-  </si>
-  <si>
-    <t>2007-04</t>
-  </si>
-  <si>
-    <t>2007-05</t>
-  </si>
-  <si>
-    <t>2007-06</t>
-  </si>
-  <si>
-    <t>2007-07</t>
-  </si>
-  <si>
-    <t>2007-08</t>
-  </si>
-  <si>
-    <t>2007-09</t>
-  </si>
-  <si>
-    <t>2007-10</t>
-  </si>
-  <si>
-    <t>2007-11</t>
-  </si>
-  <si>
-    <t>2007-12</t>
-  </si>
-  <si>
-    <t>2008-01</t>
-  </si>
-  <si>
-    <t>2008-02</t>
-  </si>
-  <si>
-    <t>2008-03</t>
-  </si>
-  <si>
-    <t>2008-04</t>
-  </si>
-  <si>
-    <t>2008-05</t>
-  </si>
-  <si>
-    <t>2008-06</t>
-  </si>
-  <si>
-    <t>2008-07</t>
-  </si>
-  <si>
-    <t>2008-08</t>
-  </si>
-  <si>
-    <t>2008-09</t>
-  </si>
-  <si>
-    <t>2008-10</t>
-  </si>
-  <si>
-    <t>2008-11</t>
-  </si>
-  <si>
-    <t>2008-12</t>
-  </si>
-  <si>
-    <t>2009-01</t>
-  </si>
-  <si>
-    <t>2009-02</t>
-  </si>
-  <si>
-    <t>2009-03</t>
-  </si>
-  <si>
-    <t>2009-04</t>
-  </si>
-  <si>
-    <t>2009-05</t>
-  </si>
-  <si>
-    <t>2009-06</t>
-  </si>
-  <si>
-    <t>2009-07</t>
-  </si>
-  <si>
-    <t>2009-08</t>
-  </si>
-  <si>
-    <t>2009-09</t>
-  </si>
-  <si>
-    <t>2009-10</t>
-  </si>
-  <si>
-    <t>2009-11</t>
-  </si>
-  <si>
-    <t>2009-12</t>
-  </si>
-  <si>
-    <t>2010-01</t>
-  </si>
-  <si>
-    <t>2010-02</t>
-  </si>
-  <si>
-    <t>2010-03</t>
-  </si>
-  <si>
-    <t>2010-04</t>
-  </si>
-  <si>
-    <t>2010-05</t>
-  </si>
-  <si>
-    <t>2010-06</t>
-  </si>
-  <si>
-    <t>2010-07</t>
-  </si>
-  <si>
-    <t>2010-08</t>
-  </si>
-  <si>
-    <t>2010-09</t>
-  </si>
-  <si>
-    <t>2010-10</t>
-  </si>
-  <si>
-    <t>2010-11</t>
-  </si>
-  <si>
-    <t>2010-12</t>
-  </si>
-  <si>
-    <t>2011-01</t>
-  </si>
-  <si>
-    <t>2011-02</t>
-  </si>
-  <si>
-    <t>2011-03</t>
-  </si>
-  <si>
-    <t>2011-04</t>
-  </si>
-  <si>
-    <t>2011-05</t>
-  </si>
-  <si>
-    <t>2011-06</t>
-  </si>
-  <si>
-    <t>2011-07</t>
-  </si>
-  <si>
-    <t>2011-08</t>
-  </si>
-  <si>
-    <t>2011-09</t>
-  </si>
-  <si>
-    <t>2011-10</t>
-  </si>
-  <si>
-    <t>2011-11</t>
-  </si>
-  <si>
-    <t>2011-12</t>
-  </si>
-  <si>
-    <t>2012-01</t>
-  </si>
-  <si>
-    <t>2012-02</t>
-  </si>
-  <si>
-    <t>2012-03</t>
-  </si>
-  <si>
-    <t>2012-04</t>
-  </si>
-  <si>
-    <t>2012-05</t>
-  </si>
-  <si>
-    <t>2012-06</t>
-  </si>
-  <si>
-    <t>2012-07</t>
-  </si>
-  <si>
-    <t>2012-08</t>
-  </si>
-  <si>
-    <t>2012-09</t>
-  </si>
-  <si>
-    <t>2012-10</t>
-  </si>
-  <si>
-    <t>2012-11</t>
-  </si>
-  <si>
-    <t>2012-12</t>
-  </si>
-  <si>
-    <t>2013-01</t>
-  </si>
-  <si>
-    <t>2013-02</t>
-  </si>
-  <si>
-    <t>2013-03</t>
-  </si>
-  <si>
-    <t>2013-04</t>
-  </si>
-  <si>
-    <t>2013-05</t>
-  </si>
-  <si>
-    <t>2013-06</t>
-  </si>
-  <si>
-    <t>2013-07</t>
-  </si>
-  <si>
-    <t>2013-08</t>
-  </si>
-  <si>
-    <t>2013-09</t>
-  </si>
-  <si>
-    <t>2013-10</t>
-  </si>
-  <si>
-    <t>2013-11</t>
-  </si>
-  <si>
-    <t>2013-12</t>
-  </si>
-  <si>
-    <t>2014-01</t>
-  </si>
-  <si>
-    <t>2014-02</t>
-  </si>
-  <si>
-    <t>2014-03</t>
-  </si>
-  <si>
-    <t>2014-04</t>
-  </si>
-  <si>
-    <t>2014-05</t>
-  </si>
-  <si>
-    <t>2014-06</t>
-  </si>
-  <si>
-    <t>2014-07</t>
-  </si>
-  <si>
-    <t>2014-08</t>
-  </si>
-  <si>
-    <t>2014-09</t>
-  </si>
-  <si>
-    <t>2014-10</t>
-  </si>
-  <si>
-    <t>2014-11</t>
-  </si>
-  <si>
-    <t>2014-12</t>
-  </si>
-  <si>
-    <t>2015-01</t>
-  </si>
-  <si>
-    <t>2015-02</t>
-  </si>
-  <si>
-    <t>2015-03</t>
-  </si>
-  <si>
-    <t>2015-04</t>
-  </si>
-  <si>
-    <t>2015-05</t>
-  </si>
-  <si>
-    <t>2015-06</t>
-  </si>
-  <si>
-    <t>2015-07</t>
-  </si>
-  <si>
-    <t>2015-08</t>
-  </si>
-  <si>
-    <t>2015-09</t>
-  </si>
-  <si>
-    <t>2015-10</t>
-  </si>
-  <si>
-    <t>2015-11</t>
-  </si>
-  <si>
-    <t>2015-12</t>
-  </si>
-  <si>
-    <t>2016-01</t>
-  </si>
-  <si>
-    <t>2016-02</t>
-  </si>
-  <si>
-    <t>2016-03</t>
-  </si>
-  <si>
-    <t>2016-04</t>
-  </si>
-  <si>
-    <t>2016-05</t>
-  </si>
-  <si>
-    <t>2016-06</t>
-  </si>
-  <si>
-    <t>2016-07</t>
-  </si>
-  <si>
-    <t>2016-08</t>
-  </si>
-  <si>
-    <t>2016-09</t>
-  </si>
-  <si>
-    <t>2016-10</t>
-  </si>
-  <si>
-    <t>2016-11</t>
-  </si>
-  <si>
-    <t>2016-12</t>
-  </si>
-  <si>
-    <t>2017-01</t>
-  </si>
-  <si>
-    <t>2017-02</t>
-  </si>
-  <si>
-    <t>2017-03</t>
-  </si>
-  <si>
-    <t>2017-04</t>
-  </si>
-  <si>
-    <t>2017-05</t>
-  </si>
-  <si>
-    <t>2017-06</t>
-  </si>
-  <si>
-    <t>2017-07</t>
-  </si>
-  <si>
-    <t>2017-08</t>
-  </si>
-  <si>
-    <t>2017-09</t>
-  </si>
-  <si>
-    <t>2017-10</t>
-  </si>
-  <si>
-    <t>2017-11</t>
-  </si>
-  <si>
-    <t>2017-12</t>
-  </si>
-  <si>
-    <t>2018-01</t>
-  </si>
-  <si>
-    <t>2018-02</t>
-  </si>
-  <si>
-    <t>2018-03</t>
-  </si>
-  <si>
-    <t>2018-04</t>
-  </si>
-  <si>
-    <t>2018-05</t>
-  </si>
-  <si>
-    <t>2018-06</t>
-  </si>
-  <si>
-    <t>2018-07</t>
-  </si>
-  <si>
-    <t>2018-08</t>
-  </si>
-  <si>
-    <t>2018-09</t>
-  </si>
-  <si>
-    <t>2018-10</t>
-  </si>
-  <si>
-    <t>2018-11</t>
-  </si>
-  <si>
-    <t>2018-12</t>
-  </si>
-  <si>
-    <t>2019-01</t>
-  </si>
-  <si>
-    <t>2019-02</t>
-  </si>
-  <si>
-    <t>2019-03</t>
-  </si>
-  <si>
-    <t>2019-04</t>
-  </si>
-  <si>
-    <t>2019-05</t>
-  </si>
-  <si>
-    <t>2019-06</t>
-  </si>
-  <si>
-    <t>2019-07</t>
-  </si>
-  <si>
-    <t>2019-08</t>
-  </si>
-  <si>
-    <t>2019-09</t>
-  </si>
-  <si>
-    <t>2019-10</t>
-  </si>
-  <si>
-    <t>2019-11</t>
-  </si>
-  <si>
-    <t>2019-12</t>
-  </si>
-  <si>
-    <t>2020-01</t>
-  </si>
-  <si>
-    <t>2020-02</t>
-  </si>
-  <si>
-    <t>2020-03</t>
-  </si>
-  <si>
-    <t>2020-04</t>
-  </si>
-  <si>
-    <t>2020-05</t>
-  </si>
-  <si>
-    <t>2020-06</t>
-  </si>
-  <si>
-    <t>2020-07</t>
-  </si>
-  <si>
-    <t>2020-08</t>
-  </si>
-  <si>
-    <t>2020-09</t>
-  </si>
-  <si>
-    <t>2020-10</t>
-  </si>
-  <si>
-    <t>2020-11</t>
-  </si>
-  <si>
-    <t>2020-12</t>
-  </si>
-  <si>
-    <t>2021-01</t>
-  </si>
-  <si>
-    <t>2021-02</t>
-  </si>
-  <si>
-    <t>2021-03</t>
-  </si>
-  <si>
-    <t>2021-04</t>
-  </si>
-  <si>
-    <t>2021-05</t>
-  </si>
-  <si>
-    <t>2021-06</t>
-  </si>
-  <si>
-    <t>2021-07</t>
-  </si>
-  <si>
-    <t>2021-08</t>
-  </si>
-  <si>
-    <t>2021-09</t>
-  </si>
-  <si>
-    <t>2021-10</t>
-  </si>
-  <si>
-    <t>2021-11</t>
-  </si>
-  <si>
-    <t>2021-12</t>
-  </si>
-  <si>
-    <t>14天</t>
-  </si>
-  <si>
-    <t>1个月</t>
-  </si>
-  <si>
-    <t>1天</t>
-  </si>
-  <si>
-    <t>1年</t>
-  </si>
-  <si>
-    <t>21天</t>
-  </si>
-  <si>
-    <t>2个月</t>
-  </si>
-  <si>
-    <t>3个月</t>
-  </si>
-  <si>
-    <t>4个月</t>
-  </si>
-  <si>
-    <t>6个月</t>
-  </si>
-  <si>
-    <t>7天</t>
-  </si>
-  <si>
-    <t>9个月</t>
-  </si>
-  <si>
-    <t>加权平均利率（%）</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1119,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IG13"/>
+  <dimension ref="A1:IS13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1127,731 +366,1273 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:241">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="EK1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="EL1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="EM1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="EN1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="EO1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="EP1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="EQ1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="ER1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="ES1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="ET1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="EU1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="EV1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="EW1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="EX1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="EY1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="EZ1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="FA1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="FB1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="FC1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="FD1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="FE1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="FF1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="FG1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="FH1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="FI1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="FJ1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="FK1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="FL1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="FM1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="FN1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="FO1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="FP1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="FQ1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="FR1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="FS1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="FT1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="FU1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="FV1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="FW1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="FX1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="FY1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="FZ1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="GA1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="GB1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="GC1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="GD1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="GE1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="GF1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="GG1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="GH1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="GI1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="GJ1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="GK1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="GL1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="GM1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="GN1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="GO1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="GP1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="GQ1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="GR1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="GS1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="GT1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="GU1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="GV1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="GW1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="GX1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="GY1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="GZ1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="HA1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="HB1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="HC1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="HD1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="HE1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="HF1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="HG1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="HH1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="HI1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="HJ1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="HK1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="HL1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="HM1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="HN1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="HO1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="HP1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="HQ1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="HR1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="HS1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="HT1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="HU1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="HV1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="HW1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="HX1" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="HY1" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="HZ1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="IA1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="IB1" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="IC1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="ID1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="IE1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="IF1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="IG1" s="1" t="s">
-        <v>239</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>2002-01</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2002-02</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2002-03</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2002-04</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2002-05</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2002-06</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2002-07</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2002-08</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2002-09</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2002-10</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2002-11</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2002-12</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2003-01</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2003-02</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2003-03</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2003-04</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2003-05</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2003-06</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>2003-07</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>2003-08</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>2003-09</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>2003-10</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>2003-11</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>2003-12</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>2004-01</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>2004-02</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>2004-03</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>2004-04</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>2004-05</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>2004-06</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>2004-07</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>2004-08</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>2004-09</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>2004-10</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>2004-11</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>2004-12</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>2005-01</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>2005-02</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>2005-03</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>2005-04</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>2005-05</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>2005-06</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>2005-07</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>2005-08</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>2005-09</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>2005-10</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>2005-11</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>2005-12</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>2006-01</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>2006-02</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>2006-03</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>2006-04</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>2006-05</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>2006-06</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>2006-07</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>2006-08</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>2006-09</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>2006-10</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>2006-11</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>2006-12</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>2007-01</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>2007-02</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>2007-03</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>2007-04</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>2007-05</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>2007-06</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>2007-07</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>2007-08</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>2007-09</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>2007-10</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>2007-11</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>2007-12</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>2008-01</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>2008-02</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>2008-03</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>2008-04</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>2008-05</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>2008-06</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>2008-07</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>2008-08</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>2008-09</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>2008-10</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>2008-11</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>2008-12</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>2009-01</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>2009-02</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>2009-03</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>2009-04</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>2009-05</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>2009-06</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>2009-07</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>2009-08</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>2009-09</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>2009-10</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>2009-11</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>2009-12</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>2010-01</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>2010-02</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>2010-03</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>2010-04</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>2010-05</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>2010-06</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>2010-07</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>2010-08</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>2010-09</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>2010-10</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>2010-11</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>2010-12</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>2011-01</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>2011-02</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>2011-03</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>2011-04</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>2011-05</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>2011-06</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>2011-07</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>2011-08</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>2011-09</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>2011-10</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>2011-11</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>2011-12</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>2012-01</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>2012-02</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>2012-03</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>2012-04</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>2012-05</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>2012-06</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>2012-07</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>2012-08</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>2012-09</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>2012-10</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>2012-11</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>2012-12</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>2013-01</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>2013-02</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>2013-03</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>2013-04</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>2013-05</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>2013-06</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>2013-07</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>2013-08</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>2013-09</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>2013-10</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>2013-11</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>2013-12</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>2014-01</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>2014-02</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>2014-03</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>2014-04</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>2014-05</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>2014-06</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>2014-07</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>2014-08</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>2014-09</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>2014-10</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>2014-11</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>2014-12</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>2015-01</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>2015-02</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>2015-03</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>2015-04</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>2015-05</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>2015-06</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>2015-07</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>2015-08</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
+          <t>2015-09</t>
+        </is>
+      </c>
+      <c r="FK1" s="1" t="inlineStr">
+        <is>
+          <t>2015-10</t>
+        </is>
+      </c>
+      <c r="FL1" s="1" t="inlineStr">
+        <is>
+          <t>2015-11</t>
+        </is>
+      </c>
+      <c r="FM1" s="1" t="inlineStr">
+        <is>
+          <t>2015-12</t>
+        </is>
+      </c>
+      <c r="FN1" s="1" t="inlineStr">
+        <is>
+          <t>2016-01</t>
+        </is>
+      </c>
+      <c r="FO1" s="1" t="inlineStr">
+        <is>
+          <t>2016-02</t>
+        </is>
+      </c>
+      <c r="FP1" s="1" t="inlineStr">
+        <is>
+          <t>2016-03</t>
+        </is>
+      </c>
+      <c r="FQ1" s="1" t="inlineStr">
+        <is>
+          <t>2016-04</t>
+        </is>
+      </c>
+      <c r="FR1" s="1" t="inlineStr">
+        <is>
+          <t>2016-05</t>
+        </is>
+      </c>
+      <c r="FS1" s="1" t="inlineStr">
+        <is>
+          <t>2016-06</t>
+        </is>
+      </c>
+      <c r="FT1" s="1" t="inlineStr">
+        <is>
+          <t>2016-07</t>
+        </is>
+      </c>
+      <c r="FU1" s="1" t="inlineStr">
+        <is>
+          <t>2016-08</t>
+        </is>
+      </c>
+      <c r="FV1" s="1" t="inlineStr">
+        <is>
+          <t>2016-09</t>
+        </is>
+      </c>
+      <c r="FW1" s="1" t="inlineStr">
+        <is>
+          <t>2016-10</t>
+        </is>
+      </c>
+      <c r="FX1" s="1" t="inlineStr">
+        <is>
+          <t>2016-11</t>
+        </is>
+      </c>
+      <c r="FY1" s="1" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="FZ1" s="1" t="inlineStr">
+        <is>
+          <t>2017-01</t>
+        </is>
+      </c>
+      <c r="GA1" s="1" t="inlineStr">
+        <is>
+          <t>2017-02</t>
+        </is>
+      </c>
+      <c r="GB1" s="1" t="inlineStr">
+        <is>
+          <t>2017-03</t>
+        </is>
+      </c>
+      <c r="GC1" s="1" t="inlineStr">
+        <is>
+          <t>2017-04</t>
+        </is>
+      </c>
+      <c r="GD1" s="1" t="inlineStr">
+        <is>
+          <t>2017-05</t>
+        </is>
+      </c>
+      <c r="GE1" s="1" t="inlineStr">
+        <is>
+          <t>2017-06</t>
+        </is>
+      </c>
+      <c r="GF1" s="1" t="inlineStr">
+        <is>
+          <t>2017-07</t>
+        </is>
+      </c>
+      <c r="GG1" s="1" t="inlineStr">
+        <is>
+          <t>2017-08</t>
+        </is>
+      </c>
+      <c r="GH1" s="1" t="inlineStr">
+        <is>
+          <t>2017-09</t>
+        </is>
+      </c>
+      <c r="GI1" s="1" t="inlineStr">
+        <is>
+          <t>2017-10</t>
+        </is>
+      </c>
+      <c r="GJ1" s="1" t="inlineStr">
+        <is>
+          <t>2017-11</t>
+        </is>
+      </c>
+      <c r="GK1" s="1" t="inlineStr">
+        <is>
+          <t>2017-12</t>
+        </is>
+      </c>
+      <c r="GL1" s="1" t="inlineStr">
+        <is>
+          <t>2018-01</t>
+        </is>
+      </c>
+      <c r="GM1" s="1" t="inlineStr">
+        <is>
+          <t>2018-02</t>
+        </is>
+      </c>
+      <c r="GN1" s="1" t="inlineStr">
+        <is>
+          <t>2018-03</t>
+        </is>
+      </c>
+      <c r="GO1" s="1" t="inlineStr">
+        <is>
+          <t>2018-04</t>
+        </is>
+      </c>
+      <c r="GP1" s="1" t="inlineStr">
+        <is>
+          <t>2018-05</t>
+        </is>
+      </c>
+      <c r="GQ1" s="1" t="inlineStr">
+        <is>
+          <t>2018-06</t>
+        </is>
+      </c>
+      <c r="GR1" s="1" t="inlineStr">
+        <is>
+          <t>2018-07</t>
+        </is>
+      </c>
+      <c r="GS1" s="1" t="inlineStr">
+        <is>
+          <t>2018-08</t>
+        </is>
+      </c>
+      <c r="GT1" s="1" t="inlineStr">
+        <is>
+          <t>2018-09</t>
+        </is>
+      </c>
+      <c r="GU1" s="1" t="inlineStr">
+        <is>
+          <t>2018-10</t>
+        </is>
+      </c>
+      <c r="GV1" s="1" t="inlineStr">
+        <is>
+          <t>2018-11</t>
+        </is>
+      </c>
+      <c r="GW1" s="1" t="inlineStr">
+        <is>
+          <t>2018-12</t>
+        </is>
+      </c>
+      <c r="GX1" s="1" t="inlineStr">
+        <is>
+          <t>2019-01</t>
+        </is>
+      </c>
+      <c r="GY1" s="1" t="inlineStr">
+        <is>
+          <t>2019-02</t>
+        </is>
+      </c>
+      <c r="GZ1" s="1" t="inlineStr">
+        <is>
+          <t>2019-03</t>
+        </is>
+      </c>
+      <c r="HA1" s="1" t="inlineStr">
+        <is>
+          <t>2019-04</t>
+        </is>
+      </c>
+      <c r="HB1" s="1" t="inlineStr">
+        <is>
+          <t>2019-05</t>
+        </is>
+      </c>
+      <c r="HC1" s="1" t="inlineStr">
+        <is>
+          <t>2019-06</t>
+        </is>
+      </c>
+      <c r="HD1" s="1" t="inlineStr">
+        <is>
+          <t>2019-07</t>
+        </is>
+      </c>
+      <c r="HE1" s="1" t="inlineStr">
+        <is>
+          <t>2019-08</t>
+        </is>
+      </c>
+      <c r="HF1" s="1" t="inlineStr">
+        <is>
+          <t>2019-09</t>
+        </is>
+      </c>
+      <c r="HG1" s="1" t="inlineStr">
+        <is>
+          <t>2019-10</t>
+        </is>
+      </c>
+      <c r="HH1" s="1" t="inlineStr">
+        <is>
+          <t>2019-11</t>
+        </is>
+      </c>
+      <c r="HI1" s="1" t="inlineStr">
+        <is>
+          <t>2019-12</t>
+        </is>
+      </c>
+      <c r="HJ1" s="1" t="inlineStr">
+        <is>
+          <t>2020-01</t>
+        </is>
+      </c>
+      <c r="HK1" s="1" t="inlineStr">
+        <is>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="HL1" s="1" t="inlineStr">
+        <is>
+          <t>2020-03</t>
+        </is>
+      </c>
+      <c r="HM1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04</t>
+        </is>
+      </c>
+      <c r="HN1" s="1" t="inlineStr">
+        <is>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="HO1" s="1" t="inlineStr">
+        <is>
+          <t>2020-06</t>
+        </is>
+      </c>
+      <c r="HP1" s="1" t="inlineStr">
+        <is>
+          <t>2020-07</t>
+        </is>
+      </c>
+      <c r="HQ1" s="1" t="inlineStr">
+        <is>
+          <t>2020-08</t>
+        </is>
+      </c>
+      <c r="HR1" s="1" t="inlineStr">
+        <is>
+          <t>2020-09</t>
+        </is>
+      </c>
+      <c r="HS1" s="1" t="inlineStr">
+        <is>
+          <t>2020-10</t>
+        </is>
+      </c>
+      <c r="HT1" s="1" t="inlineStr">
+        <is>
+          <t>2020-11</t>
+        </is>
+      </c>
+      <c r="HU1" s="1" t="inlineStr">
+        <is>
+          <t>2020-12</t>
+        </is>
+      </c>
+      <c r="HV1" s="1" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="HW1" s="1" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="HX1" s="1" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="HY1" s="1" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
+      </c>
+      <c r="HZ1" s="1" t="inlineStr">
+        <is>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="IA1" s="1" t="inlineStr">
+        <is>
+          <t>2021-06</t>
+        </is>
+      </c>
+      <c r="IB1" s="1" t="inlineStr">
+        <is>
+          <t>2021-07</t>
+        </is>
+      </c>
+      <c r="IC1" s="1" t="inlineStr">
+        <is>
+          <t>2021-08</t>
+        </is>
+      </c>
+      <c r="ID1" s="1" t="inlineStr">
+        <is>
+          <t>2021-09</t>
+        </is>
+      </c>
+      <c r="IE1" s="1" t="inlineStr">
+        <is>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="IF1" s="1" t="inlineStr">
+        <is>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="IG1" s="1" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="IH1" s="1" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="II1" s="1" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="IJ1" s="1" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="IK1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="IL1" s="1" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="IM1" s="1" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="IN1" s="1" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="IO1" s="1" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="IP1" s="1" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="IQ1" s="1" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="IR1" s="1" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="IS1" s="1" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:241">
-      <c r="A2" s="1" t="s">
-        <v>240</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>14天</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>2.146</v>
@@ -2549,18 +2330,36 @@
       <c r="HY2" t="n">
         <v>2.3258</v>
       </c>
-      <c r="HZ2" t="s"/>
-      <c r="IA2" t="s"/>
-      <c r="IB2" t="s"/>
-      <c r="IC2" t="s"/>
-      <c r="ID2" t="s"/>
-      <c r="IE2" t="s"/>
-      <c r="IF2" t="s"/>
-      <c r="IG2" t="s"/>
+      <c r="HZ2" t="inlineStr"/>
+      <c r="IA2" t="inlineStr"/>
+      <c r="IB2" t="inlineStr"/>
+      <c r="IC2" t="inlineStr"/>
+      <c r="ID2" t="inlineStr"/>
+      <c r="IE2" t="inlineStr"/>
+      <c r="IF2" t="inlineStr"/>
+      <c r="IG2" t="inlineStr"/>
+      <c r="IH2" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="II2" t="inlineStr"/>
+      <c r="IJ2" t="inlineStr"/>
+      <c r="IK2" t="inlineStr"/>
+      <c r="IL2" t="inlineStr"/>
+      <c r="IM2" t="inlineStr"/>
+      <c r="IN2" t="inlineStr"/>
+      <c r="IO2" t="inlineStr"/>
+      <c r="IP2" t="inlineStr"/>
+      <c r="IQ2" t="inlineStr"/>
+      <c r="IR2" t="inlineStr"/>
+      <c r="IS2" t="inlineStr"/>
     </row>
-    <row r="3" spans="1:241">
-      <c r="A3" s="1" t="s">
-        <v>241</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1个月</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>2.207</v>
@@ -3258,67 +3057,85 @@
       <c r="HY3" t="n">
         <v>2.5554</v>
       </c>
-      <c r="HZ3" t="s"/>
-      <c r="IA3" t="s"/>
-      <c r="IB3" t="s"/>
-      <c r="IC3" t="s"/>
-      <c r="ID3" t="s"/>
-      <c r="IE3" t="s"/>
-      <c r="IF3" t="s"/>
-      <c r="IG3" t="s"/>
+      <c r="HZ3" t="inlineStr"/>
+      <c r="IA3" t="inlineStr"/>
+      <c r="IB3" t="inlineStr"/>
+      <c r="IC3" t="inlineStr"/>
+      <c r="ID3" t="inlineStr"/>
+      <c r="IE3" t="inlineStr"/>
+      <c r="IF3" t="inlineStr"/>
+      <c r="IG3" t="inlineStr"/>
+      <c r="IH3" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="II3" t="inlineStr"/>
+      <c r="IJ3" t="inlineStr"/>
+      <c r="IK3" t="inlineStr"/>
+      <c r="IL3" t="inlineStr"/>
+      <c r="IM3" t="inlineStr"/>
+      <c r="IN3" t="inlineStr"/>
+      <c r="IO3" t="inlineStr"/>
+      <c r="IP3" t="inlineStr"/>
+      <c r="IQ3" t="inlineStr"/>
+      <c r="IR3" t="inlineStr"/>
+      <c r="IS3" t="inlineStr"/>
     </row>
-    <row r="4" spans="1:241">
-      <c r="A4" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
-      <c r="D4" t="s"/>
-      <c r="E4" t="s"/>
-      <c r="F4" t="s"/>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s"/>
-      <c r="J4" t="s"/>
-      <c r="K4" t="s"/>
-      <c r="L4" t="s"/>
-      <c r="M4" t="s"/>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
-      <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
-      <c r="V4" t="s"/>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
-      <c r="Y4" t="s"/>
-      <c r="Z4" t="s"/>
-      <c r="AA4" t="s"/>
-      <c r="AB4" t="s"/>
-      <c r="AC4" t="s"/>
-      <c r="AD4" t="s"/>
-      <c r="AE4" t="s"/>
-      <c r="AF4" t="s"/>
-      <c r="AG4" t="s"/>
-      <c r="AH4" t="s"/>
-      <c r="AI4" t="s"/>
-      <c r="AJ4" t="s"/>
-      <c r="AK4" t="s"/>
-      <c r="AL4" t="s"/>
-      <c r="AM4" t="s"/>
-      <c r="AN4" t="s"/>
-      <c r="AO4" t="s"/>
-      <c r="AP4" t="s"/>
-      <c r="AQ4" t="s"/>
-      <c r="AR4" t="s"/>
-      <c r="AS4" t="s"/>
-      <c r="AT4" t="s"/>
-      <c r="AU4" t="s"/>
-      <c r="AV4" t="s"/>
-      <c r="AW4" t="s"/>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>1天</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr"/>
       <c r="AX4" t="n">
         <v>1.6</v>
       </c>
@@ -3871,18 +3688,36 @@
       <c r="HY4" t="n">
         <v>1.9118</v>
       </c>
-      <c r="HZ4" t="s"/>
-      <c r="IA4" t="s"/>
-      <c r="IB4" t="s"/>
-      <c r="IC4" t="s"/>
-      <c r="ID4" t="s"/>
-      <c r="IE4" t="s"/>
-      <c r="IF4" t="s"/>
-      <c r="IG4" t="s"/>
+      <c r="HZ4" t="inlineStr"/>
+      <c r="IA4" t="inlineStr"/>
+      <c r="IB4" t="inlineStr"/>
+      <c r="IC4" t="inlineStr"/>
+      <c r="ID4" t="inlineStr"/>
+      <c r="IE4" t="inlineStr"/>
+      <c r="IF4" t="inlineStr"/>
+      <c r="IG4" t="inlineStr"/>
+      <c r="IH4" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="II4" t="inlineStr"/>
+      <c r="IJ4" t="inlineStr"/>
+      <c r="IK4" t="inlineStr"/>
+      <c r="IL4" t="inlineStr"/>
+      <c r="IM4" t="inlineStr"/>
+      <c r="IN4" t="inlineStr"/>
+      <c r="IO4" t="inlineStr"/>
+      <c r="IP4" t="inlineStr"/>
+      <c r="IQ4" t="inlineStr"/>
+      <c r="IR4" t="inlineStr"/>
+      <c r="IS4" t="inlineStr"/>
     </row>
-    <row r="5" spans="1:241">
-      <c r="A5" s="1" t="s">
-        <v>243</v>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>1年</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -4070,23 +3905,23 @@
       <c r="BK5" t="n">
         <v>2.826</v>
       </c>
-      <c r="BL5" t="s"/>
-      <c r="BM5" t="s"/>
-      <c r="BN5" t="s"/>
+      <c r="BL5" t="inlineStr"/>
+      <c r="BM5" t="inlineStr"/>
+      <c r="BN5" t="inlineStr"/>
       <c r="BO5" t="n">
         <v>3.4</v>
       </c>
       <c r="BP5" t="n">
         <v>3.5</v>
       </c>
-      <c r="BQ5" t="s"/>
-      <c r="BR5" t="s"/>
-      <c r="BS5" t="s"/>
-      <c r="BT5" t="s"/>
+      <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
+      <c r="BS5" t="inlineStr"/>
+      <c r="BT5" t="inlineStr"/>
       <c r="BU5" t="n">
         <v>5.6</v>
       </c>
-      <c r="BV5" t="s"/>
+      <c r="BV5" t="inlineStr"/>
       <c r="BW5" t="n">
         <v>4.48</v>
       </c>
@@ -4117,16 +3952,16 @@
       <c r="CF5" t="n">
         <v>4.59</v>
       </c>
-      <c r="CG5" t="s"/>
-      <c r="CH5" t="s"/>
+      <c r="CG5" t="inlineStr"/>
+      <c r="CH5" t="inlineStr"/>
       <c r="CI5" t="n">
         <v>1.58</v>
       </c>
       <c r="CJ5" t="n">
         <v>1.66</v>
       </c>
-      <c r="CK5" t="s"/>
-      <c r="CL5" t="s"/>
+      <c r="CK5" t="inlineStr"/>
+      <c r="CL5" t="inlineStr"/>
       <c r="CM5" t="n">
         <v>1.910467781581</v>
       </c>
@@ -4145,7 +3980,7 @@
       <c r="CR5" t="n">
         <v>2.5</v>
       </c>
-      <c r="CS5" t="s"/>
+      <c r="CS5" t="inlineStr"/>
       <c r="CT5" t="n">
         <v>2.5</v>
       </c>
@@ -4158,7 +3993,7 @@
       <c r="CW5" t="n">
         <v>2.5</v>
       </c>
-      <c r="CX5" t="s"/>
+      <c r="CX5" t="inlineStr"/>
       <c r="CY5" t="n">
         <v>3.6</v>
       </c>
@@ -4168,23 +4003,23 @@
       <c r="DA5" t="n">
         <v>2.908333333333</v>
       </c>
-      <c r="DB5" t="s"/>
+      <c r="DB5" t="inlineStr"/>
       <c r="DC5" t="n">
         <v>3.6</v>
       </c>
-      <c r="DD5" t="s"/>
+      <c r="DD5" t="inlineStr"/>
       <c r="DE5" t="n">
         <v>5.233333333333</v>
       </c>
       <c r="DF5" t="n">
         <v>5.004527296937</v>
       </c>
-      <c r="DG5" t="s"/>
+      <c r="DG5" t="inlineStr"/>
       <c r="DH5" t="n">
         <v>0</v>
       </c>
-      <c r="DI5" t="s"/>
-      <c r="DJ5" t="s"/>
+      <c r="DI5" t="inlineStr"/>
+      <c r="DJ5" t="inlineStr"/>
       <c r="DK5" t="n">
         <v>5.6</v>
       </c>
@@ -4218,9 +4053,9 @@
       <c r="DU5" t="n">
         <v>5.131241257952</v>
       </c>
-      <c r="DV5" t="s"/>
-      <c r="DW5" t="s"/>
-      <c r="DX5" t="s"/>
+      <c r="DV5" t="inlineStr"/>
+      <c r="DW5" t="inlineStr"/>
+      <c r="DX5" t="inlineStr"/>
       <c r="DY5" t="n">
         <v>3.75</v>
       </c>
@@ -4236,7 +4071,7 @@
       <c r="EC5" t="n">
         <v>3.982808411272</v>
       </c>
-      <c r="ED5" t="s"/>
+      <c r="ED5" t="inlineStr"/>
       <c r="EE5" t="n">
         <v>4</v>
       </c>
@@ -4246,7 +4081,7 @@
       <c r="EG5" t="n">
         <v>4.192102923723</v>
       </c>
-      <c r="EH5" t="s"/>
+      <c r="EH5" t="inlineStr"/>
       <c r="EI5" t="n">
         <v>6.098510844934</v>
       </c>
@@ -4298,7 +4133,7 @@
       <c r="EY5" t="n">
         <v>4.675203169357</v>
       </c>
-      <c r="EZ5" t="s"/>
+      <c r="EZ5" t="inlineStr"/>
       <c r="FA5" t="n">
         <v>5.317302451137</v>
       </c>
@@ -4317,17 +4152,17 @@
       <c r="FF5" t="n">
         <v>3.5</v>
       </c>
-      <c r="FG5" t="s"/>
+      <c r="FG5" t="inlineStr"/>
       <c r="FH5" t="n">
         <v>4.234615384615</v>
       </c>
       <c r="FI5" t="n">
         <v>4.2</v>
       </c>
-      <c r="FJ5" t="s"/>
-      <c r="FK5" t="s"/>
-      <c r="FL5" t="s"/>
-      <c r="FM5" t="s"/>
+      <c r="FJ5" t="inlineStr"/>
+      <c r="FK5" t="inlineStr"/>
+      <c r="FL5" t="inlineStr"/>
+      <c r="FM5" t="inlineStr"/>
       <c r="FN5" t="n">
         <v>3.112881355932</v>
       </c>
@@ -4340,8 +4175,8 @@
       <c r="FQ5" t="n">
         <v>3</v>
       </c>
-      <c r="FR5" t="s"/>
-      <c r="FS5" t="s"/>
+      <c r="FR5" t="inlineStr"/>
+      <c r="FS5" t="inlineStr"/>
       <c r="FT5" t="n">
         <v>3.4</v>
       </c>
@@ -4453,7 +4288,7 @@
       <c r="HD5" t="n">
         <v>3.688254480865</v>
       </c>
-      <c r="HE5" t="s"/>
+      <c r="HE5" t="inlineStr"/>
       <c r="HF5" t="n">
         <v>20</v>
       </c>
@@ -4487,7 +4322,7 @@
       <c r="HP5" t="n">
         <v>2.7624</v>
       </c>
-      <c r="HQ5" t="s"/>
+      <c r="HQ5" t="inlineStr"/>
       <c r="HR5" t="n">
         <v>3.11</v>
       </c>
@@ -4497,8 +4332,8 @@
       <c r="HT5" t="n">
         <v>6.5086</v>
       </c>
-      <c r="HU5" t="s"/>
-      <c r="HV5" t="s"/>
+      <c r="HU5" t="inlineStr"/>
+      <c r="HV5" t="inlineStr"/>
       <c r="HW5" t="n">
         <v>3.4</v>
       </c>
@@ -4508,18 +4343,36 @@
       <c r="HY5" t="n">
         <v>3.05</v>
       </c>
-      <c r="HZ5" t="s"/>
-      <c r="IA5" t="s"/>
-      <c r="IB5" t="s"/>
-      <c r="IC5" t="s"/>
-      <c r="ID5" t="s"/>
-      <c r="IE5" t="s"/>
-      <c r="IF5" t="s"/>
-      <c r="IG5" t="s"/>
+      <c r="HZ5" t="inlineStr"/>
+      <c r="IA5" t="inlineStr"/>
+      <c r="IB5" t="inlineStr"/>
+      <c r="IC5" t="inlineStr"/>
+      <c r="ID5" t="inlineStr"/>
+      <c r="IE5" t="inlineStr"/>
+      <c r="IF5" t="inlineStr"/>
+      <c r="IG5" t="inlineStr"/>
+      <c r="IH5" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="II5" t="inlineStr"/>
+      <c r="IJ5" t="inlineStr"/>
+      <c r="IK5" t="inlineStr"/>
+      <c r="IL5" t="inlineStr"/>
+      <c r="IM5" t="inlineStr"/>
+      <c r="IN5" t="inlineStr"/>
+      <c r="IO5" t="inlineStr"/>
+      <c r="IP5" t="inlineStr"/>
+      <c r="IQ5" t="inlineStr"/>
+      <c r="IR5" t="inlineStr"/>
+      <c r="IS5" t="inlineStr"/>
     </row>
-    <row r="6" spans="1:241">
-      <c r="A6" s="1" t="s">
-        <v>244</v>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>21天</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>2.162</v>
@@ -5217,18 +5070,36 @@
       <c r="HY6" t="n">
         <v>2.6165</v>
       </c>
-      <c r="HZ6" t="s"/>
-      <c r="IA6" t="s"/>
-      <c r="IB6" t="s"/>
-      <c r="IC6" t="s"/>
-      <c r="ID6" t="s"/>
-      <c r="IE6" t="s"/>
-      <c r="IF6" t="s"/>
-      <c r="IG6" t="s"/>
+      <c r="HZ6" t="inlineStr"/>
+      <c r="IA6" t="inlineStr"/>
+      <c r="IB6" t="inlineStr"/>
+      <c r="IC6" t="inlineStr"/>
+      <c r="ID6" t="inlineStr"/>
+      <c r="IE6" t="inlineStr"/>
+      <c r="IF6" t="inlineStr"/>
+      <c r="IG6" t="inlineStr"/>
+      <c r="IH6" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="II6" t="inlineStr"/>
+      <c r="IJ6" t="inlineStr"/>
+      <c r="IK6" t="inlineStr"/>
+      <c r="IL6" t="inlineStr"/>
+      <c r="IM6" t="inlineStr"/>
+      <c r="IN6" t="inlineStr"/>
+      <c r="IO6" t="inlineStr"/>
+      <c r="IP6" t="inlineStr"/>
+      <c r="IQ6" t="inlineStr"/>
+      <c r="IR6" t="inlineStr"/>
+      <c r="IS6" t="inlineStr"/>
     </row>
-    <row r="7" spans="1:241">
-      <c r="A7" s="1" t="s">
-        <v>245</v>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>2个月</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>2.215</v>
@@ -5926,18 +5797,36 @@
       <c r="HY7" t="n">
         <v>2.5886</v>
       </c>
-      <c r="HZ7" t="s"/>
-      <c r="IA7" t="s"/>
-      <c r="IB7" t="s"/>
-      <c r="IC7" t="s"/>
-      <c r="ID7" t="s"/>
-      <c r="IE7" t="s"/>
-      <c r="IF7" t="s"/>
-      <c r="IG7" t="s"/>
+      <c r="HZ7" t="inlineStr"/>
+      <c r="IA7" t="inlineStr"/>
+      <c r="IB7" t="inlineStr"/>
+      <c r="IC7" t="inlineStr"/>
+      <c r="ID7" t="inlineStr"/>
+      <c r="IE7" t="inlineStr"/>
+      <c r="IF7" t="inlineStr"/>
+      <c r="IG7" t="inlineStr"/>
+      <c r="IH7" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="II7" t="inlineStr"/>
+      <c r="IJ7" t="inlineStr"/>
+      <c r="IK7" t="inlineStr"/>
+      <c r="IL7" t="inlineStr"/>
+      <c r="IM7" t="inlineStr"/>
+      <c r="IN7" t="inlineStr"/>
+      <c r="IO7" t="inlineStr"/>
+      <c r="IP7" t="inlineStr"/>
+      <c r="IQ7" t="inlineStr"/>
+      <c r="IR7" t="inlineStr"/>
+      <c r="IS7" t="inlineStr"/>
     </row>
-    <row r="8" spans="1:241">
-      <c r="A8" s="1" t="s">
-        <v>246</v>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>3个月</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>2.28</v>
@@ -6635,18 +6524,36 @@
       <c r="HY8" t="n">
         <v>2.8202</v>
       </c>
-      <c r="HZ8" t="s"/>
-      <c r="IA8" t="s"/>
-      <c r="IB8" t="s"/>
-      <c r="IC8" t="s"/>
-      <c r="ID8" t="s"/>
-      <c r="IE8" t="s"/>
-      <c r="IF8" t="s"/>
-      <c r="IG8" t="s"/>
+      <c r="HZ8" t="inlineStr"/>
+      <c r="IA8" t="inlineStr"/>
+      <c r="IB8" t="inlineStr"/>
+      <c r="IC8" t="inlineStr"/>
+      <c r="ID8" t="inlineStr"/>
+      <c r="IE8" t="inlineStr"/>
+      <c r="IF8" t="inlineStr"/>
+      <c r="IG8" t="inlineStr"/>
+      <c r="IH8" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="II8" t="inlineStr"/>
+      <c r="IJ8" t="inlineStr"/>
+      <c r="IK8" t="inlineStr"/>
+      <c r="IL8" t="inlineStr"/>
+      <c r="IM8" t="inlineStr"/>
+      <c r="IN8" t="inlineStr"/>
+      <c r="IO8" t="inlineStr"/>
+      <c r="IP8" t="inlineStr"/>
+      <c r="IQ8" t="inlineStr"/>
+      <c r="IR8" t="inlineStr"/>
+      <c r="IS8" t="inlineStr"/>
     </row>
-    <row r="9" spans="1:241">
-      <c r="A9" s="1" t="s">
-        <v>247</v>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>4个月</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -6837,8 +6744,8 @@
       <c r="BL9" t="n">
         <v>2.39</v>
       </c>
-      <c r="BM9" t="s"/>
-      <c r="BN9" t="s"/>
+      <c r="BM9" t="inlineStr"/>
+      <c r="BN9" t="inlineStr"/>
       <c r="BO9" t="n">
         <v>3.3</v>
       </c>
@@ -6893,8 +6800,8 @@
       <c r="CF9" t="n">
         <v>3.91</v>
       </c>
-      <c r="CG9" t="s"/>
-      <c r="CH9" t="s"/>
+      <c r="CG9" t="inlineStr"/>
+      <c r="CH9" t="inlineStr"/>
       <c r="CI9" t="n">
         <v>1.04</v>
       </c>
@@ -6910,26 +6817,26 @@
       <c r="CM9" t="n">
         <v>1.318859945329</v>
       </c>
-      <c r="CN9" t="s"/>
+      <c r="CN9" t="inlineStr"/>
       <c r="CO9" t="n">
         <v>1.772771192529</v>
       </c>
       <c r="CP9" t="n">
         <v>1.724431910377</v>
       </c>
-      <c r="CQ9" t="s"/>
-      <c r="CR9" t="s"/>
+      <c r="CQ9" t="inlineStr"/>
+      <c r="CR9" t="inlineStr"/>
       <c r="CS9" t="n">
         <v>1.898598490682</v>
       </c>
-      <c r="CT9" t="s"/>
+      <c r="CT9" t="inlineStr"/>
       <c r="CU9" t="n">
         <v>1.984501923549</v>
       </c>
       <c r="CV9" t="n">
         <v>1.98</v>
       </c>
-      <c r="CW9" t="s"/>
+      <c r="CW9" t="inlineStr"/>
       <c r="CX9" t="n">
         <v>2.1</v>
       </c>
@@ -7326,18 +7233,36 @@
       <c r="HY9" t="n">
         <v>2.7478</v>
       </c>
-      <c r="HZ9" t="s"/>
-      <c r="IA9" t="s"/>
-      <c r="IB9" t="s"/>
-      <c r="IC9" t="s"/>
-      <c r="ID9" t="s"/>
-      <c r="IE9" t="s"/>
-      <c r="IF9" t="s"/>
-      <c r="IG9" t="s"/>
+      <c r="HZ9" t="inlineStr"/>
+      <c r="IA9" t="inlineStr"/>
+      <c r="IB9" t="inlineStr"/>
+      <c r="IC9" t="inlineStr"/>
+      <c r="ID9" t="inlineStr"/>
+      <c r="IE9" t="inlineStr"/>
+      <c r="IF9" t="inlineStr"/>
+      <c r="IG9" t="inlineStr"/>
+      <c r="IH9" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="II9" t="inlineStr"/>
+      <c r="IJ9" t="inlineStr"/>
+      <c r="IK9" t="inlineStr"/>
+      <c r="IL9" t="inlineStr"/>
+      <c r="IM9" t="inlineStr"/>
+      <c r="IN9" t="inlineStr"/>
+      <c r="IO9" t="inlineStr"/>
+      <c r="IP9" t="inlineStr"/>
+      <c r="IQ9" t="inlineStr"/>
+      <c r="IR9" t="inlineStr"/>
+      <c r="IS9" t="inlineStr"/>
     </row>
-    <row r="10" spans="1:241">
-      <c r="A10" s="1" t="s">
-        <v>248</v>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>6个月</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -7522,12 +7447,12 @@
       <c r="BJ10" t="n">
         <v>3</v>
       </c>
-      <c r="BK10" t="s"/>
-      <c r="BL10" t="s"/>
+      <c r="BK10" t="inlineStr"/>
+      <c r="BL10" t="inlineStr"/>
       <c r="BM10" t="n">
         <v>3.146</v>
       </c>
-      <c r="BN10" t="s"/>
+      <c r="BN10" t="inlineStr"/>
       <c r="BO10" t="n">
         <v>2.51</v>
       </c>
@@ -7537,7 +7462,7 @@
       <c r="BQ10" t="n">
         <v>3.284</v>
       </c>
-      <c r="BR10" t="s"/>
+      <c r="BR10" t="inlineStr"/>
       <c r="BS10" t="n">
         <v>4.036</v>
       </c>
@@ -7580,8 +7505,8 @@
       <c r="CF10" t="n">
         <v>3.87</v>
       </c>
-      <c r="CG10" t="s"/>
-      <c r="CH10" t="s"/>
+      <c r="CG10" t="inlineStr"/>
+      <c r="CH10" t="inlineStr"/>
       <c r="CI10" t="n">
         <v>1.46</v>
       </c>
@@ -7612,7 +7537,7 @@
       <c r="CR10" t="n">
         <v>2.5</v>
       </c>
-      <c r="CS10" t="s"/>
+      <c r="CS10" t="inlineStr"/>
       <c r="CT10" t="n">
         <v>1.963255124145</v>
       </c>
@@ -8021,18 +7946,36 @@
       <c r="HY10" t="n">
         <v>2.843</v>
       </c>
-      <c r="HZ10" t="s"/>
-      <c r="IA10" t="s"/>
-      <c r="IB10" t="s"/>
-      <c r="IC10" t="s"/>
-      <c r="ID10" t="s"/>
-      <c r="IE10" t="s"/>
-      <c r="IF10" t="s"/>
-      <c r="IG10" t="s"/>
+      <c r="HZ10" t="inlineStr"/>
+      <c r="IA10" t="inlineStr"/>
+      <c r="IB10" t="inlineStr"/>
+      <c r="IC10" t="inlineStr"/>
+      <c r="ID10" t="inlineStr"/>
+      <c r="IE10" t="inlineStr"/>
+      <c r="IF10" t="inlineStr"/>
+      <c r="IG10" t="inlineStr"/>
+      <c r="IH10" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="II10" t="inlineStr"/>
+      <c r="IJ10" t="inlineStr"/>
+      <c r="IK10" t="inlineStr"/>
+      <c r="IL10" t="inlineStr"/>
+      <c r="IM10" t="inlineStr"/>
+      <c r="IN10" t="inlineStr"/>
+      <c r="IO10" t="inlineStr"/>
+      <c r="IP10" t="inlineStr"/>
+      <c r="IQ10" t="inlineStr"/>
+      <c r="IR10" t="inlineStr"/>
+      <c r="IS10" t="inlineStr"/>
     </row>
-    <row r="11" spans="1:241">
-      <c r="A11" s="1" t="s">
-        <v>249</v>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>7天</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>2.136</v>
@@ -8730,18 +8673,36 @@
       <c r="HY11" t="n">
         <v>2.1506</v>
       </c>
-      <c r="HZ11" t="s"/>
-      <c r="IA11" t="s"/>
-      <c r="IB11" t="s"/>
-      <c r="IC11" t="s"/>
-      <c r="ID11" t="s"/>
-      <c r="IE11" t="s"/>
-      <c r="IF11" t="s"/>
-      <c r="IG11" t="s"/>
+      <c r="HZ11" t="inlineStr"/>
+      <c r="IA11" t="inlineStr"/>
+      <c r="IB11" t="inlineStr"/>
+      <c r="IC11" t="inlineStr"/>
+      <c r="ID11" t="inlineStr"/>
+      <c r="IE11" t="inlineStr"/>
+      <c r="IF11" t="inlineStr"/>
+      <c r="IG11" t="inlineStr"/>
+      <c r="IH11" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="II11" t="inlineStr"/>
+      <c r="IJ11" t="inlineStr"/>
+      <c r="IK11" t="inlineStr"/>
+      <c r="IL11" t="inlineStr"/>
+      <c r="IM11" t="inlineStr"/>
+      <c r="IN11" t="inlineStr"/>
+      <c r="IO11" t="inlineStr"/>
+      <c r="IP11" t="inlineStr"/>
+      <c r="IQ11" t="inlineStr"/>
+      <c r="IR11" t="inlineStr"/>
+      <c r="IS11" t="inlineStr"/>
     </row>
-    <row r="12" spans="1:241">
-      <c r="A12" s="1" t="s">
-        <v>250</v>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>9个月</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -8923,23 +8884,23 @@
       <c r="BI12" t="n">
         <v>0</v>
       </c>
-      <c r="BJ12" t="s"/>
-      <c r="BK12" t="s"/>
-      <c r="BL12" t="s"/>
-      <c r="BM12" t="s"/>
+      <c r="BJ12" t="inlineStr"/>
+      <c r="BK12" t="inlineStr"/>
+      <c r="BL12" t="inlineStr"/>
+      <c r="BM12" t="inlineStr"/>
       <c r="BN12" t="n">
         <v>3.14</v>
       </c>
       <c r="BO12" t="n">
         <v>3.4</v>
       </c>
-      <c r="BP12" t="s"/>
-      <c r="BQ12" t="s"/>
-      <c r="BR12" t="s"/>
-      <c r="BS12" t="s"/>
-      <c r="BT12" t="s"/>
-      <c r="BU12" t="s"/>
-      <c r="BV12" t="s"/>
+      <c r="BP12" t="inlineStr"/>
+      <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
+      <c r="BS12" t="inlineStr"/>
+      <c r="BT12" t="inlineStr"/>
+      <c r="BU12" t="inlineStr"/>
+      <c r="BV12" t="inlineStr"/>
       <c r="BW12" t="n">
         <v>4.7</v>
       </c>
@@ -8952,7 +8913,7 @@
       <c r="BZ12" t="n">
         <v>4.7</v>
       </c>
-      <c r="CA12" t="s"/>
+      <c r="CA12" t="inlineStr"/>
       <c r="CB12" t="n">
         <v>4.71</v>
       </c>
@@ -8968,18 +8929,18 @@
       <c r="CF12" t="n">
         <v>4.31</v>
       </c>
-      <c r="CG12" t="s"/>
-      <c r="CH12" t="s"/>
+      <c r="CG12" t="inlineStr"/>
+      <c r="CH12" t="inlineStr"/>
       <c r="CI12" t="n">
         <v>1.4</v>
       </c>
-      <c r="CJ12" t="s"/>
-      <c r="CK12" t="s"/>
-      <c r="CL12" t="s"/>
+      <c r="CJ12" t="inlineStr"/>
+      <c r="CK12" t="inlineStr"/>
+      <c r="CL12" t="inlineStr"/>
       <c r="CM12" t="n">
         <v>1.708490566038</v>
       </c>
-      <c r="CN12" t="s"/>
+      <c r="CN12" t="inlineStr"/>
       <c r="CO12" t="n">
         <v>1.887499446064</v>
       </c>
@@ -8989,40 +8950,40 @@
       <c r="CQ12" t="n">
         <v>1.9</v>
       </c>
-      <c r="CR12" t="s"/>
-      <c r="CS12" t="s"/>
+      <c r="CR12" t="inlineStr"/>
+      <c r="CS12" t="inlineStr"/>
       <c r="CT12" t="n">
         <v>2.166</v>
       </c>
-      <c r="CU12" t="s"/>
+      <c r="CU12" t="inlineStr"/>
       <c r="CV12" t="n">
         <v>2.168401123145</v>
       </c>
-      <c r="CW12" t="s"/>
+      <c r="CW12" t="inlineStr"/>
       <c r="CX12" t="n">
         <v>2.359402460457</v>
       </c>
       <c r="CY12" t="n">
         <v>3.5</v>
       </c>
-      <c r="CZ12" t="s"/>
+      <c r="CZ12" t="inlineStr"/>
       <c r="DA12" t="n">
         <v>2.9</v>
       </c>
-      <c r="DB12" t="s"/>
-      <c r="DC12" t="s"/>
-      <c r="DD12" t="s"/>
-      <c r="DE12" t="s"/>
-      <c r="DF12" t="s"/>
-      <c r="DG12" t="s"/>
+      <c r="DB12" t="inlineStr"/>
+      <c r="DC12" t="inlineStr"/>
+      <c r="DD12" t="inlineStr"/>
+      <c r="DE12" t="inlineStr"/>
+      <c r="DF12" t="inlineStr"/>
+      <c r="DG12" t="inlineStr"/>
       <c r="DH12" t="n">
         <v>4.25</v>
       </c>
-      <c r="DI12" t="s"/>
+      <c r="DI12" t="inlineStr"/>
       <c r="DJ12" t="n">
         <v>4.9</v>
       </c>
-      <c r="DK12" t="s"/>
+      <c r="DK12" t="inlineStr"/>
       <c r="DL12" t="n">
         <v>5.898139416458</v>
       </c>
@@ -9038,27 +8999,27 @@
       <c r="DP12" t="n">
         <v>6.6</v>
       </c>
-      <c r="DQ12" t="s"/>
+      <c r="DQ12" t="inlineStr"/>
       <c r="DR12" t="n">
         <v>6.3</v>
       </c>
-      <c r="DS12" t="s"/>
+      <c r="DS12" t="inlineStr"/>
       <c r="DT12" t="n">
         <v>5.183984526112</v>
       </c>
-      <c r="DU12" t="s"/>
-      <c r="DV12" t="s"/>
+      <c r="DU12" t="inlineStr"/>
+      <c r="DV12" t="inlineStr"/>
       <c r="DW12" t="n">
         <v>4.5</v>
       </c>
-      <c r="DX12" t="s"/>
+      <c r="DX12" t="inlineStr"/>
       <c r="DY12" t="n">
         <v>3.816880706331</v>
       </c>
       <c r="DZ12" t="n">
         <v>3.884697688503</v>
       </c>
-      <c r="EA12" t="s"/>
+      <c r="EA12" t="inlineStr"/>
       <c r="EB12" t="n">
         <v>4.731260940235</v>
       </c>
@@ -9068,11 +9029,11 @@
       <c r="ED12" t="n">
         <v>3.767567567568</v>
       </c>
-      <c r="EE12" t="s"/>
+      <c r="EE12" t="inlineStr"/>
       <c r="EF12" t="n">
         <v>4.2</v>
       </c>
-      <c r="EG12" t="s"/>
+      <c r="EG12" t="inlineStr"/>
       <c r="EH12" t="n">
         <v>3.787353877257</v>
       </c>
@@ -9160,7 +9121,7 @@
       <c r="FJ12" t="n">
         <v>3.781169044106</v>
       </c>
-      <c r="FK12" t="s"/>
+      <c r="FK12" t="inlineStr"/>
       <c r="FL12" t="n">
         <v>3.8</v>
       </c>
@@ -9188,7 +9149,7 @@
       <c r="FT12" t="n">
         <v>3.25</v>
       </c>
-      <c r="FU12" t="s"/>
+      <c r="FU12" t="inlineStr"/>
       <c r="FV12" t="n">
         <v>3.042174364471</v>
       </c>
@@ -9324,7 +9285,7 @@
       <c r="HN12" t="n">
         <v>2.2856</v>
       </c>
-      <c r="HO12" t="s"/>
+      <c r="HO12" t="inlineStr"/>
       <c r="HP12" t="n">
         <v>2.8</v>
       </c>
@@ -9334,7 +9295,7 @@
       <c r="HR12" t="n">
         <v>3.05</v>
       </c>
-      <c r="HS12" t="s"/>
+      <c r="HS12" t="inlineStr"/>
       <c r="HT12" t="n">
         <v>3.6453</v>
       </c>
@@ -9353,259 +9314,293 @@
       <c r="HY12" t="n">
         <v>3.1</v>
       </c>
-      <c r="HZ12" t="s"/>
-      <c r="IA12" t="s"/>
-      <c r="IB12" t="s"/>
-      <c r="IC12" t="s"/>
-      <c r="ID12" t="s"/>
-      <c r="IE12" t="s"/>
-      <c r="IF12" t="s"/>
-      <c r="IG12" t="s"/>
+      <c r="HZ12" t="inlineStr"/>
+      <c r="IA12" t="inlineStr"/>
+      <c r="IB12" t="inlineStr"/>
+      <c r="IC12" t="inlineStr"/>
+      <c r="ID12" t="inlineStr"/>
+      <c r="IE12" t="inlineStr"/>
+      <c r="IF12" t="inlineStr"/>
+      <c r="IG12" t="inlineStr"/>
+      <c r="IH12" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="II12" t="inlineStr"/>
+      <c r="IJ12" t="inlineStr"/>
+      <c r="IK12" t="inlineStr"/>
+      <c r="IL12" t="inlineStr"/>
+      <c r="IM12" t="inlineStr"/>
+      <c r="IN12" t="inlineStr"/>
+      <c r="IO12" t="inlineStr"/>
+      <c r="IP12" t="inlineStr"/>
+      <c r="IQ12" t="inlineStr"/>
+      <c r="IR12" t="inlineStr"/>
+      <c r="IS12" t="inlineStr"/>
     </row>
-    <row r="13" spans="1:241">
-      <c r="A13" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
-      <c r="D13" t="s"/>
-      <c r="E13" t="s"/>
-      <c r="F13" t="s"/>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s"/>
-      <c r="J13" t="s"/>
-      <c r="K13" t="s"/>
-      <c r="L13" t="s"/>
-      <c r="M13" t="s"/>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
-      <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
-      <c r="V13" t="s"/>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
-      <c r="Y13" t="s"/>
-      <c r="Z13" t="s"/>
-      <c r="AA13" t="s"/>
-      <c r="AB13" t="s"/>
-      <c r="AC13" t="s"/>
-      <c r="AD13" t="s"/>
-      <c r="AE13" t="s"/>
-      <c r="AF13" t="s"/>
-      <c r="AG13" t="s"/>
-      <c r="AH13" t="s"/>
-      <c r="AI13" t="s"/>
-      <c r="AJ13" t="s"/>
-      <c r="AK13" t="s"/>
-      <c r="AL13" t="s"/>
-      <c r="AM13" t="s"/>
-      <c r="AN13" t="s"/>
-      <c r="AO13" t="s"/>
-      <c r="AP13" t="s"/>
-      <c r="AQ13" t="s"/>
-      <c r="AR13" t="s"/>
-      <c r="AS13" t="s"/>
-      <c r="AT13" t="s"/>
-      <c r="AU13" t="s"/>
-      <c r="AV13" t="s"/>
-      <c r="AW13" t="s"/>
-      <c r="AX13" t="s"/>
-      <c r="AY13" t="s"/>
-      <c r="AZ13" t="s"/>
-      <c r="BA13" t="s"/>
-      <c r="BB13" t="s"/>
-      <c r="BC13" t="s"/>
-      <c r="BD13" t="s"/>
-      <c r="BE13" t="s"/>
-      <c r="BF13" t="s"/>
-      <c r="BG13" t="s"/>
-      <c r="BH13" t="s"/>
-      <c r="BI13" t="s"/>
-      <c r="BJ13" t="s"/>
-      <c r="BK13" t="s"/>
-      <c r="BL13" t="s"/>
-      <c r="BM13" t="s"/>
-      <c r="BN13" t="s"/>
-      <c r="BO13" t="s"/>
-      <c r="BP13" t="s"/>
-      <c r="BQ13" t="s"/>
-      <c r="BR13" t="s"/>
-      <c r="BS13" t="s"/>
-      <c r="BT13" t="s"/>
-      <c r="BU13" t="s"/>
-      <c r="BV13" t="s"/>
-      <c r="BW13" t="s"/>
-      <c r="BX13" t="s"/>
-      <c r="BY13" t="s"/>
-      <c r="BZ13" t="s"/>
-      <c r="CA13" t="s"/>
-      <c r="CB13" t="s"/>
-      <c r="CC13" t="s"/>
-      <c r="CD13" t="s"/>
-      <c r="CE13" t="s"/>
-      <c r="CF13" t="s"/>
-      <c r="CG13" t="s"/>
-      <c r="CH13" t="s"/>
-      <c r="CI13" t="s"/>
-      <c r="CJ13" t="s"/>
-      <c r="CK13" t="s"/>
-      <c r="CL13" t="s"/>
-      <c r="CM13" t="s"/>
-      <c r="CN13" t="s"/>
-      <c r="CO13" t="s"/>
-      <c r="CP13" t="s"/>
-      <c r="CQ13" t="s"/>
-      <c r="CR13" t="s"/>
-      <c r="CS13" t="s"/>
-      <c r="CT13" t="s"/>
-      <c r="CU13" t="s"/>
-      <c r="CV13" t="s"/>
-      <c r="CW13" t="s"/>
-      <c r="CX13" t="s"/>
-      <c r="CY13" t="s"/>
-      <c r="CZ13" t="s"/>
-      <c r="DA13" t="s"/>
-      <c r="DB13" t="s"/>
-      <c r="DC13" t="s"/>
-      <c r="DD13" t="s"/>
-      <c r="DE13" t="s"/>
-      <c r="DF13" t="s"/>
-      <c r="DG13" t="s"/>
-      <c r="DH13" t="s"/>
-      <c r="DI13" t="s"/>
-      <c r="DJ13" t="s"/>
-      <c r="DK13" t="s"/>
-      <c r="DL13" t="s"/>
-      <c r="DM13" t="s"/>
-      <c r="DN13" t="s"/>
-      <c r="DO13" t="s"/>
-      <c r="DP13" t="s"/>
-      <c r="DQ13" t="s"/>
-      <c r="DR13" t="s"/>
-      <c r="DS13" t="s"/>
-      <c r="DT13" t="s"/>
-      <c r="DU13" t="s"/>
-      <c r="DV13" t="s"/>
-      <c r="DW13" t="s"/>
-      <c r="DX13" t="s"/>
-      <c r="DY13" t="s"/>
-      <c r="DZ13" t="s"/>
-      <c r="EA13" t="s"/>
-      <c r="EB13" t="s"/>
-      <c r="EC13" t="s"/>
-      <c r="ED13" t="s"/>
-      <c r="EE13" t="s"/>
-      <c r="EF13" t="s"/>
-      <c r="EG13" t="s"/>
-      <c r="EH13" t="s"/>
-      <c r="EI13" t="s"/>
-      <c r="EJ13" t="s"/>
-      <c r="EK13" t="s"/>
-      <c r="EL13" t="s"/>
-      <c r="EM13" t="s"/>
-      <c r="EN13" t="s"/>
-      <c r="EO13" t="s"/>
-      <c r="EP13" t="s"/>
-      <c r="EQ13" t="s"/>
-      <c r="ER13" t="s"/>
-      <c r="ES13" t="s"/>
-      <c r="ET13" t="s"/>
-      <c r="EU13" t="s"/>
-      <c r="EV13" t="s"/>
-      <c r="EW13" t="s"/>
-      <c r="EX13" t="s"/>
-      <c r="EY13" t="s"/>
-      <c r="EZ13" t="s"/>
-      <c r="FA13" t="s"/>
-      <c r="FB13" t="s"/>
-      <c r="FC13" t="s"/>
-      <c r="FD13" t="s"/>
-      <c r="FE13" t="s"/>
-      <c r="FF13" t="s"/>
-      <c r="FG13" t="s"/>
-      <c r="FH13" t="s"/>
-      <c r="FI13" t="s"/>
-      <c r="FJ13" t="s"/>
-      <c r="FK13" t="s"/>
-      <c r="FL13" t="s"/>
-      <c r="FM13" t="s"/>
-      <c r="FN13" t="s"/>
-      <c r="FO13" t="s"/>
-      <c r="FP13" t="s"/>
-      <c r="FQ13" t="s"/>
-      <c r="FR13" t="s"/>
-      <c r="FS13" t="s"/>
-      <c r="FT13" t="s"/>
-      <c r="FU13" t="s"/>
-      <c r="FV13" t="s"/>
-      <c r="FW13" t="s"/>
-      <c r="FX13" t="s"/>
-      <c r="FY13" t="s"/>
-      <c r="FZ13" t="s"/>
-      <c r="GA13" t="s"/>
-      <c r="GB13" t="s"/>
-      <c r="GC13" t="s"/>
-      <c r="GD13" t="s"/>
-      <c r="GE13" t="s"/>
-      <c r="GF13" t="s"/>
-      <c r="GG13" t="s"/>
-      <c r="GH13" t="s"/>
-      <c r="GI13" t="s"/>
-      <c r="GJ13" t="s"/>
-      <c r="GK13" t="s"/>
-      <c r="GL13" t="s"/>
-      <c r="GM13" t="s"/>
-      <c r="GN13" t="s"/>
-      <c r="GO13" t="s"/>
-      <c r="GP13" t="s"/>
-      <c r="GQ13" t="s"/>
-      <c r="GR13" t="s"/>
-      <c r="GS13" t="s"/>
-      <c r="GT13" t="s"/>
-      <c r="GU13" t="s"/>
-      <c r="GV13" t="s"/>
-      <c r="GW13" t="s"/>
-      <c r="GX13" t="s"/>
-      <c r="GY13" t="s"/>
-      <c r="GZ13" t="s"/>
-      <c r="HA13" t="s"/>
-      <c r="HB13" t="s"/>
-      <c r="HC13" t="s"/>
-      <c r="HD13" t="s"/>
-      <c r="HE13" t="s"/>
-      <c r="HF13" t="s"/>
-      <c r="HG13" t="s"/>
-      <c r="HH13" t="s"/>
-      <c r="HI13" t="s"/>
-      <c r="HJ13" t="s"/>
-      <c r="HK13" t="s"/>
-      <c r="HL13" t="s"/>
-      <c r="HM13" t="s"/>
-      <c r="HN13" t="s"/>
-      <c r="HO13" t="s"/>
-      <c r="HP13" t="s"/>
-      <c r="HQ13" t="s"/>
-      <c r="HR13" t="s"/>
-      <c r="HS13" t="s"/>
-      <c r="HT13" t="s"/>
-      <c r="HU13" t="s"/>
-      <c r="HV13" t="s"/>
-      <c r="HW13" t="s"/>
-      <c r="HX13" t="s"/>
-      <c r="HY13" t="s"/>
-      <c r="HZ13" t="s"/>
-      <c r="IA13" t="s"/>
-      <c r="IB13" t="s"/>
-      <c r="IC13" t="s"/>
-      <c r="ID13" t="s"/>
-      <c r="IE13" t="s"/>
-      <c r="IF13" t="s"/>
-      <c r="IG13" t="s"/>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>加权平均利率（%）</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="inlineStr"/>
+      <c r="AS13" t="inlineStr"/>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AU13" t="inlineStr"/>
+      <c r="AV13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr"/>
+      <c r="AX13" t="inlineStr"/>
+      <c r="AY13" t="inlineStr"/>
+      <c r="AZ13" t="inlineStr"/>
+      <c r="BA13" t="inlineStr"/>
+      <c r="BB13" t="inlineStr"/>
+      <c r="BC13" t="inlineStr"/>
+      <c r="BD13" t="inlineStr"/>
+      <c r="BE13" t="inlineStr"/>
+      <c r="BF13" t="inlineStr"/>
+      <c r="BG13" t="inlineStr"/>
+      <c r="BH13" t="inlineStr"/>
+      <c r="BI13" t="inlineStr"/>
+      <c r="BJ13" t="inlineStr"/>
+      <c r="BK13" t="inlineStr"/>
+      <c r="BL13" t="inlineStr"/>
+      <c r="BM13" t="inlineStr"/>
+      <c r="BN13" t="inlineStr"/>
+      <c r="BO13" t="inlineStr"/>
+      <c r="BP13" t="inlineStr"/>
+      <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
+      <c r="BS13" t="inlineStr"/>
+      <c r="BT13" t="inlineStr"/>
+      <c r="BU13" t="inlineStr"/>
+      <c r="BV13" t="inlineStr"/>
+      <c r="BW13" t="inlineStr"/>
+      <c r="BX13" t="inlineStr"/>
+      <c r="BY13" t="inlineStr"/>
+      <c r="BZ13" t="inlineStr"/>
+      <c r="CA13" t="inlineStr"/>
+      <c r="CB13" t="inlineStr"/>
+      <c r="CC13" t="inlineStr"/>
+      <c r="CD13" t="inlineStr"/>
+      <c r="CE13" t="inlineStr"/>
+      <c r="CF13" t="inlineStr"/>
+      <c r="CG13" t="inlineStr"/>
+      <c r="CH13" t="inlineStr"/>
+      <c r="CI13" t="inlineStr"/>
+      <c r="CJ13" t="inlineStr"/>
+      <c r="CK13" t="inlineStr"/>
+      <c r="CL13" t="inlineStr"/>
+      <c r="CM13" t="inlineStr"/>
+      <c r="CN13" t="inlineStr"/>
+      <c r="CO13" t="inlineStr"/>
+      <c r="CP13" t="inlineStr"/>
+      <c r="CQ13" t="inlineStr"/>
+      <c r="CR13" t="inlineStr"/>
+      <c r="CS13" t="inlineStr"/>
+      <c r="CT13" t="inlineStr"/>
+      <c r="CU13" t="inlineStr"/>
+      <c r="CV13" t="inlineStr"/>
+      <c r="CW13" t="inlineStr"/>
+      <c r="CX13" t="inlineStr"/>
+      <c r="CY13" t="inlineStr"/>
+      <c r="CZ13" t="inlineStr"/>
+      <c r="DA13" t="inlineStr"/>
+      <c r="DB13" t="inlineStr"/>
+      <c r="DC13" t="inlineStr"/>
+      <c r="DD13" t="inlineStr"/>
+      <c r="DE13" t="inlineStr"/>
+      <c r="DF13" t="inlineStr"/>
+      <c r="DG13" t="inlineStr"/>
+      <c r="DH13" t="inlineStr"/>
+      <c r="DI13" t="inlineStr"/>
+      <c r="DJ13" t="inlineStr"/>
+      <c r="DK13" t="inlineStr"/>
+      <c r="DL13" t="inlineStr"/>
+      <c r="DM13" t="inlineStr"/>
+      <c r="DN13" t="inlineStr"/>
+      <c r="DO13" t="inlineStr"/>
+      <c r="DP13" t="inlineStr"/>
+      <c r="DQ13" t="inlineStr"/>
+      <c r="DR13" t="inlineStr"/>
+      <c r="DS13" t="inlineStr"/>
+      <c r="DT13" t="inlineStr"/>
+      <c r="DU13" t="inlineStr"/>
+      <c r="DV13" t="inlineStr"/>
+      <c r="DW13" t="inlineStr"/>
+      <c r="DX13" t="inlineStr"/>
+      <c r="DY13" t="inlineStr"/>
+      <c r="DZ13" t="inlineStr"/>
+      <c r="EA13" t="inlineStr"/>
+      <c r="EB13" t="inlineStr"/>
+      <c r="EC13" t="inlineStr"/>
+      <c r="ED13" t="inlineStr"/>
+      <c r="EE13" t="inlineStr"/>
+      <c r="EF13" t="inlineStr"/>
+      <c r="EG13" t="inlineStr"/>
+      <c r="EH13" t="inlineStr"/>
+      <c r="EI13" t="inlineStr"/>
+      <c r="EJ13" t="inlineStr"/>
+      <c r="EK13" t="inlineStr"/>
+      <c r="EL13" t="inlineStr"/>
+      <c r="EM13" t="inlineStr"/>
+      <c r="EN13" t="inlineStr"/>
+      <c r="EO13" t="inlineStr"/>
+      <c r="EP13" t="inlineStr"/>
+      <c r="EQ13" t="inlineStr"/>
+      <c r="ER13" t="inlineStr"/>
+      <c r="ES13" t="inlineStr"/>
+      <c r="ET13" t="inlineStr"/>
+      <c r="EU13" t="inlineStr"/>
+      <c r="EV13" t="inlineStr"/>
+      <c r="EW13" t="inlineStr"/>
+      <c r="EX13" t="inlineStr"/>
+      <c r="EY13" t="inlineStr"/>
+      <c r="EZ13" t="inlineStr"/>
+      <c r="FA13" t="inlineStr"/>
+      <c r="FB13" t="inlineStr"/>
+      <c r="FC13" t="inlineStr"/>
+      <c r="FD13" t="inlineStr"/>
+      <c r="FE13" t="inlineStr"/>
+      <c r="FF13" t="inlineStr"/>
+      <c r="FG13" t="inlineStr"/>
+      <c r="FH13" t="inlineStr"/>
+      <c r="FI13" t="inlineStr"/>
+      <c r="FJ13" t="inlineStr"/>
+      <c r="FK13" t="inlineStr"/>
+      <c r="FL13" t="inlineStr"/>
+      <c r="FM13" t="inlineStr"/>
+      <c r="FN13" t="inlineStr"/>
+      <c r="FO13" t="inlineStr"/>
+      <c r="FP13" t="inlineStr"/>
+      <c r="FQ13" t="inlineStr"/>
+      <c r="FR13" t="inlineStr"/>
+      <c r="FS13" t="inlineStr"/>
+      <c r="FT13" t="inlineStr"/>
+      <c r="FU13" t="inlineStr"/>
+      <c r="FV13" t="inlineStr"/>
+      <c r="FW13" t="inlineStr"/>
+      <c r="FX13" t="inlineStr"/>
+      <c r="FY13" t="inlineStr"/>
+      <c r="FZ13" t="inlineStr"/>
+      <c r="GA13" t="inlineStr"/>
+      <c r="GB13" t="inlineStr"/>
+      <c r="GC13" t="inlineStr"/>
+      <c r="GD13" t="inlineStr"/>
+      <c r="GE13" t="inlineStr"/>
+      <c r="GF13" t="inlineStr"/>
+      <c r="GG13" t="inlineStr"/>
+      <c r="GH13" t="inlineStr"/>
+      <c r="GI13" t="inlineStr"/>
+      <c r="GJ13" t="inlineStr"/>
+      <c r="GK13" t="inlineStr"/>
+      <c r="GL13" t="inlineStr"/>
+      <c r="GM13" t="inlineStr"/>
+      <c r="GN13" t="inlineStr"/>
+      <c r="GO13" t="inlineStr"/>
+      <c r="GP13" t="inlineStr"/>
+      <c r="GQ13" t="inlineStr"/>
+      <c r="GR13" t="inlineStr"/>
+      <c r="GS13" t="inlineStr"/>
+      <c r="GT13" t="inlineStr"/>
+      <c r="GU13" t="inlineStr"/>
+      <c r="GV13" t="inlineStr"/>
+      <c r="GW13" t="inlineStr"/>
+      <c r="GX13" t="inlineStr"/>
+      <c r="GY13" t="inlineStr"/>
+      <c r="GZ13" t="inlineStr"/>
+      <c r="HA13" t="inlineStr"/>
+      <c r="HB13" t="inlineStr"/>
+      <c r="HC13" t="inlineStr"/>
+      <c r="HD13" t="inlineStr"/>
+      <c r="HE13" t="inlineStr"/>
+      <c r="HF13" t="inlineStr"/>
+      <c r="HG13" t="inlineStr"/>
+      <c r="HH13" t="inlineStr"/>
+      <c r="HI13" t="inlineStr"/>
+      <c r="HJ13" t="inlineStr"/>
+      <c r="HK13" t="inlineStr"/>
+      <c r="HL13" t="inlineStr"/>
+      <c r="HM13" t="inlineStr"/>
+      <c r="HN13" t="inlineStr"/>
+      <c r="HO13" t="inlineStr"/>
+      <c r="HP13" t="inlineStr"/>
+      <c r="HQ13" t="inlineStr"/>
+      <c r="HR13" t="inlineStr"/>
+      <c r="HS13" t="inlineStr"/>
+      <c r="HT13" t="inlineStr"/>
+      <c r="HU13" t="inlineStr"/>
+      <c r="HV13" t="inlineStr"/>
+      <c r="HW13" t="inlineStr"/>
+      <c r="HX13" t="inlineStr"/>
+      <c r="HY13" t="inlineStr"/>
+      <c r="HZ13" t="inlineStr"/>
+      <c r="IA13" t="inlineStr"/>
+      <c r="IB13" t="inlineStr"/>
+      <c r="IC13" t="inlineStr"/>
+      <c r="ID13" t="inlineStr"/>
+      <c r="IE13" t="inlineStr"/>
+      <c r="IF13" t="inlineStr"/>
+      <c r="IG13" t="inlineStr"/>
+      <c r="IH13" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="II13" t="inlineStr"/>
+      <c r="IJ13" t="inlineStr"/>
+      <c r="IK13" t="inlineStr"/>
+      <c r="IL13" t="inlineStr"/>
+      <c r="IM13" t="inlineStr"/>
+      <c r="IN13" t="inlineStr"/>
+      <c r="IO13" t="inlineStr"/>
+      <c r="IP13" t="inlineStr"/>
+      <c r="IQ13" t="inlineStr"/>
+      <c r="IR13" t="inlineStr"/>
+      <c r="IS13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/924/PBC/SIPR/Statistics of Interbank Pledged Repo - Historical.xlsx
+++ b/data/924/PBC/SIPR/Statistics of Interbank Pledged Repo - Historical.xlsx
@@ -1631,719 +1631,639 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>14天</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2.146</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2.124</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.967</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1.954</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.953</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.949</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.948</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.967</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.246</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.263</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.246</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2.352</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2.296</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2.263</v>
-      </c>
-      <c r="P2" t="n">
+          <t>1天</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1.415</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>1.659</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>2.2049</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1.7821</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>1.543</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>1.5415</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>2.4182</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1.817</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>2.082</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>2.167</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>2.9299</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>3.003</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>1.999</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BX2" t="n">
         <v>2.08</v>
       </c>
-      <c r="Q2" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R2" t="n">
+      <c r="BY2" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0.8730609722894001</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>1.238143458703</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>1.151030864234</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>1.177496687537</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>1.239480162512</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>1.196264001521</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>1.183760229169</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>1.12652909562</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>1.430889799164</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>1.352170702382</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>1.312847435316</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>1.651577104715</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>2.208485526811</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>1.578912684341</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>1.781875075466</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>1.610213934122</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>1.711019104656</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>2.737829680369</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>3.906531959059</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>2.484615623441</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>1.816878130768</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>2.009224083523</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>2.817604808713</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>4.519692506025</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>4.337950534717</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>3.13336197441</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>3.454608066061</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>3.617123627023</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>3.352222010537</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>3.065097938258</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>4.409004296361</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>3.326512062658</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>2.480530304592</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>3.166033103517</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>2.123927935294</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>2.703215028413</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>2.69401416888</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>2.727751187853</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>2.866232604234</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>2.68619499531</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>2.401642856165</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>2.354397123983</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>2.08559463824</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>2.683811267961</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>2.288651404822</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>2.368823850806</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>2.866026426138</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>6.722026251918</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>3.361454244005</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>3.225351080151</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>3.165524252449</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>3.628165369982</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>3.919700622852</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>3.842532652448</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>3.414899931184</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>2.586078418436</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>2.250755792775</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>2.461313084736</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>2.408733773627</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>2.704339786095</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>3.225786214396</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>2.951156357476</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>2.776764850559</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>2.507189364213</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>2.573260691434</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>3.023541565493</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>2.780749085366</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>3.045049200229</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>3.32532661241</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>2.227643130862</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>1.188477214022</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>1.159080594831</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>1.287753432048</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>1.680646487792</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>1.903627068122</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>1.872730044937</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>1.792034930968</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>1.839255303826</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>2.01559475386</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>1.996746677559</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>2.013663371672</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>2.033075712189</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>2.023610678601</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>2.025510988551</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>2.036329363448</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>2.05886304836</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>2.176708038854</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>2.260965720296</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>2.296011160493</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>2.307746886206</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>2.241500821821</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>2.435800276643</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>2.585705706766</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>2.646076444402</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>2.779717772049</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>2.847776929111</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>2.777894145994</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>2.964348564739</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>2.835136402354</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>2.753725608965</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>2.822980231967</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>2.729158698721</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>2.704731969515</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>2.604903025387</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>2.675145789068</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>2.863466396076</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>2.650723018592</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>2.62431695876</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>2.335331078084</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>2.183262410917</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>2.495975308745</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>2.326074085174</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>2.414265786653</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>2.427506084771</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>2.040851357758</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>2.146582801117</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>2.383926170928</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>2.384712967097</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>2.19751106818</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>1.566795094595</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>2.071344216012</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>2.619695645119</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>2.480269827731</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>2.521193245816</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>2.229671066492</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>1.959491564062</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>1.9106</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>1.6116</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>1.3384</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>1.0386</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>1.2353</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>1.8104</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>1.8586</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>2.0149</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>1.7657</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>2.1262</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>1.9199</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>1.1438</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="HZ2" t="n">
         <v>2.04</v>
       </c>
-      <c r="S2" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="V2" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="W2" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="X2" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>1.743</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>2.252</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>2.6574</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>2.404</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>2.955</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>1.8894</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>3.1405</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>2.616</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>3.409</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>2.6081</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>4.5386</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>4.691</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>4.247</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>1.049743578089</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>1.605813956217</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>1.481981343388</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>1.642853564273</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>1.573102398395</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>1.475572039344</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>1.695605015251</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>1.462361265758</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>1.972600714037</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>1.655043586554</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>1.634992240227</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>1.866433692379</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>2.888746310958</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>2.1197</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>1.86713983328</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>2.976376520723</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>2.045552034252</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>2.311731441912</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>4.810209321118</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>7.574856919233</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>4.562361611021</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>2.916221556556</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>3.387385035442</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>4.166396535987</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>5.964641151839</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>5.886314707617</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>4.112760299573</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>4.669329592006</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>4.22362663714</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>4.046632456227</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>4.703345403416</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>6.230850692425</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>4.615753570716</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>3.703466844821</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>3.919184714218</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>3.07686500839</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>3.462253522556</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>3.725393798188</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>3.594093561517</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>3.801402537294</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>3.634226666225</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>3.400779734859</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>4.017125923966</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>3.039823943078</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>3.869667560072</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>3.363683934233</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>3.719901366177</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>3.716619447009</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>6.903173040593</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>4.424312518879</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>4.738639868822</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>4.735103314344</v>
-      </c>
-      <c r="EM2" t="n">
-        <v>4.462059717158</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>5.287974290412</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>5.798701029789</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>5.967852799168</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>4.550938463987</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>3.437315304058</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>3.94076582152</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>3.388959166633</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>4.11512934948</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>4.491694216295</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>3.822032071652</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>3.48606879569</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>3.533713519969</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>3.794821409552</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>5.178460161527</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>4.923179353866</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>4.896181050978</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>4.721892988782</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>3.573017083977</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>2.512050650645</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>3.177038950462</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>2.9654729011</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>2.789254086653</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>2.791745175035</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>2.716320903511</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>2.688726331607</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>3.077503502847</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>2.990146108351</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>2.947310198763</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>3.080804237587</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>2.962907833409</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>2.743683617852</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>2.979392622664</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>2.801727966015</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>2.821051120344</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>2.935723102637</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>3.100483898985</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>3.174892622393</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>3.981102814521</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>3.333941792821</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>3.592740112717</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>4.471588032666</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>3.777022996496</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>4.034894400745</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>4.396507521236</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>3.986202976614</v>
-      </c>
-      <c r="GG2" t="n">
-        <v>4.183996059524</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>4.603892455065</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>4.20939273385</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>4.372898176607</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>5.353341225847</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>4.161206822229</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>4.073141250017</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>4.585353218614</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>4.676046929071</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>3.78933993909</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>4.662029289935</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>3.007494753086</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>2.798763671162</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>3.415057100334</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>2.839434942385</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>2.785281394512</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>4.694279549614</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>3.035169548709</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>2.7003090761</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>3.177138622387</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>3.074377777191</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>2.827137971532</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>3.014094873679</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>2.801492321167</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>2.878330485165</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>3.063852991018</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>2.950232391986</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>2.752664060371</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>3.017995728113</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>2.9638</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>2.5545</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>2.0874</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>1.6674</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>1.6726</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>2.6607</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>2.3486</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>2.4743</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>3.151</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>2.7183</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>2.8587</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>2.9835</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>2.8196</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>2.7897</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>2.4996</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>2.3258</v>
-      </c>
-      <c r="HZ2" t="inlineStr"/>
-      <c r="IA2" t="inlineStr"/>
-      <c r="IB2" t="inlineStr"/>
-      <c r="IC2" t="inlineStr"/>
-      <c r="ID2" t="inlineStr"/>
-      <c r="IE2" t="inlineStr"/>
-      <c r="IF2" t="inlineStr"/>
-      <c r="IG2" t="inlineStr"/>
-      <c r="IH2" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="II2" t="inlineStr"/>
+      <c r="IA2" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="II2" t="n">
+        <v>2.03</v>
+      </c>
       <c r="IJ2" t="inlineStr"/>
       <c r="IK2" t="inlineStr"/>
       <c r="IL2" t="inlineStr"/>
@@ -2358,719 +2278,735 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>1个月</t>
+          <t>7天</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.207</v>
+        <v>2.136</v>
       </c>
       <c r="C3" t="n">
-        <v>2.183</v>
+        <v>2.054</v>
       </c>
       <c r="D3" t="n">
-        <v>2.009</v>
+        <v>1.955</v>
       </c>
       <c r="E3" t="n">
-        <v>1.982</v>
+        <v>1.951</v>
       </c>
       <c r="F3" t="n">
-        <v>1.979</v>
+        <v>1.951</v>
       </c>
       <c r="G3" t="n">
-        <v>1.979</v>
+        <v>1.951</v>
       </c>
       <c r="H3" t="n">
-        <v>1.975</v>
+        <v>1.949</v>
       </c>
       <c r="I3" t="n">
-        <v>2.02</v>
+        <v>1.964</v>
       </c>
       <c r="J3" t="n">
-        <v>2.248</v>
+        <v>2.165</v>
       </c>
       <c r="K3" t="n">
-        <v>2.308</v>
+        <v>2.242</v>
       </c>
       <c r="L3" t="n">
-        <v>2.251</v>
+        <v>2.23</v>
       </c>
       <c r="M3" t="n">
-        <v>2.385</v>
+        <v>2.294</v>
       </c>
       <c r="N3" t="n">
-        <v>2.314</v>
+        <v>2.271</v>
       </c>
       <c r="O3" t="n">
-        <v>2.286</v>
+        <v>2.242</v>
       </c>
       <c r="P3" t="n">
-        <v>2.17</v>
+        <v>2.033</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.05</v>
+        <v>1.96</v>
       </c>
       <c r="R3" t="n">
-        <v>2.13</v>
+        <v>2.03</v>
       </c>
       <c r="S3" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="T3" t="n">
-        <v>2.34</v>
+        <v>2.2</v>
       </c>
       <c r="U3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="W3" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>1.678</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>1.963</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>2.4172</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>2.1585</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>1.687</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>3.008</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>1.6762</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>3.1739</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>2.414</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>2.903</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>2.872</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>2.269</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>4.9955</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>4.862</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>2.938</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>1.041883032632</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>1.595105537574</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>1.54438341108</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>1.594941153865</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>1.514555675</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>1.435282450101</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>1.483561249254</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>1.468771613065</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>1.797896086816</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>1.632184955604</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>1.644356366645</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>1.929691561872</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>2.724023460892</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>2.0549</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>2.029250412108</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>2.461678205506</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>2.017381996529</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>2.06331173138</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>4.301715260141</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>4.702295006104</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>4.031352189682</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>2.385560335855</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>2.909032373026</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>3.775633496179</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>5.946242945393</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>5.253157675714</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>3.905351620155</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>4.003735260835</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>3.926096538623</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>3.789358135749</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>4.016987064341</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>4.453693682649</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>4.160229928929</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>3.185268208256</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>3.854403345542</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>2.935160809728</v>
+      </c>
+      <c r="DW3" t="n">
+        <v>3.228042059627</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>3.49089789156</v>
+      </c>
+      <c r="DY3" t="n">
+        <v>3.477862406547</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>3.420366304352</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>3.174361512241</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>3.189517270034</v>
+      </c>
+      <c r="EC3" t="n">
+        <v>3.342144013879</v>
+      </c>
+      <c r="ED3" t="n">
+        <v>3.093574701626</v>
+      </c>
+      <c r="EE3" t="n">
+        <v>3.457396230336</v>
+      </c>
+      <c r="EF3" t="n">
+        <v>3.152699841152</v>
+      </c>
+      <c r="EG3" t="n">
+        <v>3.349083427648</v>
+      </c>
+      <c r="EH3" t="n">
+        <v>3.647778493236</v>
+      </c>
+      <c r="EI3" t="n">
+        <v>7.020984239969</v>
+      </c>
+      <c r="EJ3" t="n">
+        <v>4.175844082153</v>
+      </c>
+      <c r="EK3" t="n">
+        <v>4.07278510646</v>
+      </c>
+      <c r="EL3" t="n">
+        <v>3.762585496793</v>
+      </c>
+      <c r="EM3" t="n">
+        <v>4.346465130452</v>
+      </c>
+      <c r="EN3" t="n">
+        <v>4.521334582502</v>
+      </c>
+      <c r="EO3" t="n">
+        <v>5.257782135905</v>
+      </c>
+      <c r="EP3" t="n">
+        <v>4.706579395803</v>
+      </c>
+      <c r="EQ3" t="n">
+        <v>4.296648875768</v>
+      </c>
+      <c r="ER3" t="n">
+        <v>3.390749719755</v>
+      </c>
+      <c r="ES3" t="n">
+        <v>3.581998558929</v>
+      </c>
+      <c r="ET3" t="n">
+        <v>3.233103947008</v>
+      </c>
+      <c r="EU3" t="n">
+        <v>3.403844394917</v>
+      </c>
+      <c r="EV3" t="n">
+        <v>3.828004852975</v>
+      </c>
+      <c r="EW3" t="n">
+        <v>3.476682891417</v>
+      </c>
+      <c r="EX3" t="n">
+        <v>3.274403196441</v>
+      </c>
+      <c r="EY3" t="n">
+        <v>3.075924776479</v>
+      </c>
+      <c r="EZ3" t="n">
+        <v>3.242570914316</v>
+      </c>
+      <c r="FA3" t="n">
+        <v>4.312454904666</v>
+      </c>
+      <c r="FB3" t="n">
+        <v>3.993743571558</v>
+      </c>
+      <c r="FC3" t="n">
+        <v>4.649449814589</v>
+      </c>
+      <c r="FD3" t="n">
+        <v>4.491253242119</v>
+      </c>
+      <c r="FE3" t="n">
+        <v>2.937519883435</v>
+      </c>
+      <c r="FF3" t="n">
+        <v>2.121129337608</v>
+      </c>
+      <c r="FG3" t="n">
+        <v>2.518034229006</v>
+      </c>
+      <c r="FH3" t="n">
+        <v>2.580727370258</v>
+      </c>
+      <c r="FI3" t="n">
+        <v>2.478725745329</v>
+      </c>
+      <c r="FJ3" t="n">
+        <v>2.408657441673</v>
+      </c>
+      <c r="FK3" t="n">
+        <v>2.426781278807</v>
+      </c>
+      <c r="FL3" t="n">
+        <v>2.367268492589</v>
+      </c>
+      <c r="FM3" t="n">
+        <v>2.453793085883</v>
+      </c>
+      <c r="FN3" t="n">
+        <v>2.491956896833</v>
+      </c>
+      <c r="FO3" t="n">
+        <v>2.418301188712</v>
+      </c>
+      <c r="FP3" t="n">
+        <v>2.485770805884</v>
+      </c>
+      <c r="FQ3" t="n">
+        <v>2.488754399474</v>
+      </c>
+      <c r="FR3" t="n">
+        <v>2.423722872408</v>
+      </c>
+      <c r="FS3" t="n">
+        <v>2.497650565595</v>
+      </c>
+      <c r="FT3" t="n">
+        <v>2.473183779219</v>
+      </c>
+      <c r="FU3" t="n">
+        <v>2.476312707804</v>
+      </c>
+      <c r="FV3" t="n">
+        <v>2.525190995824</v>
+      </c>
+      <c r="FW3" t="n">
+        <v>2.704443744921</v>
+      </c>
+      <c r="FX3" t="n">
+        <v>2.71536774536</v>
+      </c>
+      <c r="FY3" t="n">
+        <v>3.079219199945</v>
+      </c>
+      <c r="FZ3" t="n">
+        <v>2.669924093172</v>
+      </c>
+      <c r="GA3" t="n">
+        <v>3.079266453972</v>
+      </c>
+      <c r="GB3" t="n">
+        <v>3.506751640664</v>
+      </c>
+      <c r="GC3" t="n">
+        <v>3.363317822186</v>
+      </c>
+      <c r="GD3" t="n">
+        <v>3.290091806059</v>
+      </c>
+      <c r="GE3" t="n">
+        <v>3.485378577034</v>
+      </c>
+      <c r="GF3" t="n">
+        <v>3.319378869743</v>
+      </c>
+      <c r="GG3" t="n">
+        <v>3.542125658895</v>
+      </c>
+      <c r="GH3" t="n">
+        <v>3.409829384479</v>
+      </c>
+      <c r="GI3" t="n">
+        <v>3.374348645723</v>
+      </c>
+      <c r="GJ3" t="n">
+        <v>3.486001007266</v>
+      </c>
+      <c r="GK3" t="n">
+        <v>3.862646204539</v>
+      </c>
+      <c r="GL3" t="n">
+        <v>3.233787358971</v>
+      </c>
+      <c r="GM3" t="n">
+        <v>3.092465864048</v>
+      </c>
+      <c r="GN3" t="n">
+        <v>3.325158710569</v>
+      </c>
+      <c r="GO3" t="n">
+        <v>3.586906631631</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>3.217628549485</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>3.463174487783</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>2.741947436979</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>2.569234499124</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>2.693253926749</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>2.657438033174</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>2.702504070492</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>3.221404309472</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>2.581594703408</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>2.641849873043</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>2.850370047695</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>2.747533694367</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>2.681787054189</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>2.549179507376</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>2.66243188777</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>2.791307786546</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>2.711631162798</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>2.75618046563</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>2.703984387298</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>2.693319986913</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>2.4159</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>2.0676</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>1.5988</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>1.6746</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>2.1895</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>2.2536</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>2.3762</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>2.3323</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>2.6247</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>2.6513</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>2.4682</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="HW3" t="n">
         <v>2.37</v>
       </c>
-      <c r="V3" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="W3" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="X3" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>2.615</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>2.8151</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>2.5592</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>2.093</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>3.319</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>2.376</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>3.5329</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>2.949</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>3.033</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>2.788</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>5.5808</v>
-      </c>
-      <c r="BS3" t="n">
-        <v>5.152</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>4.726</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="BZ3" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="CA3" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="CB3" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="CC3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="CD3" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="CE3" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="CF3" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="CG3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="CH3" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="CI3" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="CJ3" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="CK3" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="CL3" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="CM3" t="n">
-        <v>1.038213947981</v>
-      </c>
-      <c r="CN3" t="n">
-        <v>1.694602698042</v>
-      </c>
-      <c r="CO3" t="n">
-        <v>1.670232908066</v>
-      </c>
-      <c r="CP3" t="n">
-        <v>1.688639125885</v>
-      </c>
-      <c r="CQ3" t="n">
-        <v>1.724770506835</v>
-      </c>
-      <c r="CR3" t="n">
-        <v>1.6847786611</v>
-      </c>
-      <c r="CS3" t="n">
-        <v>1.70520703174</v>
-      </c>
-      <c r="CT3" t="n">
-        <v>1.652532678151</v>
-      </c>
-      <c r="CU3" t="n">
-        <v>2.139668960219</v>
-      </c>
-      <c r="CV3" t="n">
-        <v>1.588520230957</v>
-      </c>
-      <c r="CW3" t="n">
-        <v>1.671232720429</v>
-      </c>
-      <c r="CX3" t="n">
-        <v>2.255944057264</v>
-      </c>
-      <c r="CY3" t="n">
-        <v>3.540434181236</v>
-      </c>
-      <c r="CZ3" t="n">
-        <v>2.3324</v>
-      </c>
-      <c r="DA3" t="n">
-        <v>2.131245830055</v>
-      </c>
-      <c r="DB3" t="n">
-        <v>3.177120056034</v>
-      </c>
-      <c r="DC3" t="n">
-        <v>2.528747903159</v>
-      </c>
-      <c r="DD3" t="n">
-        <v>3.074905534626</v>
-      </c>
-      <c r="DE3" t="n">
-        <v>4.328617763897</v>
-      </c>
-      <c r="DF3" t="n">
-        <v>5.958244836677</v>
-      </c>
-      <c r="DG3" t="n">
-        <v>4.67524102378</v>
-      </c>
-      <c r="DH3" t="n">
-        <v>3.80613101942</v>
-      </c>
-      <c r="DI3" t="n">
-        <v>3.994160193217</v>
-      </c>
-      <c r="DJ3" t="n">
-        <v>4.48444018193</v>
-      </c>
-      <c r="DK3" t="n">
-        <v>6.206964857108</v>
-      </c>
-      <c r="DL3" t="n">
-        <v>6.138426682419</v>
-      </c>
-      <c r="DM3" t="n">
-        <v>5.173935126358</v>
-      </c>
-      <c r="DN3" t="n">
-        <v>5.581069586725</v>
-      </c>
-      <c r="DO3" t="n">
-        <v>5.346872148966</v>
-      </c>
-      <c r="DP3" t="n">
-        <v>4.972482046016</v>
-      </c>
-      <c r="DQ3" t="n">
-        <v>4.8268697444</v>
-      </c>
-      <c r="DR3" t="n">
-        <v>6.810666932558</v>
-      </c>
-      <c r="DS3" t="n">
-        <v>4.953729259284</v>
-      </c>
-      <c r="DT3" t="n">
-        <v>4.14282577889</v>
-      </c>
-      <c r="DU3" t="n">
-        <v>4.055223476475</v>
-      </c>
-      <c r="DV3" t="n">
-        <v>3.344031974321</v>
-      </c>
-      <c r="DW3" t="n">
-        <v>3.264244065568</v>
-      </c>
-      <c r="DX3" t="n">
-        <v>3.45269986545</v>
-      </c>
-      <c r="DY3" t="n">
-        <v>3.580607470027</v>
-      </c>
-      <c r="DZ3" t="n">
-        <v>4.046893278814</v>
-      </c>
-      <c r="EA3" t="n">
-        <v>3.980004607201</v>
-      </c>
-      <c r="EB3" t="n">
-        <v>3.769374591545</v>
-      </c>
-      <c r="EC3" t="n">
-        <v>4.277696731134</v>
-      </c>
-      <c r="ED3" t="n">
-        <v>3.936474111573</v>
-      </c>
-      <c r="EE3" t="n">
-        <v>4.020314654443</v>
-      </c>
-      <c r="EF3" t="n">
-        <v>3.39316692794</v>
-      </c>
-      <c r="EG3" t="n">
-        <v>3.769154950447</v>
-      </c>
-      <c r="EH3" t="n">
-        <v>3.926557148171</v>
-      </c>
-      <c r="EI3" t="n">
-        <v>7.8052842865</v>
-      </c>
-      <c r="EJ3" t="n">
-        <v>5.34109284908</v>
-      </c>
-      <c r="EK3" t="n">
-        <v>4.774904099241</v>
-      </c>
-      <c r="EL3" t="n">
-        <v>5.31204264721</v>
-      </c>
-      <c r="EM3" t="n">
-        <v>5.467021799819</v>
-      </c>
-      <c r="EN3" t="n">
-        <v>6.070615500424</v>
-      </c>
-      <c r="EO3" t="n">
-        <v>6.406788616946</v>
-      </c>
-      <c r="EP3" t="n">
-        <v>6.933427877209</v>
-      </c>
-      <c r="EQ3" t="n">
-        <v>5.025345067806</v>
-      </c>
-      <c r="ER3" t="n">
-        <v>4.364943386332</v>
-      </c>
-      <c r="ES3" t="n">
-        <v>4.274356984698</v>
-      </c>
-      <c r="ET3" t="n">
-        <v>3.832855297724</v>
-      </c>
-      <c r="EU3" t="n">
-        <v>4.475056842035</v>
-      </c>
-      <c r="EV3" t="n">
-        <v>4.587601334506</v>
-      </c>
-      <c r="EW3" t="n">
-        <v>4.266435893953</v>
-      </c>
-      <c r="EX3" t="n">
-        <v>4.179788295535</v>
-      </c>
-      <c r="EY3" t="n">
-        <v>3.967254895624</v>
-      </c>
-      <c r="EZ3" t="n">
-        <v>4.28984159832</v>
-      </c>
-      <c r="FA3" t="n">
-        <v>5.931671792417</v>
-      </c>
-      <c r="FB3" t="n">
-        <v>4.889473505473</v>
-      </c>
-      <c r="FC3" t="n">
-        <v>5.506481476313</v>
-      </c>
-      <c r="FD3" t="n">
-        <v>5.210929204202</v>
-      </c>
-      <c r="FE3" t="n">
-        <v>4.186873152308</v>
-      </c>
-      <c r="FF3" t="n">
-        <v>2.770414952555</v>
-      </c>
-      <c r="FG3" t="n">
-        <v>3.356125073687</v>
-      </c>
-      <c r="FH3" t="n">
-        <v>3.096475325833</v>
-      </c>
-      <c r="FI3" t="n">
-        <v>2.726665539597</v>
-      </c>
-      <c r="FJ3" t="n">
-        <v>3.107383041066</v>
-      </c>
-      <c r="FK3" t="n">
-        <v>2.989316605992</v>
-      </c>
-      <c r="FL3" t="n">
-        <v>2.710188535219</v>
-      </c>
-      <c r="FM3" t="n">
-        <v>3.158289783385</v>
-      </c>
-      <c r="FN3" t="n">
-        <v>3.306339159516</v>
-      </c>
-      <c r="FO3" t="n">
-        <v>2.988693415583</v>
-      </c>
-      <c r="FP3" t="n">
-        <v>3.047663306891</v>
-      </c>
-      <c r="FQ3" t="n">
-        <v>2.890176036112</v>
-      </c>
-      <c r="FR3" t="n">
-        <v>2.812604042248</v>
-      </c>
-      <c r="FS3" t="n">
-        <v>3.045563958486</v>
-      </c>
-      <c r="FT3" t="n">
-        <v>2.821967988761</v>
-      </c>
-      <c r="FU3" t="n">
-        <v>2.824584021851</v>
-      </c>
-      <c r="FV3" t="n">
-        <v>3.185175268759</v>
-      </c>
-      <c r="FW3" t="n">
-        <v>3.038952438905</v>
-      </c>
-      <c r="FX3" t="n">
-        <v>3.076483905342</v>
-      </c>
-      <c r="FY3" t="n">
-        <v>4.747699879905</v>
-      </c>
-      <c r="FZ3" t="n">
-        <v>4.032075153868</v>
-      </c>
-      <c r="GA3" t="n">
-        <v>4.206589936507</v>
-      </c>
-      <c r="GB3" t="n">
-        <v>4.819875701102</v>
-      </c>
-      <c r="GC3" t="n">
-        <v>4.152175156788</v>
-      </c>
-      <c r="GD3" t="n">
-        <v>4.395815316507</v>
-      </c>
-      <c r="GE3" t="n">
-        <v>5.137695911993</v>
-      </c>
-      <c r="GF3" t="n">
-        <v>4.209667612105</v>
-      </c>
-      <c r="GG3" t="n">
-        <v>4.080625170086</v>
-      </c>
-      <c r="GH3" t="n">
-        <v>4.961037328997</v>
-      </c>
-      <c r="GI3" t="n">
-        <v>4.403721854034</v>
-      </c>
-      <c r="GJ3" t="n">
-        <v>4.474898277828</v>
-      </c>
-      <c r="GK3" t="n">
-        <v>5.711927407489</v>
-      </c>
-      <c r="GL3" t="n">
-        <v>4.327792315254</v>
-      </c>
-      <c r="GM3" t="n">
-        <v>4.58182077296</v>
-      </c>
-      <c r="GN3" t="n">
-        <v>4.983372821343</v>
-      </c>
-      <c r="GO3" t="n">
-        <v>4.116652442101</v>
-      </c>
-      <c r="GP3" t="n">
-        <v>3.859468359735</v>
-      </c>
-      <c r="GQ3" t="n">
-        <v>5.1881239944</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>3.296696959105</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>2.713841630925</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>3.419481566595</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>3.129874463933</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>2.742267226462</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>4.052678214151</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>3.19938137009</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>2.953154508186</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>3.192379731591</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>3.11870492479</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>2.996647849494</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>3.885140013768</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>3.169436654846</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>3.0724915841</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>3.102102082214</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>3.197992762789</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>3.006238997384</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>3.362871943714</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>3.008</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>2.8891</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>2.391</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>1.7269</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>2.352</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>2.4831</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>2.5459</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>2.8293</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>2.8723</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>2.8663</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>3.1252</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>2.9926</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>3.0505</v>
-      </c>
       <c r="HX3" t="n">
-        <v>2.7228</v>
+        <v>2.26</v>
       </c>
       <c r="HY3" t="n">
-        <v>2.5554</v>
-      </c>
-      <c r="HZ3" t="inlineStr"/>
-      <c r="IA3" t="inlineStr"/>
-      <c r="IB3" t="inlineStr"/>
-      <c r="IC3" t="inlineStr"/>
-      <c r="ID3" t="inlineStr"/>
-      <c r="IE3" t="inlineStr"/>
-      <c r="IF3" t="inlineStr"/>
-      <c r="IG3" t="inlineStr"/>
-      <c r="IH3" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="II3" t="inlineStr"/>
+        <v>2.15</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="II3" t="n">
+        <v>2.25</v>
+      </c>
       <c r="IJ3" t="inlineStr"/>
       <c r="IK3" t="inlineStr"/>
       <c r="IL3" t="inlineStr"/>
@@ -3085,623 +3021,735 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1天</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
-      <c r="AM4" t="inlineStr"/>
-      <c r="AN4" t="inlineStr"/>
-      <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr"/>
-      <c r="AT4" t="inlineStr"/>
-      <c r="AU4" t="inlineStr"/>
-      <c r="AV4" t="inlineStr"/>
-      <c r="AW4" t="inlineStr"/>
+          <t>14天</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2.146</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.124</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.967</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.954</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.953</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.949</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.948</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.967</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.246</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.263</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.246</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2.352</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.296</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2.263</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="V4" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="W4" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>1.62</v>
+      </c>
       <c r="AX4" t="n">
-        <v>1.6</v>
+        <v>2.38</v>
       </c>
       <c r="AY4" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="BA4" t="n">
-        <v>1.59</v>
+        <v>1.98</v>
       </c>
       <c r="BB4" t="n">
-        <v>1.415</v>
+        <v>1.743</v>
       </c>
       <c r="BC4" t="n">
-        <v>1.659</v>
+        <v>2.252</v>
       </c>
       <c r="BD4" t="n">
-        <v>2</v>
+        <v>2.54</v>
       </c>
       <c r="BE4" t="n">
-        <v>2.2049</v>
+        <v>2.6574</v>
       </c>
       <c r="BF4" t="n">
-        <v>2.05</v>
+        <v>2.34</v>
       </c>
       <c r="BG4" t="n">
-        <v>2.05</v>
+        <v>2.51</v>
       </c>
       <c r="BH4" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="BI4" t="n">
-        <v>1.7821</v>
+        <v>2.404</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1.543</v>
+        <v>1.928</v>
       </c>
       <c r="BK4" t="n">
-        <v>2.53</v>
+        <v>2.955</v>
       </c>
       <c r="BL4" t="n">
-        <v>1.5415</v>
+        <v>1.8894</v>
       </c>
       <c r="BM4" t="n">
-        <v>2.4182</v>
+        <v>3.1405</v>
       </c>
       <c r="BN4" t="n">
-        <v>1.817</v>
+        <v>2.616</v>
       </c>
       <c r="BO4" t="n">
-        <v>2.082</v>
+        <v>2.89</v>
       </c>
       <c r="BP4" t="n">
-        <v>2.167</v>
+        <v>3.409</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1.908</v>
+        <v>2.6081</v>
       </c>
       <c r="BR4" t="n">
-        <v>2.9299</v>
+        <v>4.5386</v>
       </c>
       <c r="BS4" t="n">
-        <v>3.003</v>
+        <v>6.77</v>
       </c>
       <c r="BT4" t="n">
-        <v>1.999</v>
+        <v>4.691</v>
       </c>
       <c r="BU4" t="n">
-        <v>1.901</v>
+        <v>4.247</v>
       </c>
       <c r="BV4" t="n">
-        <v>1.97</v>
+        <v>4.04</v>
       </c>
       <c r="BW4" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>1.049743578089</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>1.605813956217</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>1.481981343388</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>1.642853564273</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>1.573102398395</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>1.475572039344</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>1.695605015251</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>1.462361265758</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>1.972600714037</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>1.655043586554</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>1.634992240227</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>1.866433692379</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>2.888746310958</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>2.1197</v>
+      </c>
+      <c r="DA4" t="n">
+        <v>1.86713983328</v>
+      </c>
+      <c r="DB4" t="n">
+        <v>2.976376520723</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>2.045552034252</v>
+      </c>
+      <c r="DD4" t="n">
+        <v>2.311731441912</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>4.810209321118</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>7.574856919233</v>
+      </c>
+      <c r="DG4" t="n">
+        <v>4.562361611021</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>2.916221556556</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>3.387385035442</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>4.166396535987</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>5.964641151839</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>5.886314707617</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>4.112760299573</v>
+      </c>
+      <c r="DN4" t="n">
+        <v>4.669329592006</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>4.22362663714</v>
+      </c>
+      <c r="DP4" t="n">
+        <v>4.046632456227</v>
+      </c>
+      <c r="DQ4" t="n">
+        <v>4.703345403416</v>
+      </c>
+      <c r="DR4" t="n">
+        <v>6.230850692425</v>
+      </c>
+      <c r="DS4" t="n">
+        <v>4.615753570716</v>
+      </c>
+      <c r="DT4" t="n">
+        <v>3.703466844821</v>
+      </c>
+      <c r="DU4" t="n">
+        <v>3.919184714218</v>
+      </c>
+      <c r="DV4" t="n">
+        <v>3.07686500839</v>
+      </c>
+      <c r="DW4" t="n">
+        <v>3.462253522556</v>
+      </c>
+      <c r="DX4" t="n">
+        <v>3.725393798188</v>
+      </c>
+      <c r="DY4" t="n">
+        <v>3.594093561517</v>
+      </c>
+      <c r="DZ4" t="n">
+        <v>3.801402537294</v>
+      </c>
+      <c r="EA4" t="n">
+        <v>3.634226666225</v>
+      </c>
+      <c r="EB4" t="n">
+        <v>3.400779734859</v>
+      </c>
+      <c r="EC4" t="n">
+        <v>4.017125923966</v>
+      </c>
+      <c r="ED4" t="n">
+        <v>3.039823943078</v>
+      </c>
+      <c r="EE4" t="n">
+        <v>3.869667560072</v>
+      </c>
+      <c r="EF4" t="n">
+        <v>3.363683934233</v>
+      </c>
+      <c r="EG4" t="n">
+        <v>3.719901366177</v>
+      </c>
+      <c r="EH4" t="n">
+        <v>3.716619447009</v>
+      </c>
+      <c r="EI4" t="n">
+        <v>6.903173040593</v>
+      </c>
+      <c r="EJ4" t="n">
+        <v>4.424312518879</v>
+      </c>
+      <c r="EK4" t="n">
+        <v>4.738639868822</v>
+      </c>
+      <c r="EL4" t="n">
+        <v>4.735103314344</v>
+      </c>
+      <c r="EM4" t="n">
+        <v>4.462059717158</v>
+      </c>
+      <c r="EN4" t="n">
+        <v>5.287974290412</v>
+      </c>
+      <c r="EO4" t="n">
+        <v>5.798701029789</v>
+      </c>
+      <c r="EP4" t="n">
+        <v>5.967852799168</v>
+      </c>
+      <c r="EQ4" t="n">
+        <v>4.550938463987</v>
+      </c>
+      <c r="ER4" t="n">
+        <v>3.437315304058</v>
+      </c>
+      <c r="ES4" t="n">
+        <v>3.94076582152</v>
+      </c>
+      <c r="ET4" t="n">
+        <v>3.388959166633</v>
+      </c>
+      <c r="EU4" t="n">
+        <v>4.11512934948</v>
+      </c>
+      <c r="EV4" t="n">
+        <v>4.491694216295</v>
+      </c>
+      <c r="EW4" t="n">
+        <v>3.822032071652</v>
+      </c>
+      <c r="EX4" t="n">
+        <v>3.48606879569</v>
+      </c>
+      <c r="EY4" t="n">
+        <v>3.533713519969</v>
+      </c>
+      <c r="EZ4" t="n">
+        <v>3.794821409552</v>
+      </c>
+      <c r="FA4" t="n">
+        <v>5.178460161527</v>
+      </c>
+      <c r="FB4" t="n">
+        <v>4.923179353866</v>
+      </c>
+      <c r="FC4" t="n">
+        <v>4.896181050978</v>
+      </c>
+      <c r="FD4" t="n">
+        <v>4.721892988782</v>
+      </c>
+      <c r="FE4" t="n">
+        <v>3.573017083977</v>
+      </c>
+      <c r="FF4" t="n">
+        <v>2.512050650645</v>
+      </c>
+      <c r="FG4" t="n">
+        <v>3.177038950462</v>
+      </c>
+      <c r="FH4" t="n">
+        <v>2.9654729011</v>
+      </c>
+      <c r="FI4" t="n">
+        <v>2.789254086653</v>
+      </c>
+      <c r="FJ4" t="n">
+        <v>2.791745175035</v>
+      </c>
+      <c r="FK4" t="n">
+        <v>2.716320903511</v>
+      </c>
+      <c r="FL4" t="n">
+        <v>2.688726331607</v>
+      </c>
+      <c r="FM4" t="n">
+        <v>3.077503502847</v>
+      </c>
+      <c r="FN4" t="n">
+        <v>2.990146108351</v>
+      </c>
+      <c r="FO4" t="n">
+        <v>2.947310198763</v>
+      </c>
+      <c r="FP4" t="n">
+        <v>3.080804237587</v>
+      </c>
+      <c r="FQ4" t="n">
+        <v>2.962907833409</v>
+      </c>
+      <c r="FR4" t="n">
+        <v>2.743683617852</v>
+      </c>
+      <c r="FS4" t="n">
+        <v>2.979392622664</v>
+      </c>
+      <c r="FT4" t="n">
+        <v>2.801727966015</v>
+      </c>
+      <c r="FU4" t="n">
+        <v>2.821051120344</v>
+      </c>
+      <c r="FV4" t="n">
+        <v>2.935723102637</v>
+      </c>
+      <c r="FW4" t="n">
+        <v>3.100483898985</v>
+      </c>
+      <c r="FX4" t="n">
+        <v>3.174892622393</v>
+      </c>
+      <c r="FY4" t="n">
+        <v>3.981102814521</v>
+      </c>
+      <c r="FZ4" t="n">
+        <v>3.333941792821</v>
+      </c>
+      <c r="GA4" t="n">
+        <v>3.592740112717</v>
+      </c>
+      <c r="GB4" t="n">
+        <v>4.471588032666</v>
+      </c>
+      <c r="GC4" t="n">
+        <v>3.777022996496</v>
+      </c>
+      <c r="GD4" t="n">
+        <v>4.034894400745</v>
+      </c>
+      <c r="GE4" t="n">
+        <v>4.396507521236</v>
+      </c>
+      <c r="GF4" t="n">
+        <v>3.986202976614</v>
+      </c>
+      <c r="GG4" t="n">
+        <v>4.183996059524</v>
+      </c>
+      <c r="GH4" t="n">
+        <v>4.603892455065</v>
+      </c>
+      <c r="GI4" t="n">
+        <v>4.20939273385</v>
+      </c>
+      <c r="GJ4" t="n">
+        <v>4.372898176607</v>
+      </c>
+      <c r="GK4" t="n">
+        <v>5.353341225847</v>
+      </c>
+      <c r="GL4" t="n">
+        <v>4.161206822229</v>
+      </c>
+      <c r="GM4" t="n">
+        <v>4.073141250017</v>
+      </c>
+      <c r="GN4" t="n">
+        <v>4.585353218614</v>
+      </c>
+      <c r="GO4" t="n">
+        <v>4.676046929071</v>
+      </c>
+      <c r="GP4" t="n">
+        <v>3.78933993909</v>
+      </c>
+      <c r="GQ4" t="n">
+        <v>4.662029289935</v>
+      </c>
+      <c r="GR4" t="n">
+        <v>3.007494753086</v>
+      </c>
+      <c r="GS4" t="n">
+        <v>2.798763671162</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>3.415057100334</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>2.839434942385</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>2.785281394512</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>4.694279549614</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>3.035169548709</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>2.7003090761</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>3.177138622387</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>3.074377777191</v>
+      </c>
+      <c r="HB4" t="n">
+        <v>2.827137971532</v>
+      </c>
+      <c r="HC4" t="n">
+        <v>3.014094873679</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>2.801492321167</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>2.878330485165</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>3.063852991018</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>2.950232391986</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>2.752664060371</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>3.017995728113</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>2.9638</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>2.5545</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>2.0874</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>1.6674</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>1.6726</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>2.6607</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>2.3486</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>2.4743</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>3.151</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>2.7183</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>2.8587</v>
+      </c>
+      <c r="HU4" t="n">
+        <v>2.9835</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="II4" t="n">
         <v>2.3</v>
       </c>
-      <c r="BX4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="BY4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="BZ4" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="CA4" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="CB4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="CC4" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="CD4" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="CE4" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="CF4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="CG4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="CH4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="CI4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="CJ4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="CK4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="CL4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="CM4" t="n">
-        <v>0.8730609722894001</v>
-      </c>
-      <c r="CN4" t="n">
-        <v>1.238143458703</v>
-      </c>
-      <c r="CO4" t="n">
-        <v>1.151030864234</v>
-      </c>
-      <c r="CP4" t="n">
-        <v>1.177496687537</v>
-      </c>
-      <c r="CQ4" t="n">
-        <v>1.239480162512</v>
-      </c>
-      <c r="CR4" t="n">
-        <v>1.196264001521</v>
-      </c>
-      <c r="CS4" t="n">
-        <v>1.183760229169</v>
-      </c>
-      <c r="CT4" t="n">
-        <v>1.12652909562</v>
-      </c>
-      <c r="CU4" t="n">
-        <v>1.430889799164</v>
-      </c>
-      <c r="CV4" t="n">
-        <v>1.352170702382</v>
-      </c>
-      <c r="CW4" t="n">
-        <v>1.312847435316</v>
-      </c>
-      <c r="CX4" t="n">
-        <v>1.651577104715</v>
-      </c>
-      <c r="CY4" t="n">
-        <v>2.208485526811</v>
-      </c>
-      <c r="CZ4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="DA4" t="n">
-        <v>1.578912684341</v>
-      </c>
-      <c r="DB4" t="n">
-        <v>1.781875075466</v>
-      </c>
-      <c r="DC4" t="n">
-        <v>1.610213934122</v>
-      </c>
-      <c r="DD4" t="n">
-        <v>1.711019104656</v>
-      </c>
-      <c r="DE4" t="n">
-        <v>2.737829680369</v>
-      </c>
-      <c r="DF4" t="n">
-        <v>3.906531959059</v>
-      </c>
-      <c r="DG4" t="n">
-        <v>2.484615623441</v>
-      </c>
-      <c r="DH4" t="n">
-        <v>1.816878130768</v>
-      </c>
-      <c r="DI4" t="n">
-        <v>2.009224083523</v>
-      </c>
-      <c r="DJ4" t="n">
-        <v>2.817604808713</v>
-      </c>
-      <c r="DK4" t="n">
-        <v>4.519692506025</v>
-      </c>
-      <c r="DL4" t="n">
-        <v>4.337950534717</v>
-      </c>
-      <c r="DM4" t="n">
-        <v>3.13336197441</v>
-      </c>
-      <c r="DN4" t="n">
-        <v>3.454608066061</v>
-      </c>
-      <c r="DO4" t="n">
-        <v>3.617123627023</v>
-      </c>
-      <c r="DP4" t="n">
-        <v>3.352222010537</v>
-      </c>
-      <c r="DQ4" t="n">
-        <v>3.065097938258</v>
-      </c>
-      <c r="DR4" t="n">
-        <v>4.409004296361</v>
-      </c>
-      <c r="DS4" t="n">
-        <v>3.326512062658</v>
-      </c>
-      <c r="DT4" t="n">
-        <v>2.480530304592</v>
-      </c>
-      <c r="DU4" t="n">
-        <v>3.166033103517</v>
-      </c>
-      <c r="DV4" t="n">
-        <v>2.123927935294</v>
-      </c>
-      <c r="DW4" t="n">
-        <v>2.703215028413</v>
-      </c>
-      <c r="DX4" t="n">
-        <v>2.69401416888</v>
-      </c>
-      <c r="DY4" t="n">
-        <v>2.727751187853</v>
-      </c>
-      <c r="DZ4" t="n">
-        <v>2.866232604234</v>
-      </c>
-      <c r="EA4" t="n">
-        <v>2.68619499531</v>
-      </c>
-      <c r="EB4" t="n">
-        <v>2.401642856165</v>
-      </c>
-      <c r="EC4" t="n">
-        <v>2.354397123983</v>
-      </c>
-      <c r="ED4" t="n">
-        <v>2.08559463824</v>
-      </c>
-      <c r="EE4" t="n">
-        <v>2.683811267961</v>
-      </c>
-      <c r="EF4" t="n">
-        <v>2.288651404822</v>
-      </c>
-      <c r="EG4" t="n">
-        <v>2.368823850806</v>
-      </c>
-      <c r="EH4" t="n">
-        <v>2.866026426138</v>
-      </c>
-      <c r="EI4" t="n">
-        <v>6.722026251918</v>
-      </c>
-      <c r="EJ4" t="n">
-        <v>3.361454244005</v>
-      </c>
-      <c r="EK4" t="n">
-        <v>3.225351080151</v>
-      </c>
-      <c r="EL4" t="n">
-        <v>3.165524252449</v>
-      </c>
-      <c r="EM4" t="n">
-        <v>3.628165369982</v>
-      </c>
-      <c r="EN4" t="n">
-        <v>3.919700622852</v>
-      </c>
-      <c r="EO4" t="n">
-        <v>3.842532652448</v>
-      </c>
-      <c r="EP4" t="n">
-        <v>3.414899931184</v>
-      </c>
-      <c r="EQ4" t="n">
-        <v>2.586078418436</v>
-      </c>
-      <c r="ER4" t="n">
-        <v>2.250755792775</v>
-      </c>
-      <c r="ES4" t="n">
-        <v>2.461313084736</v>
-      </c>
-      <c r="ET4" t="n">
-        <v>2.408733773627</v>
-      </c>
-      <c r="EU4" t="n">
-        <v>2.704339786095</v>
-      </c>
-      <c r="EV4" t="n">
-        <v>3.225786214396</v>
-      </c>
-      <c r="EW4" t="n">
-        <v>2.951156357476</v>
-      </c>
-      <c r="EX4" t="n">
-        <v>2.776764850559</v>
-      </c>
-      <c r="EY4" t="n">
-        <v>2.507189364213</v>
-      </c>
-      <c r="EZ4" t="n">
-        <v>2.573260691434</v>
-      </c>
-      <c r="FA4" t="n">
-        <v>3.023541565493</v>
-      </c>
-      <c r="FB4" t="n">
-        <v>2.780749085366</v>
-      </c>
-      <c r="FC4" t="n">
-        <v>3.045049200229</v>
-      </c>
-      <c r="FD4" t="n">
-        <v>3.32532661241</v>
-      </c>
-      <c r="FE4" t="n">
-        <v>2.227643130862</v>
-      </c>
-      <c r="FF4" t="n">
-        <v>1.188477214022</v>
-      </c>
-      <c r="FG4" t="n">
-        <v>1.159080594831</v>
-      </c>
-      <c r="FH4" t="n">
-        <v>1.287753432048</v>
-      </c>
-      <c r="FI4" t="n">
-        <v>1.680646487792</v>
-      </c>
-      <c r="FJ4" t="n">
-        <v>1.903627068122</v>
-      </c>
-      <c r="FK4" t="n">
-        <v>1.872730044937</v>
-      </c>
-      <c r="FL4" t="n">
-        <v>1.792034930968</v>
-      </c>
-      <c r="FM4" t="n">
-        <v>1.839255303826</v>
-      </c>
-      <c r="FN4" t="n">
-        <v>2.01559475386</v>
-      </c>
-      <c r="FO4" t="n">
-        <v>1.996746677559</v>
-      </c>
-      <c r="FP4" t="n">
-        <v>2.013663371672</v>
-      </c>
-      <c r="FQ4" t="n">
-        <v>2.033075712189</v>
-      </c>
-      <c r="FR4" t="n">
-        <v>2.023610678601</v>
-      </c>
-      <c r="FS4" t="n">
-        <v>2.025510988551</v>
-      </c>
-      <c r="FT4" t="n">
-        <v>2.036329363448</v>
-      </c>
-      <c r="FU4" t="n">
-        <v>2.05886304836</v>
-      </c>
-      <c r="FV4" t="n">
-        <v>2.176708038854</v>
-      </c>
-      <c r="FW4" t="n">
-        <v>2.260965720296</v>
-      </c>
-      <c r="FX4" t="n">
-        <v>2.296011160493</v>
-      </c>
-      <c r="FY4" t="n">
-        <v>2.307746886206</v>
-      </c>
-      <c r="FZ4" t="n">
-        <v>2.241500821821</v>
-      </c>
-      <c r="GA4" t="n">
-        <v>2.435800276643</v>
-      </c>
-      <c r="GB4" t="n">
-        <v>2.585705706766</v>
-      </c>
-      <c r="GC4" t="n">
-        <v>2.646076444402</v>
-      </c>
-      <c r="GD4" t="n">
-        <v>2.779717772049</v>
-      </c>
-      <c r="GE4" t="n">
-        <v>2.847776929111</v>
-      </c>
-      <c r="GF4" t="n">
-        <v>2.777894145994</v>
-      </c>
-      <c r="GG4" t="n">
-        <v>2.964348564739</v>
-      </c>
-      <c r="GH4" t="n">
-        <v>2.835136402354</v>
-      </c>
-      <c r="GI4" t="n">
-        <v>2.753725608965</v>
-      </c>
-      <c r="GJ4" t="n">
-        <v>2.822980231967</v>
-      </c>
-      <c r="GK4" t="n">
-        <v>2.729158698721</v>
-      </c>
-      <c r="GL4" t="n">
-        <v>2.704731969515</v>
-      </c>
-      <c r="GM4" t="n">
-        <v>2.604903025387</v>
-      </c>
-      <c r="GN4" t="n">
-        <v>2.675145789068</v>
-      </c>
-      <c r="GO4" t="n">
-        <v>2.863466396076</v>
-      </c>
-      <c r="GP4" t="n">
-        <v>2.650723018592</v>
-      </c>
-      <c r="GQ4" t="n">
-        <v>2.62431695876</v>
-      </c>
-      <c r="GR4" t="n">
-        <v>2.335331078084</v>
-      </c>
-      <c r="GS4" t="n">
-        <v>2.183262410917</v>
-      </c>
-      <c r="GT4" t="n">
-        <v>2.495975308745</v>
-      </c>
-      <c r="GU4" t="n">
-        <v>2.326074085174</v>
-      </c>
-      <c r="GV4" t="n">
-        <v>2.414265786653</v>
-      </c>
-      <c r="GW4" t="n">
-        <v>2.427506084771</v>
-      </c>
-      <c r="GX4" t="n">
-        <v>2.040851357758</v>
-      </c>
-      <c r="GY4" t="n">
-        <v>2.146582801117</v>
-      </c>
-      <c r="GZ4" t="n">
-        <v>2.383926170928</v>
-      </c>
-      <c r="HA4" t="n">
-        <v>2.384712967097</v>
-      </c>
-      <c r="HB4" t="n">
-        <v>2.19751106818</v>
-      </c>
-      <c r="HC4" t="n">
-        <v>1.566795094595</v>
-      </c>
-      <c r="HD4" t="n">
-        <v>2.071344216012</v>
-      </c>
-      <c r="HE4" t="n">
-        <v>2.619695645119</v>
-      </c>
-      <c r="HF4" t="n">
-        <v>2.480269827731</v>
-      </c>
-      <c r="HG4" t="n">
-        <v>2.521193245816</v>
-      </c>
-      <c r="HH4" t="n">
-        <v>2.229671066492</v>
-      </c>
-      <c r="HI4" t="n">
-        <v>1.959491564062</v>
-      </c>
-      <c r="HJ4" t="n">
-        <v>1.9106</v>
-      </c>
-      <c r="HK4" t="n">
-        <v>1.6116</v>
-      </c>
-      <c r="HL4" t="n">
-        <v>1.3384</v>
-      </c>
-      <c r="HM4" t="n">
-        <v>1.0386</v>
-      </c>
-      <c r="HN4" t="n">
-        <v>1.2353</v>
-      </c>
-      <c r="HO4" t="n">
-        <v>1.8104</v>
-      </c>
-      <c r="HP4" t="n">
-        <v>1.8586</v>
-      </c>
-      <c r="HQ4" t="n">
-        <v>2.0149</v>
-      </c>
-      <c r="HR4" t="n">
-        <v>1.7657</v>
-      </c>
-      <c r="HS4" t="n">
-        <v>2.1262</v>
-      </c>
-      <c r="HT4" t="n">
-        <v>1.9199</v>
-      </c>
-      <c r="HU4" t="n">
-        <v>1.1438</v>
-      </c>
-      <c r="HV4" t="n">
-        <v>1.9344</v>
-      </c>
-      <c r="HW4" t="n">
-        <v>1.9684</v>
-      </c>
-      <c r="HX4" t="n">
-        <v>1.9521</v>
-      </c>
-      <c r="HY4" t="n">
-        <v>1.9118</v>
-      </c>
-      <c r="HZ4" t="inlineStr"/>
-      <c r="IA4" t="inlineStr"/>
-      <c r="IB4" t="inlineStr"/>
-      <c r="IC4" t="inlineStr"/>
-      <c r="ID4" t="inlineStr"/>
-      <c r="IE4" t="inlineStr"/>
-      <c r="IF4" t="inlineStr"/>
-      <c r="IG4" t="inlineStr"/>
-      <c r="IH4" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="II4" t="inlineStr"/>
       <c r="IJ4" t="inlineStr"/>
       <c r="IK4" t="inlineStr"/>
       <c r="IL4" t="inlineStr"/>
@@ -3716,647 +3764,735 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1年</t>
+          <t>21天</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>2.162</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2.136</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1.993</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1.966</v>
       </c>
       <c r="G5" t="n">
-        <v>2.2</v>
+        <v>1.965</v>
       </c>
       <c r="H5" t="n">
-        <v>2.014</v>
+        <v>1.955</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1.984</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>2.304</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>2.284</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>2.265</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2.409</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2.285</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>2.283</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>2.114</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>3.23</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>2.83</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.93</v>
+        <v>2</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="AD5" t="n">
-        <v>2.66</v>
+        <v>2.36</v>
       </c>
       <c r="AE5" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>1.777</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>2.501</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>2.5584</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>2.4274</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>2.256</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>3.572</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>1.9655</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>3.6655</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>2.781</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>2.901</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>2.889</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>2.6756</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>5.9924</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>4.838</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>5.416</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>3.825</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>1.035316635188</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>1.414898410641</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>1.44426015755</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>1.687690311583</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>1.618232763989</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>1.533041196011</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>1.757203169512</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>1.527972880887</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>1.922295004838</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>1.667700896867</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>1.661785465331</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>2.033080424594</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>3.511216632943</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>2.106</v>
+      </c>
+      <c r="DA5" t="n">
+        <v>2.006184058998</v>
+      </c>
+      <c r="DB5" t="n">
+        <v>3.129827600728</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>2.110920981525</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>2.618398822399</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>4.264889036138</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>7.283226225444</v>
+      </c>
+      <c r="DG5" t="n">
+        <v>4.743065326747</v>
+      </c>
+      <c r="DH5" t="n">
+        <v>2.884522861992</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>3.353859533651</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>4.235505426194</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>6.313752829361</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>6.056921452209</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>4.424351287988</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>4.844867139749</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>4.447048646236</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>4.178573258871</v>
+      </c>
+      <c r="DQ5" t="n">
+        <v>4.443001803706</v>
+      </c>
+      <c r="DR5" t="n">
+        <v>6.249701937719</v>
+      </c>
+      <c r="DS5" t="n">
+        <v>5.072928460711</v>
+      </c>
+      <c r="DT5" t="n">
+        <v>3.869448823795</v>
+      </c>
+      <c r="DU5" t="n">
+        <v>4.013439589255</v>
+      </c>
+      <c r="DV5" t="n">
+        <v>3.020211306216</v>
+      </c>
+      <c r="DW5" t="n">
+        <v>3.599169137973</v>
+      </c>
+      <c r="DX5" t="n">
+        <v>3.63497547943</v>
+      </c>
+      <c r="DY5" t="n">
+        <v>3.751029818457</v>
+      </c>
+      <c r="DZ5" t="n">
+        <v>3.856457724291</v>
+      </c>
+      <c r="EA5" t="n">
+        <v>4.040317576084</v>
+      </c>
+      <c r="EB5" t="n">
+        <v>3.566169290767</v>
+      </c>
+      <c r="EC5" t="n">
+        <v>4.238326771558</v>
+      </c>
+      <c r="ED5" t="n">
+        <v>3.87203090387</v>
+      </c>
+      <c r="EE5" t="n">
+        <v>3.780747419752</v>
+      </c>
+      <c r="EF5" t="n">
+        <v>3.30815154587</v>
+      </c>
+      <c r="EG5" t="n">
+        <v>3.794602680879</v>
+      </c>
+      <c r="EH5" t="n">
+        <v>3.6772133957</v>
+      </c>
+      <c r="EI5" t="n">
+        <v>7.034882758271</v>
+      </c>
+      <c r="EJ5" t="n">
+        <v>4.740652250587</v>
+      </c>
+      <c r="EK5" t="n">
+        <v>4.835749355982</v>
+      </c>
+      <c r="EL5" t="n">
+        <v>5.047968711292</v>
+      </c>
+      <c r="EM5" t="n">
+        <v>5.625989763692</v>
+      </c>
+      <c r="EN5" t="n">
+        <v>5.900288594138</v>
+      </c>
+      <c r="EO5" t="n">
+        <v>6.076061658321</v>
+      </c>
+      <c r="EP5" t="n">
+        <v>6.434662011785</v>
+      </c>
+      <c r="EQ5" t="n">
+        <v>5.195849497294</v>
+      </c>
+      <c r="ER5" t="n">
+        <v>3.849024416209</v>
+      </c>
+      <c r="ES5" t="n">
+        <v>4.121947869428</v>
+      </c>
+      <c r="ET5" t="n">
+        <v>3.545909402474</v>
+      </c>
+      <c r="EU5" t="n">
+        <v>4.44265849677</v>
+      </c>
+      <c r="EV5" t="n">
+        <v>4.611270947662</v>
+      </c>
+      <c r="EW5" t="n">
+        <v>4.400954995521</v>
+      </c>
+      <c r="EX5" t="n">
+        <v>4.301334992663</v>
+      </c>
+      <c r="EY5" t="n">
+        <v>3.801013108217</v>
+      </c>
+      <c r="EZ5" t="n">
+        <v>4.810071725595</v>
+      </c>
+      <c r="FA5" t="n">
+        <v>5.71875174438</v>
+      </c>
+      <c r="FB5" t="n">
+        <v>5.169886817176</v>
+      </c>
+      <c r="FC5" t="n">
+        <v>5.488572690539</v>
+      </c>
+      <c r="FD5" t="n">
+        <v>5.401533617595</v>
+      </c>
+      <c r="FE5" t="n">
+        <v>4.158027359604</v>
+      </c>
+      <c r="FF5" t="n">
+        <v>2.797545048391</v>
+      </c>
+      <c r="FG5" t="n">
+        <v>3.7421208936</v>
+      </c>
+      <c r="FH5" t="n">
+        <v>3.149933948032</v>
+      </c>
+      <c r="FI5" t="n">
+        <v>2.933661089853</v>
+      </c>
+      <c r="FJ5" t="n">
+        <v>3.159643073091</v>
+      </c>
+      <c r="FK5" t="n">
+        <v>2.82694929739</v>
+      </c>
+      <c r="FL5" t="n">
+        <v>2.847951603993</v>
+      </c>
+      <c r="FM5" t="n">
+        <v>3.493259480359</v>
+      </c>
+      <c r="FN5" t="n">
+        <v>3.45551962696</v>
+      </c>
+      <c r="FO5" t="n">
+        <v>3.302564631566</v>
+      </c>
+      <c r="FP5" t="n">
+        <v>3.365223811331</v>
+      </c>
+      <c r="FQ5" t="n">
+        <v>3.103491803164</v>
+      </c>
+      <c r="FR5" t="n">
+        <v>2.831867311876</v>
+      </c>
+      <c r="FS5" t="n">
+        <v>3.315277413861</v>
+      </c>
+      <c r="FT5" t="n">
+        <v>2.923987629352</v>
+      </c>
+      <c r="FU5" t="n">
+        <v>2.871493955536</v>
+      </c>
+      <c r="FV5" t="n">
+        <v>3.363864037456</v>
+      </c>
+      <c r="FW5" t="n">
+        <v>3.352075319033</v>
+      </c>
+      <c r="FX5" t="n">
+        <v>3.394997439988</v>
+      </c>
+      <c r="FY5" t="n">
+        <v>5.086816231125</v>
+      </c>
+      <c r="FZ5" t="n">
+        <v>4.356174370972</v>
+      </c>
+      <c r="GA5" t="n">
+        <v>4.10404921312</v>
+      </c>
+      <c r="GB5" t="n">
+        <v>4.714779849573</v>
+      </c>
+      <c r="GC5" t="n">
+        <v>4.218053093904</v>
+      </c>
+      <c r="GD5" t="n">
+        <v>4.303453082649</v>
+      </c>
+      <c r="GE5" t="n">
+        <v>5.010552775249</v>
+      </c>
+      <c r="GF5" t="n">
+        <v>4.206909882272</v>
+      </c>
+      <c r="GG5" t="n">
+        <v>4.254124606049</v>
+      </c>
+      <c r="GH5" t="n">
+        <v>5.041378894327</v>
+      </c>
+      <c r="GI5" t="n">
+        <v>4.423607954887</v>
+      </c>
+      <c r="GJ5" t="n">
+        <v>4.473794655124</v>
+      </c>
+      <c r="GK5" t="n">
+        <v>4.877414860944</v>
+      </c>
+      <c r="GL5" t="n">
+        <v>4.618556564261</v>
+      </c>
+      <c r="GM5" t="n">
+        <v>4.340348994647</v>
+      </c>
+      <c r="GN5" t="n">
+        <v>4.794001173277</v>
+      </c>
+      <c r="GO5" t="n">
+        <v>4.677719236571</v>
+      </c>
+      <c r="GP5" t="n">
+        <v>4.499489030824</v>
+      </c>
+      <c r="GQ5" t="n">
+        <v>4.684341513849</v>
+      </c>
+      <c r="GR5" t="n">
+        <v>4.002021239692</v>
+      </c>
+      <c r="GS5" t="n">
+        <v>3.628243875027</v>
+      </c>
+      <c r="GT5" t="n">
+        <v>3.498388695793</v>
+      </c>
+      <c r="GU5" t="n">
+        <v>3.151520554257</v>
+      </c>
+      <c r="GV5" t="n">
+        <v>2.918359663407</v>
+      </c>
+      <c r="GW5" t="n">
+        <v>3.991703793887</v>
+      </c>
+      <c r="GX5" t="n">
+        <v>3.232870490623</v>
+      </c>
+      <c r="GY5" t="n">
+        <v>2.886220033716</v>
+      </c>
+      <c r="GZ5" t="n">
+        <v>3.080741291056</v>
+      </c>
+      <c r="HA5" t="n">
+        <v>2.986640897341</v>
+      </c>
+      <c r="HB5" t="n">
+        <v>2.920767104893</v>
+      </c>
+      <c r="HC5" t="n">
+        <v>3.270813171273</v>
+      </c>
+      <c r="HD5" t="n">
+        <v>2.867126142296</v>
+      </c>
+      <c r="HE5" t="n">
+        <v>2.936531730898</v>
+      </c>
+      <c r="HF5" t="n">
+        <v>3.129592887731</v>
+      </c>
+      <c r="HG5" t="n">
+        <v>2.906664729647</v>
+      </c>
+      <c r="HH5" t="n">
+        <v>2.87260536488</v>
+      </c>
+      <c r="HI5" t="n">
+        <v>3.094452859979</v>
+      </c>
+      <c r="HJ5" t="n">
+        <v>3.2236</v>
+      </c>
+      <c r="HK5" t="n">
+        <v>2.7796</v>
+      </c>
+      <c r="HL5" t="n">
+        <v>2.5396</v>
+      </c>
+      <c r="HM5" t="n">
+        <v>2.1109</v>
+      </c>
+      <c r="HN5" t="n">
+        <v>1.9886</v>
+      </c>
+      <c r="HO5" t="n">
+        <v>2.177</v>
+      </c>
+      <c r="HP5" t="n">
+        <v>2.1084</v>
+      </c>
+      <c r="HQ5" t="n">
+        <v>2.1871</v>
+      </c>
+      <c r="HR5" t="n">
+        <v>3.0578</v>
+      </c>
+      <c r="HS5" t="n">
+        <v>2.5015</v>
+      </c>
+      <c r="HT5" t="n">
+        <v>2.7635</v>
+      </c>
+      <c r="HU5" t="n">
+        <v>3.0206</v>
+      </c>
+      <c r="HV5" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="HW5" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="HX5" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="HY5" t="n">
         <v>2.62</v>
       </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>3</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH5" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="BI5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BJ5" t="n">
-        <v>2.784</v>
-      </c>
-      <c r="BK5" t="n">
-        <v>2.826</v>
-      </c>
-      <c r="BL5" t="inlineStr"/>
-      <c r="BM5" t="inlineStr"/>
-      <c r="BN5" t="inlineStr"/>
-      <c r="BO5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="BP5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BQ5" t="inlineStr"/>
-      <c r="BR5" t="inlineStr"/>
-      <c r="BS5" t="inlineStr"/>
-      <c r="BT5" t="inlineStr"/>
-      <c r="BU5" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="BV5" t="inlineStr"/>
-      <c r="BW5" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="BX5" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="BY5" t="n">
-        <v>5.150387283237</v>
-      </c>
-      <c r="BZ5" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="CA5" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="CB5" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="CC5" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="CD5" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="CE5" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="CF5" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="CG5" t="inlineStr"/>
-      <c r="CH5" t="inlineStr"/>
-      <c r="CI5" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="CJ5" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="CK5" t="inlineStr"/>
-      <c r="CL5" t="inlineStr"/>
-      <c r="CM5" t="n">
-        <v>1.910467781581</v>
-      </c>
-      <c r="CN5" t="n">
-        <v>2.096105297908</v>
-      </c>
-      <c r="CO5" t="n">
-        <v>2.228357996029</v>
-      </c>
-      <c r="CP5" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="CQ5" t="n">
-        <v>2.274007220217</v>
-      </c>
-      <c r="CR5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="CS5" t="inlineStr"/>
-      <c r="CT5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="CU5" t="n">
-        <v>2.667364016736</v>
-      </c>
-      <c r="CV5" t="n">
-        <v>2.343619858816</v>
-      </c>
-      <c r="CW5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="CX5" t="inlineStr"/>
-      <c r="CY5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="CZ5" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="DA5" t="n">
-        <v>2.908333333333</v>
-      </c>
-      <c r="DB5" t="inlineStr"/>
-      <c r="DC5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="DD5" t="inlineStr"/>
-      <c r="DE5" t="n">
-        <v>5.233333333333</v>
-      </c>
-      <c r="DF5" t="n">
-        <v>5.004527296937</v>
-      </c>
-      <c r="DG5" t="inlineStr"/>
-      <c r="DH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI5" t="inlineStr"/>
-      <c r="DJ5" t="inlineStr"/>
-      <c r="DK5" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="DL5" t="n">
-        <v>5.584073148796</v>
-      </c>
-      <c r="DM5" t="n">
-        <v>5.680874028743</v>
-      </c>
-      <c r="DN5" t="n">
-        <v>6.428215363858</v>
-      </c>
-      <c r="DO5" t="n">
-        <v>5.693549329285</v>
-      </c>
-      <c r="DP5" t="n">
-        <v>5.578593706518</v>
-      </c>
-      <c r="DQ5" t="n">
-        <v>5.506315951373</v>
-      </c>
-      <c r="DR5" t="n">
-        <v>6.916000022489</v>
-      </c>
-      <c r="DS5" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="DT5" t="n">
-        <v>4.747179177934</v>
-      </c>
-      <c r="DU5" t="n">
-        <v>5.131241257952</v>
-      </c>
-      <c r="DV5" t="inlineStr"/>
-      <c r="DW5" t="inlineStr"/>
-      <c r="DX5" t="inlineStr"/>
-      <c r="DY5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="DZ5" t="n">
-        <v>4</v>
-      </c>
-      <c r="EA5" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="EB5" t="n">
-        <v>5.085666674602</v>
-      </c>
-      <c r="EC5" t="n">
-        <v>3.982808411272</v>
-      </c>
-      <c r="ED5" t="inlineStr"/>
-      <c r="EE5" t="n">
-        <v>4</v>
-      </c>
-      <c r="EF5" t="n">
-        <v>4.441865739422</v>
-      </c>
-      <c r="EG5" t="n">
-        <v>4.192102923723</v>
-      </c>
-      <c r="EH5" t="inlineStr"/>
-      <c r="EI5" t="n">
-        <v>6.098510844934</v>
-      </c>
-      <c r="EJ5" t="n">
-        <v>5.039120983898</v>
-      </c>
-      <c r="EK5" t="n">
-        <v>5.424745821157</v>
-      </c>
-      <c r="EL5" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="EM5" t="n">
-        <v>5.973949579832</v>
-      </c>
-      <c r="EN5" t="n">
-        <v>5.936555629867</v>
-      </c>
-      <c r="EO5" t="n">
-        <v>6.241466561909</v>
-      </c>
-      <c r="EP5" t="n">
-        <v>6.315833369498</v>
-      </c>
-      <c r="EQ5" t="n">
-        <v>6.462375197057</v>
-      </c>
-      <c r="ER5" t="n">
-        <v>4.682052992593</v>
-      </c>
-      <c r="ES5" t="n">
-        <v>5.555415337679</v>
-      </c>
-      <c r="ET5" t="n">
-        <v>4.479052620235</v>
-      </c>
-      <c r="EU5" t="n">
-        <v>4.91469435371</v>
-      </c>
-      <c r="EV5" t="n">
-        <v>4.824998748962</v>
-      </c>
-      <c r="EW5" t="n">
-        <v>4.974500799746</v>
-      </c>
-      <c r="EX5" t="n">
-        <v>4.878311908043</v>
-      </c>
-      <c r="EY5" t="n">
-        <v>4.675203169357</v>
-      </c>
-      <c r="EZ5" t="inlineStr"/>
-      <c r="FA5" t="n">
-        <v>5.317302451137</v>
-      </c>
-      <c r="FB5" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="FC5" t="n">
-        <v>5.048043676069</v>
-      </c>
-      <c r="FD5" t="n">
-        <v>4.56095223823</v>
-      </c>
-      <c r="FE5" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="FF5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="FG5" t="inlineStr"/>
-      <c r="FH5" t="n">
-        <v>4.234615384615</v>
-      </c>
-      <c r="FI5" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="FJ5" t="inlineStr"/>
-      <c r="FK5" t="inlineStr"/>
-      <c r="FL5" t="inlineStr"/>
-      <c r="FM5" t="inlineStr"/>
-      <c r="FN5" t="n">
-        <v>3.112881355932</v>
-      </c>
-      <c r="FO5" t="n">
-        <v>3.040540540541</v>
-      </c>
-      <c r="FP5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="FQ5" t="n">
-        <v>3</v>
-      </c>
-      <c r="FR5" t="inlineStr"/>
-      <c r="FS5" t="inlineStr"/>
-      <c r="FT5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="FU5" t="n">
-        <v>3</v>
-      </c>
-      <c r="FV5" t="n">
-        <v>3.127659574468</v>
-      </c>
-      <c r="FW5" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="FX5" t="n">
-        <v>3.432367927058</v>
-      </c>
-      <c r="FY5" t="n">
-        <v>4.613948009344</v>
-      </c>
-      <c r="FZ5" t="n">
-        <v>4.560899633171</v>
-      </c>
-      <c r="GA5" t="n">
-        <v>4.551612903226</v>
-      </c>
-      <c r="GB5" t="n">
-        <v>4.92762063228</v>
-      </c>
-      <c r="GC5" t="n">
-        <v>4.817941064034</v>
-      </c>
-      <c r="GD5" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="GE5" t="n">
-        <v>5.039362230006</v>
-      </c>
-      <c r="GF5" t="n">
-        <v>4.625271562297</v>
-      </c>
-      <c r="GG5" t="n">
-        <v>4.712603055286</v>
-      </c>
-      <c r="GH5" t="n">
-        <v>4.888814799045</v>
-      </c>
-      <c r="GI5" t="n">
-        <v>4.920571496682</v>
-      </c>
-      <c r="GJ5" t="n">
-        <v>5.10270774356</v>
-      </c>
-      <c r="GK5" t="n">
-        <v>5.201986778897</v>
-      </c>
-      <c r="GL5" t="n">
-        <v>5.276814900375</v>
-      </c>
-      <c r="GM5" t="n">
-        <v>5.292786796396</v>
-      </c>
-      <c r="GN5" t="n">
-        <v>5.116407552839</v>
-      </c>
-      <c r="GO5" t="n">
-        <v>5.206676766738</v>
-      </c>
-      <c r="GP5" t="n">
-        <v>5.394884437596</v>
-      </c>
-      <c r="GQ5" t="n">
-        <v>5.014542238792</v>
-      </c>
-      <c r="GR5" t="n">
-        <v>4.228571428571</v>
-      </c>
-      <c r="GS5" t="n">
-        <v>3.888127467569</v>
-      </c>
-      <c r="GT5" t="n">
-        <v>3.745496535797</v>
-      </c>
-      <c r="GU5" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="GV5" t="n">
-        <v>4.143370809278</v>
-      </c>
-      <c r="GW5" t="n">
-        <v>3.801511335013</v>
-      </c>
-      <c r="GX5" t="n">
-        <v>4.008568378072</v>
-      </c>
-      <c r="GY5" t="n">
-        <v>3.775</v>
-      </c>
-      <c r="GZ5" t="n">
-        <v>3.338611789327</v>
-      </c>
-      <c r="HA5" t="n">
-        <v>3.742303919911</v>
-      </c>
-      <c r="HB5" t="n">
-        <v>3.711737089202</v>
-      </c>
-      <c r="HC5" t="n">
-        <v>4.631380651434</v>
-      </c>
-      <c r="HD5" t="n">
-        <v>3.688254480865</v>
-      </c>
-      <c r="HE5" t="inlineStr"/>
-      <c r="HF5" t="n">
-        <v>20</v>
-      </c>
-      <c r="HG5" t="n">
-        <v>7.006402640264</v>
-      </c>
-      <c r="HH5" t="n">
-        <v>3.465554273852</v>
-      </c>
-      <c r="HI5" t="n">
-        <v>3.425965457015</v>
-      </c>
-      <c r="HJ5" t="n">
-        <v>3.8667</v>
-      </c>
-      <c r="HK5" t="n">
-        <v>3.6473</v>
-      </c>
-      <c r="HL5" t="n">
-        <v>2.6249</v>
-      </c>
-      <c r="HM5" t="n">
-        <v>1.7585</v>
-      </c>
-      <c r="HN5" t="n">
-        <v>1.7108</v>
-      </c>
-      <c r="HO5" t="n">
-        <v>2.2339</v>
-      </c>
-      <c r="HP5" t="n">
-        <v>2.7624</v>
-      </c>
-      <c r="HQ5" t="inlineStr"/>
-      <c r="HR5" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="HS5" t="n">
-        <v>5.4275</v>
-      </c>
-      <c r="HT5" t="n">
-        <v>6.5086</v>
-      </c>
-      <c r="HU5" t="inlineStr"/>
-      <c r="HV5" t="inlineStr"/>
-      <c r="HW5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="HX5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="HY5" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="HZ5" t="inlineStr"/>
-      <c r="IA5" t="inlineStr"/>
-      <c r="IB5" t="inlineStr"/>
-      <c r="IC5" t="inlineStr"/>
-      <c r="ID5" t="inlineStr"/>
-      <c r="IE5" t="inlineStr"/>
-      <c r="IF5" t="inlineStr"/>
-      <c r="IG5" t="inlineStr"/>
-      <c r="IH5" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="II5" t="inlineStr"/>
+      <c r="HZ5" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="IA5" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="IB5" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="IC5" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="ID5" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="IE5" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="IF5" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="IG5" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="IH5" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="II5" t="n">
+        <v>2.41</v>
+      </c>
       <c r="IJ5" t="inlineStr"/>
       <c r="IK5" t="inlineStr"/>
       <c r="IL5" t="inlineStr"/>
@@ -4371,719 +4507,735 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>21天</t>
+          <t>1个月</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.162</v>
+        <v>2.207</v>
       </c>
       <c r="C6" t="n">
-        <v>2.136</v>
+        <v>2.183</v>
       </c>
       <c r="D6" t="n">
-        <v>1.993</v>
+        <v>2.009</v>
       </c>
       <c r="E6" t="n">
-        <v>1.97</v>
+        <v>1.982</v>
       </c>
       <c r="F6" t="n">
-        <v>1.966</v>
+        <v>1.979</v>
       </c>
       <c r="G6" t="n">
-        <v>1.965</v>
+        <v>1.979</v>
       </c>
       <c r="H6" t="n">
-        <v>1.955</v>
+        <v>1.975</v>
       </c>
       <c r="I6" t="n">
-        <v>1.984</v>
+        <v>2.02</v>
       </c>
       <c r="J6" t="n">
-        <v>2.304</v>
+        <v>2.248</v>
       </c>
       <c r="K6" t="n">
-        <v>2.284</v>
+        <v>2.308</v>
       </c>
       <c r="L6" t="n">
-        <v>2.265</v>
+        <v>2.251</v>
       </c>
       <c r="M6" t="n">
-        <v>2.409</v>
+        <v>2.385</v>
       </c>
       <c r="N6" t="n">
-        <v>2.285</v>
+        <v>2.314</v>
       </c>
       <c r="O6" t="n">
-        <v>2.283</v>
+        <v>2.286</v>
       </c>
       <c r="P6" t="n">
-        <v>2.114</v>
+        <v>2.17</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="R6" t="n">
-        <v>2.1</v>
+        <v>2.13</v>
       </c>
       <c r="S6" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="T6" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="U6" t="n">
-        <v>2.26</v>
+        <v>2.37</v>
       </c>
       <c r="V6" t="n">
         <v>3.08</v>
       </c>
       <c r="W6" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="X6" t="n">
         <v>3.23</v>
       </c>
-      <c r="X6" t="n">
-        <v>2.83</v>
-      </c>
       <c r="Y6" t="n">
-        <v>2.37</v>
+        <v>2.77</v>
       </c>
       <c r="Z6" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AD6" t="n">
         <v>2.66</v>
       </c>
-      <c r="AA6" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC6" t="n">
+      <c r="AE6" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>2.615</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>2.8151</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>2.5592</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>2.093</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>3.319</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>2.376</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>3.5329</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>2.949</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>3.033</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>2.788</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>5.5808</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>5.152</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>4.726</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>1.038213947981</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>1.694602698042</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>1.670232908066</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>1.688639125885</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>1.724770506835</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>1.6847786611</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>1.70520703174</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>1.652532678151</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>2.139668960219</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>1.588520230957</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>1.671232720429</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>2.255944057264</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>3.540434181236</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>2.3324</v>
+      </c>
+      <c r="DA6" t="n">
+        <v>2.131245830055</v>
+      </c>
+      <c r="DB6" t="n">
+        <v>3.177120056034</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>2.528747903159</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>3.074905534626</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>4.328617763897</v>
+      </c>
+      <c r="DF6" t="n">
+        <v>5.958244836677</v>
+      </c>
+      <c r="DG6" t="n">
+        <v>4.67524102378</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>3.80613101942</v>
+      </c>
+      <c r="DI6" t="n">
+        <v>3.994160193217</v>
+      </c>
+      <c r="DJ6" t="n">
+        <v>4.48444018193</v>
+      </c>
+      <c r="DK6" t="n">
+        <v>6.206964857108</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>6.138426682419</v>
+      </c>
+      <c r="DM6" t="n">
+        <v>5.173935126358</v>
+      </c>
+      <c r="DN6" t="n">
+        <v>5.581069586725</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>5.346872148966</v>
+      </c>
+      <c r="DP6" t="n">
+        <v>4.972482046016</v>
+      </c>
+      <c r="DQ6" t="n">
+        <v>4.8268697444</v>
+      </c>
+      <c r="DR6" t="n">
+        <v>6.810666932558</v>
+      </c>
+      <c r="DS6" t="n">
+        <v>4.953729259284</v>
+      </c>
+      <c r="DT6" t="n">
+        <v>4.14282577889</v>
+      </c>
+      <c r="DU6" t="n">
+        <v>4.055223476475</v>
+      </c>
+      <c r="DV6" t="n">
+        <v>3.344031974321</v>
+      </c>
+      <c r="DW6" t="n">
+        <v>3.264244065568</v>
+      </c>
+      <c r="DX6" t="n">
+        <v>3.45269986545</v>
+      </c>
+      <c r="DY6" t="n">
+        <v>3.580607470027</v>
+      </c>
+      <c r="DZ6" t="n">
+        <v>4.046893278814</v>
+      </c>
+      <c r="EA6" t="n">
+        <v>3.980004607201</v>
+      </c>
+      <c r="EB6" t="n">
+        <v>3.769374591545</v>
+      </c>
+      <c r="EC6" t="n">
+        <v>4.277696731134</v>
+      </c>
+      <c r="ED6" t="n">
+        <v>3.936474111573</v>
+      </c>
+      <c r="EE6" t="n">
+        <v>4.020314654443</v>
+      </c>
+      <c r="EF6" t="n">
+        <v>3.39316692794</v>
+      </c>
+      <c r="EG6" t="n">
+        <v>3.769154950447</v>
+      </c>
+      <c r="EH6" t="n">
+        <v>3.926557148171</v>
+      </c>
+      <c r="EI6" t="n">
+        <v>7.8052842865</v>
+      </c>
+      <c r="EJ6" t="n">
+        <v>5.34109284908</v>
+      </c>
+      <c r="EK6" t="n">
+        <v>4.774904099241</v>
+      </c>
+      <c r="EL6" t="n">
+        <v>5.31204264721</v>
+      </c>
+      <c r="EM6" t="n">
+        <v>5.467021799819</v>
+      </c>
+      <c r="EN6" t="n">
+        <v>6.070615500424</v>
+      </c>
+      <c r="EO6" t="n">
+        <v>6.406788616946</v>
+      </c>
+      <c r="EP6" t="n">
+        <v>6.933427877209</v>
+      </c>
+      <c r="EQ6" t="n">
+        <v>5.025345067806</v>
+      </c>
+      <c r="ER6" t="n">
+        <v>4.364943386332</v>
+      </c>
+      <c r="ES6" t="n">
+        <v>4.274356984698</v>
+      </c>
+      <c r="ET6" t="n">
+        <v>3.832855297724</v>
+      </c>
+      <c r="EU6" t="n">
+        <v>4.475056842035</v>
+      </c>
+      <c r="EV6" t="n">
+        <v>4.587601334506</v>
+      </c>
+      <c r="EW6" t="n">
+        <v>4.266435893953</v>
+      </c>
+      <c r="EX6" t="n">
+        <v>4.179788295535</v>
+      </c>
+      <c r="EY6" t="n">
+        <v>3.967254895624</v>
+      </c>
+      <c r="EZ6" t="n">
+        <v>4.28984159832</v>
+      </c>
+      <c r="FA6" t="n">
+        <v>5.931671792417</v>
+      </c>
+      <c r="FB6" t="n">
+        <v>4.889473505473</v>
+      </c>
+      <c r="FC6" t="n">
+        <v>5.506481476313</v>
+      </c>
+      <c r="FD6" t="n">
+        <v>5.210929204202</v>
+      </c>
+      <c r="FE6" t="n">
+        <v>4.186873152308</v>
+      </c>
+      <c r="FF6" t="n">
+        <v>2.770414952555</v>
+      </c>
+      <c r="FG6" t="n">
+        <v>3.356125073687</v>
+      </c>
+      <c r="FH6" t="n">
+        <v>3.096475325833</v>
+      </c>
+      <c r="FI6" t="n">
+        <v>2.726665539597</v>
+      </c>
+      <c r="FJ6" t="n">
+        <v>3.107383041066</v>
+      </c>
+      <c r="FK6" t="n">
+        <v>2.989316605992</v>
+      </c>
+      <c r="FL6" t="n">
+        <v>2.710188535219</v>
+      </c>
+      <c r="FM6" t="n">
+        <v>3.158289783385</v>
+      </c>
+      <c r="FN6" t="n">
+        <v>3.306339159516</v>
+      </c>
+      <c r="FO6" t="n">
+        <v>2.988693415583</v>
+      </c>
+      <c r="FP6" t="n">
+        <v>3.047663306891</v>
+      </c>
+      <c r="FQ6" t="n">
+        <v>2.890176036112</v>
+      </c>
+      <c r="FR6" t="n">
+        <v>2.812604042248</v>
+      </c>
+      <c r="FS6" t="n">
+        <v>3.045563958486</v>
+      </c>
+      <c r="FT6" t="n">
+        <v>2.821967988761</v>
+      </c>
+      <c r="FU6" t="n">
+        <v>2.824584021851</v>
+      </c>
+      <c r="FV6" t="n">
+        <v>3.185175268759</v>
+      </c>
+      <c r="FW6" t="n">
+        <v>3.038952438905</v>
+      </c>
+      <c r="FX6" t="n">
+        <v>3.076483905342</v>
+      </c>
+      <c r="FY6" t="n">
+        <v>4.747699879905</v>
+      </c>
+      <c r="FZ6" t="n">
+        <v>4.032075153868</v>
+      </c>
+      <c r="GA6" t="n">
+        <v>4.206589936507</v>
+      </c>
+      <c r="GB6" t="n">
+        <v>4.819875701102</v>
+      </c>
+      <c r="GC6" t="n">
+        <v>4.152175156788</v>
+      </c>
+      <c r="GD6" t="n">
+        <v>4.395815316507</v>
+      </c>
+      <c r="GE6" t="n">
+        <v>5.137695911993</v>
+      </c>
+      <c r="GF6" t="n">
+        <v>4.209667612105</v>
+      </c>
+      <c r="GG6" t="n">
+        <v>4.080625170086</v>
+      </c>
+      <c r="GH6" t="n">
+        <v>4.961037328997</v>
+      </c>
+      <c r="GI6" t="n">
+        <v>4.403721854034</v>
+      </c>
+      <c r="GJ6" t="n">
+        <v>4.474898277828</v>
+      </c>
+      <c r="GK6" t="n">
+        <v>5.711927407489</v>
+      </c>
+      <c r="GL6" t="n">
+        <v>4.327792315254</v>
+      </c>
+      <c r="GM6" t="n">
+        <v>4.58182077296</v>
+      </c>
+      <c r="GN6" t="n">
+        <v>4.983372821343</v>
+      </c>
+      <c r="GO6" t="n">
+        <v>4.116652442101</v>
+      </c>
+      <c r="GP6" t="n">
+        <v>3.859468359735</v>
+      </c>
+      <c r="GQ6" t="n">
+        <v>5.1881239944</v>
+      </c>
+      <c r="GR6" t="n">
+        <v>3.296696959105</v>
+      </c>
+      <c r="GS6" t="n">
+        <v>2.713841630925</v>
+      </c>
+      <c r="GT6" t="n">
+        <v>3.419481566595</v>
+      </c>
+      <c r="GU6" t="n">
+        <v>3.129874463933</v>
+      </c>
+      <c r="GV6" t="n">
+        <v>2.742267226462</v>
+      </c>
+      <c r="GW6" t="n">
+        <v>4.052678214151</v>
+      </c>
+      <c r="GX6" t="n">
+        <v>3.19938137009</v>
+      </c>
+      <c r="GY6" t="n">
+        <v>2.953154508186</v>
+      </c>
+      <c r="GZ6" t="n">
+        <v>3.192379731591</v>
+      </c>
+      <c r="HA6" t="n">
+        <v>3.11870492479</v>
+      </c>
+      <c r="HB6" t="n">
+        <v>2.996647849494</v>
+      </c>
+      <c r="HC6" t="n">
+        <v>3.885140013768</v>
+      </c>
+      <c r="HD6" t="n">
+        <v>3.169436654846</v>
+      </c>
+      <c r="HE6" t="n">
+        <v>3.0724915841</v>
+      </c>
+      <c r="HF6" t="n">
+        <v>3.102102082214</v>
+      </c>
+      <c r="HG6" t="n">
+        <v>3.197992762789</v>
+      </c>
+      <c r="HH6" t="n">
+        <v>3.006238997384</v>
+      </c>
+      <c r="HI6" t="n">
+        <v>3.362871943714</v>
+      </c>
+      <c r="HJ6" t="n">
+        <v>3.008</v>
+      </c>
+      <c r="HK6" t="n">
+        <v>2.8891</v>
+      </c>
+      <c r="HL6" t="n">
+        <v>2.391</v>
+      </c>
+      <c r="HM6" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="HN6" t="n">
+        <v>1.7269</v>
+      </c>
+      <c r="HO6" t="n">
+        <v>2.352</v>
+      </c>
+      <c r="HP6" t="n">
+        <v>2.4831</v>
+      </c>
+      <c r="HQ6" t="n">
+        <v>2.5459</v>
+      </c>
+      <c r="HR6" t="n">
+        <v>2.8293</v>
+      </c>
+      <c r="HS6" t="n">
+        <v>2.8723</v>
+      </c>
+      <c r="HT6" t="n">
+        <v>2.8663</v>
+      </c>
+      <c r="HU6" t="n">
+        <v>3.1252</v>
+      </c>
+      <c r="HV6" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="HW6" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="HX6" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="HY6" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="HZ6" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="IA6" t="n">
         <v>2.58</v>
       </c>
-      <c r="AD6" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="AF6" t="n">
+      <c r="IB6" t="n">
         <v>2.47</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="IC6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="ID6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="IE6" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="IF6" t="n">
         <v>2.46</v>
       </c>
-      <c r="AH6" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>1.777</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>2.501</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>2.5584</v>
-      </c>
-      <c r="BF6" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="BH6" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="BI6" t="n">
-        <v>2.4274</v>
-      </c>
-      <c r="BJ6" t="n">
-        <v>2.256</v>
-      </c>
-      <c r="BK6" t="n">
-        <v>3.572</v>
-      </c>
-      <c r="BL6" t="n">
-        <v>1.9655</v>
-      </c>
-      <c r="BM6" t="n">
-        <v>3.6655</v>
-      </c>
-      <c r="BN6" t="n">
-        <v>2.781</v>
-      </c>
-      <c r="BO6" t="n">
-        <v>2.901</v>
-      </c>
-      <c r="BP6" t="n">
-        <v>2.889</v>
-      </c>
-      <c r="BQ6" t="n">
-        <v>2.6756</v>
-      </c>
-      <c r="BR6" t="n">
-        <v>5.9924</v>
-      </c>
-      <c r="BS6" t="n">
-        <v>4.838</v>
-      </c>
-      <c r="BT6" t="n">
-        <v>5.416</v>
-      </c>
-      <c r="BU6" t="n">
-        <v>3.825</v>
-      </c>
-      <c r="BV6" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="BW6" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="BX6" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="BY6" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="BZ6" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="CA6" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="CB6" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="CC6" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="CD6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="CE6" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="CF6" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="CG6" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="CH6" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="CI6" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="CJ6" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="CK6" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="CL6" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="CM6" t="n">
-        <v>1.035316635188</v>
-      </c>
-      <c r="CN6" t="n">
-        <v>1.414898410641</v>
-      </c>
-      <c r="CO6" t="n">
-        <v>1.44426015755</v>
-      </c>
-      <c r="CP6" t="n">
-        <v>1.687690311583</v>
-      </c>
-      <c r="CQ6" t="n">
-        <v>1.618232763989</v>
-      </c>
-      <c r="CR6" t="n">
-        <v>1.533041196011</v>
-      </c>
-      <c r="CS6" t="n">
-        <v>1.757203169512</v>
-      </c>
-      <c r="CT6" t="n">
-        <v>1.527972880887</v>
-      </c>
-      <c r="CU6" t="n">
-        <v>1.922295004838</v>
-      </c>
-      <c r="CV6" t="n">
-        <v>1.667700896867</v>
-      </c>
-      <c r="CW6" t="n">
-        <v>1.661785465331</v>
-      </c>
-      <c r="CX6" t="n">
-        <v>2.033080424594</v>
-      </c>
-      <c r="CY6" t="n">
-        <v>3.511216632943</v>
-      </c>
-      <c r="CZ6" t="n">
-        <v>2.106</v>
-      </c>
-      <c r="DA6" t="n">
-        <v>2.006184058998</v>
-      </c>
-      <c r="DB6" t="n">
-        <v>3.129827600728</v>
-      </c>
-      <c r="DC6" t="n">
-        <v>2.110920981525</v>
-      </c>
-      <c r="DD6" t="n">
-        <v>2.618398822399</v>
-      </c>
-      <c r="DE6" t="n">
-        <v>4.264889036138</v>
-      </c>
-      <c r="DF6" t="n">
-        <v>7.283226225444</v>
-      </c>
-      <c r="DG6" t="n">
-        <v>4.743065326747</v>
-      </c>
-      <c r="DH6" t="n">
-        <v>2.884522861992</v>
-      </c>
-      <c r="DI6" t="n">
-        <v>3.353859533651</v>
-      </c>
-      <c r="DJ6" t="n">
-        <v>4.235505426194</v>
-      </c>
-      <c r="DK6" t="n">
-        <v>6.313752829361</v>
-      </c>
-      <c r="DL6" t="n">
-        <v>6.056921452209</v>
-      </c>
-      <c r="DM6" t="n">
-        <v>4.424351287988</v>
-      </c>
-      <c r="DN6" t="n">
-        <v>4.844867139749</v>
-      </c>
-      <c r="DO6" t="n">
-        <v>4.447048646236</v>
-      </c>
-      <c r="DP6" t="n">
-        <v>4.178573258871</v>
-      </c>
-      <c r="DQ6" t="n">
-        <v>4.443001803706</v>
-      </c>
-      <c r="DR6" t="n">
-        <v>6.249701937719</v>
-      </c>
-      <c r="DS6" t="n">
-        <v>5.072928460711</v>
-      </c>
-      <c r="DT6" t="n">
-        <v>3.869448823795</v>
-      </c>
-      <c r="DU6" t="n">
-        <v>4.013439589255</v>
-      </c>
-      <c r="DV6" t="n">
-        <v>3.020211306216</v>
-      </c>
-      <c r="DW6" t="n">
-        <v>3.599169137973</v>
-      </c>
-      <c r="DX6" t="n">
-        <v>3.63497547943</v>
-      </c>
-      <c r="DY6" t="n">
-        <v>3.751029818457</v>
-      </c>
-      <c r="DZ6" t="n">
-        <v>3.856457724291</v>
-      </c>
-      <c r="EA6" t="n">
-        <v>4.040317576084</v>
-      </c>
-      <c r="EB6" t="n">
-        <v>3.566169290767</v>
-      </c>
-      <c r="EC6" t="n">
-        <v>4.238326771558</v>
-      </c>
-      <c r="ED6" t="n">
-        <v>3.87203090387</v>
-      </c>
-      <c r="EE6" t="n">
-        <v>3.780747419752</v>
-      </c>
-      <c r="EF6" t="n">
-        <v>3.30815154587</v>
-      </c>
-      <c r="EG6" t="n">
-        <v>3.794602680879</v>
-      </c>
-      <c r="EH6" t="n">
-        <v>3.6772133957</v>
-      </c>
-      <c r="EI6" t="n">
-        <v>7.034882758271</v>
-      </c>
-      <c r="EJ6" t="n">
-        <v>4.740652250587</v>
-      </c>
-      <c r="EK6" t="n">
-        <v>4.835749355982</v>
-      </c>
-      <c r="EL6" t="n">
-        <v>5.047968711292</v>
-      </c>
-      <c r="EM6" t="n">
-        <v>5.625989763692</v>
-      </c>
-      <c r="EN6" t="n">
-        <v>5.900288594138</v>
-      </c>
-      <c r="EO6" t="n">
-        <v>6.076061658321</v>
-      </c>
-      <c r="EP6" t="n">
-        <v>6.434662011785</v>
-      </c>
-      <c r="EQ6" t="n">
-        <v>5.195849497294</v>
-      </c>
-      <c r="ER6" t="n">
-        <v>3.849024416209</v>
-      </c>
-      <c r="ES6" t="n">
-        <v>4.121947869428</v>
-      </c>
-      <c r="ET6" t="n">
-        <v>3.545909402474</v>
-      </c>
-      <c r="EU6" t="n">
-        <v>4.44265849677</v>
-      </c>
-      <c r="EV6" t="n">
-        <v>4.611270947662</v>
-      </c>
-      <c r="EW6" t="n">
-        <v>4.400954995521</v>
-      </c>
-      <c r="EX6" t="n">
-        <v>4.301334992663</v>
-      </c>
-      <c r="EY6" t="n">
-        <v>3.801013108217</v>
-      </c>
-      <c r="EZ6" t="n">
-        <v>4.810071725595</v>
-      </c>
-      <c r="FA6" t="n">
-        <v>5.71875174438</v>
-      </c>
-      <c r="FB6" t="n">
-        <v>5.169886817176</v>
-      </c>
-      <c r="FC6" t="n">
-        <v>5.488572690539</v>
-      </c>
-      <c r="FD6" t="n">
-        <v>5.401533617595</v>
-      </c>
-      <c r="FE6" t="n">
-        <v>4.158027359604</v>
-      </c>
-      <c r="FF6" t="n">
-        <v>2.797545048391</v>
-      </c>
-      <c r="FG6" t="n">
-        <v>3.7421208936</v>
-      </c>
-      <c r="FH6" t="n">
-        <v>3.149933948032</v>
-      </c>
-      <c r="FI6" t="n">
-        <v>2.933661089853</v>
-      </c>
-      <c r="FJ6" t="n">
-        <v>3.159643073091</v>
-      </c>
-      <c r="FK6" t="n">
-        <v>2.82694929739</v>
-      </c>
-      <c r="FL6" t="n">
-        <v>2.847951603993</v>
-      </c>
-      <c r="FM6" t="n">
-        <v>3.493259480359</v>
-      </c>
-      <c r="FN6" t="n">
-        <v>3.45551962696</v>
-      </c>
-      <c r="FO6" t="n">
-        <v>3.302564631566</v>
-      </c>
-      <c r="FP6" t="n">
-        <v>3.365223811331</v>
-      </c>
-      <c r="FQ6" t="n">
-        <v>3.103491803164</v>
-      </c>
-      <c r="FR6" t="n">
-        <v>2.831867311876</v>
-      </c>
-      <c r="FS6" t="n">
-        <v>3.315277413861</v>
-      </c>
-      <c r="FT6" t="n">
-        <v>2.923987629352</v>
-      </c>
-      <c r="FU6" t="n">
-        <v>2.871493955536</v>
-      </c>
-      <c r="FV6" t="n">
-        <v>3.363864037456</v>
-      </c>
-      <c r="FW6" t="n">
-        <v>3.352075319033</v>
-      </c>
-      <c r="FX6" t="n">
-        <v>3.394997439988</v>
-      </c>
-      <c r="FY6" t="n">
-        <v>5.086816231125</v>
-      </c>
-      <c r="FZ6" t="n">
-        <v>4.356174370972</v>
-      </c>
-      <c r="GA6" t="n">
-        <v>4.10404921312</v>
-      </c>
-      <c r="GB6" t="n">
-        <v>4.714779849573</v>
-      </c>
-      <c r="GC6" t="n">
-        <v>4.218053093904</v>
-      </c>
-      <c r="GD6" t="n">
-        <v>4.303453082649</v>
-      </c>
-      <c r="GE6" t="n">
-        <v>5.010552775249</v>
-      </c>
-      <c r="GF6" t="n">
-        <v>4.206909882272</v>
-      </c>
-      <c r="GG6" t="n">
-        <v>4.254124606049</v>
-      </c>
-      <c r="GH6" t="n">
-        <v>5.041378894327</v>
-      </c>
-      <c r="GI6" t="n">
-        <v>4.423607954887</v>
-      </c>
-      <c r="GJ6" t="n">
-        <v>4.473794655124</v>
-      </c>
-      <c r="GK6" t="n">
-        <v>4.877414860944</v>
-      </c>
-      <c r="GL6" t="n">
-        <v>4.618556564261</v>
-      </c>
-      <c r="GM6" t="n">
-        <v>4.340348994647</v>
-      </c>
-      <c r="GN6" t="n">
-        <v>4.794001173277</v>
-      </c>
-      <c r="GO6" t="n">
-        <v>4.677719236571</v>
-      </c>
-      <c r="GP6" t="n">
-        <v>4.499489030824</v>
-      </c>
-      <c r="GQ6" t="n">
-        <v>4.684341513849</v>
-      </c>
-      <c r="GR6" t="n">
-        <v>4.002021239692</v>
-      </c>
-      <c r="GS6" t="n">
-        <v>3.628243875027</v>
-      </c>
-      <c r="GT6" t="n">
-        <v>3.498388695793</v>
-      </c>
-      <c r="GU6" t="n">
-        <v>3.151520554257</v>
-      </c>
-      <c r="GV6" t="n">
-        <v>2.918359663407</v>
-      </c>
-      <c r="GW6" t="n">
-        <v>3.991703793887</v>
-      </c>
-      <c r="GX6" t="n">
-        <v>3.232870490623</v>
-      </c>
-      <c r="GY6" t="n">
-        <v>2.886220033716</v>
-      </c>
-      <c r="GZ6" t="n">
-        <v>3.080741291056</v>
-      </c>
-      <c r="HA6" t="n">
-        <v>2.986640897341</v>
-      </c>
-      <c r="HB6" t="n">
-        <v>2.920767104893</v>
-      </c>
-      <c r="HC6" t="n">
-        <v>3.270813171273</v>
-      </c>
-      <c r="HD6" t="n">
-        <v>2.867126142296</v>
-      </c>
-      <c r="HE6" t="n">
-        <v>2.936531730898</v>
-      </c>
-      <c r="HF6" t="n">
-        <v>3.129592887731</v>
-      </c>
-      <c r="HG6" t="n">
-        <v>2.906664729647</v>
-      </c>
-      <c r="HH6" t="n">
-        <v>2.87260536488</v>
-      </c>
-      <c r="HI6" t="n">
-        <v>3.094452859979</v>
-      </c>
-      <c r="HJ6" t="n">
-        <v>3.2236</v>
-      </c>
-      <c r="HK6" t="n">
-        <v>2.7796</v>
-      </c>
-      <c r="HL6" t="n">
-        <v>2.5396</v>
-      </c>
-      <c r="HM6" t="n">
-        <v>2.1109</v>
-      </c>
-      <c r="HN6" t="n">
-        <v>1.9886</v>
-      </c>
-      <c r="HO6" t="n">
-        <v>2.177</v>
-      </c>
-      <c r="HP6" t="n">
-        <v>2.1084</v>
-      </c>
-      <c r="HQ6" t="n">
-        <v>2.1871</v>
-      </c>
-      <c r="HR6" t="n">
-        <v>3.0578</v>
-      </c>
-      <c r="HS6" t="n">
-        <v>2.5015</v>
-      </c>
-      <c r="HT6" t="n">
-        <v>2.7635</v>
-      </c>
-      <c r="HU6" t="n">
-        <v>3.0206</v>
-      </c>
-      <c r="HV6" t="n">
-        <v>2.8922</v>
-      </c>
-      <c r="HW6" t="n">
-        <v>3.0349</v>
-      </c>
-      <c r="HX6" t="n">
-        <v>2.7836</v>
-      </c>
-      <c r="HY6" t="n">
-        <v>2.6165</v>
-      </c>
-      <c r="HZ6" t="inlineStr"/>
-      <c r="IA6" t="inlineStr"/>
-      <c r="IB6" t="inlineStr"/>
-      <c r="IC6" t="inlineStr"/>
-      <c r="ID6" t="inlineStr"/>
-      <c r="IE6" t="inlineStr"/>
-      <c r="IF6" t="inlineStr"/>
-      <c r="IG6" t="inlineStr"/>
-      <c r="IH6" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="II6" t="inlineStr"/>
+      <c r="IG6" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="IH6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="II6" t="n">
+        <v>2.41</v>
+      </c>
       <c r="IJ6" t="inlineStr"/>
       <c r="IK6" t="inlineStr"/>
       <c r="IL6" t="inlineStr"/>
@@ -5786,31 +5938,47 @@
         <v>3.2848</v>
       </c>
       <c r="HV7" t="n">
-        <v>2.9334</v>
+        <v>2.93</v>
       </c>
       <c r="HW7" t="n">
-        <v>2.9925</v>
+        <v>2.99</v>
       </c>
       <c r="HX7" t="n">
-        <v>2.9546</v>
+        <v>2.95</v>
       </c>
       <c r="HY7" t="n">
-        <v>2.5886</v>
-      </c>
-      <c r="HZ7" t="inlineStr"/>
-      <c r="IA7" t="inlineStr"/>
-      <c r="IB7" t="inlineStr"/>
-      <c r="IC7" t="inlineStr"/>
-      <c r="ID7" t="inlineStr"/>
-      <c r="IE7" t="inlineStr"/>
-      <c r="IF7" t="inlineStr"/>
-      <c r="IG7" t="inlineStr"/>
-      <c r="IH7" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="II7" t="inlineStr"/>
+        <v>2.59</v>
+      </c>
+      <c r="HZ7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="IA7" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="IB7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="IC7" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="ID7" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="IE7" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="IF7" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="IG7" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="IH7" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="II7" t="n">
+        <v>2.5</v>
+      </c>
       <c r="IJ7" t="inlineStr"/>
       <c r="IK7" t="inlineStr"/>
       <c r="IL7" t="inlineStr"/>
@@ -6513,31 +6681,47 @@
         <v>3.3311</v>
       </c>
       <c r="HV8" t="n">
-        <v>3.0116</v>
+        <v>3.01</v>
       </c>
       <c r="HW8" t="n">
-        <v>3.2549</v>
+        <v>3.25</v>
       </c>
       <c r="HX8" t="n">
-        <v>3.0661</v>
+        <v>3.07</v>
       </c>
       <c r="HY8" t="n">
-        <v>2.8202</v>
-      </c>
-      <c r="HZ8" t="inlineStr"/>
-      <c r="IA8" t="inlineStr"/>
-      <c r="IB8" t="inlineStr"/>
-      <c r="IC8" t="inlineStr"/>
-      <c r="ID8" t="inlineStr"/>
-      <c r="IE8" t="inlineStr"/>
-      <c r="IF8" t="inlineStr"/>
-      <c r="IG8" t="inlineStr"/>
-      <c r="IH8" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="II8" t="inlineStr"/>
+        <v>2.82</v>
+      </c>
+      <c r="HZ8" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="IA8" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="IB8" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="IC8" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="ID8" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="IE8" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="IF8" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="IG8" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="IH8" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="II8" t="n">
+        <v>2.66</v>
+      </c>
       <c r="IJ8" t="inlineStr"/>
       <c r="IK8" t="inlineStr"/>
       <c r="IL8" t="inlineStr"/>
@@ -7222,31 +7406,47 @@
         <v>3.3105</v>
       </c>
       <c r="HV9" t="n">
-        <v>2.6803</v>
+        <v>2.68</v>
       </c>
       <c r="HW9" t="n">
-        <v>3.1454</v>
+        <v>3.15</v>
       </c>
       <c r="HX9" t="n">
-        <v>2.9154</v>
+        <v>2.92</v>
       </c>
       <c r="HY9" t="n">
-        <v>2.7478</v>
-      </c>
-      <c r="HZ9" t="inlineStr"/>
-      <c r="IA9" t="inlineStr"/>
-      <c r="IB9" t="inlineStr"/>
-      <c r="IC9" t="inlineStr"/>
-      <c r="ID9" t="inlineStr"/>
-      <c r="IE9" t="inlineStr"/>
-      <c r="IF9" t="inlineStr"/>
-      <c r="IG9" t="inlineStr"/>
-      <c r="IH9" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="II9" t="inlineStr"/>
+        <v>2.75</v>
+      </c>
+      <c r="HZ9" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="IA9" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="IB9" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="IC9" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="ID9" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="IE9" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="IF9" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="IG9" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="IH9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="II9" t="n">
+        <v>2.49</v>
+      </c>
       <c r="IJ9" t="inlineStr"/>
       <c r="IK9" t="inlineStr"/>
       <c r="IL9" t="inlineStr"/>
@@ -7935,31 +8135,45 @@
         <v>3.4074</v>
       </c>
       <c r="HV10" t="n">
-        <v>3.1856</v>
+        <v>3.19</v>
       </c>
       <c r="HW10" t="n">
-        <v>3.3249</v>
+        <v>3.32</v>
       </c>
       <c r="HX10" t="n">
-        <v>3.0664</v>
+        <v>3.07</v>
       </c>
       <c r="HY10" t="n">
-        <v>2.843</v>
-      </c>
-      <c r="HZ10" t="inlineStr"/>
-      <c r="IA10" t="inlineStr"/>
-      <c r="IB10" t="inlineStr"/>
-      <c r="IC10" t="inlineStr"/>
+        <v>2.84</v>
+      </c>
+      <c r="HZ10" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="IA10" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="IB10" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="IC10" t="n">
+        <v>2.7</v>
+      </c>
       <c r="ID10" t="inlineStr"/>
-      <c r="IE10" t="inlineStr"/>
-      <c r="IF10" t="inlineStr"/>
-      <c r="IG10" t="inlineStr"/>
-      <c r="IH10" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="II10" t="inlineStr"/>
+      <c r="IE10" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="IF10" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="IG10" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="IH10" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="II10" t="n">
+        <v>2.55</v>
+      </c>
       <c r="IJ10" t="inlineStr"/>
       <c r="IK10" t="inlineStr"/>
       <c r="IL10" t="inlineStr"/>
@@ -7974,719 +8188,647 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>7天</t>
+          <t>9个月</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.136</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>2.054</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.955</v>
+        <v>2.094</v>
       </c>
       <c r="E11" t="n">
-        <v>1.951</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.951</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.951</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.949</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.964</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2.165</v>
+        <v>2.319</v>
       </c>
       <c r="K11" t="n">
-        <v>2.242</v>
+        <v>2.4</v>
       </c>
       <c r="L11" t="n">
-        <v>2.23</v>
+        <v>2.401</v>
       </c>
       <c r="M11" t="n">
-        <v>2.294</v>
+        <v>2.55</v>
       </c>
       <c r="N11" t="n">
-        <v>2.271</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>2.242</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.033</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>3.09</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>2.29</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>2.22</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.91</v>
+        <v>2.75</v>
       </c>
       <c r="AC11" t="n">
-        <v>2.06</v>
+        <v>2.68</v>
       </c>
       <c r="AD11" t="n">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>2.41</v>
+        <v>2.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.33</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>2.09</v>
+        <v>2.9</v>
       </c>
       <c r="AK11" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>1.84</v>
+        <v>3.8</v>
       </c>
       <c r="AM11" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>1.7</v>
+        <v>3.56</v>
       </c>
       <c r="AO11" t="n">
-        <v>1.29</v>
+        <v>3.06</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.14</v>
+        <v>3</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.23</v>
+        <v>3</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AU11" t="n">
-        <v>1.12</v>
+        <v>2.6</v>
       </c>
       <c r="AV11" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AW11" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="AX11" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="AY11" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AZ11" t="n">
-        <v>1.49</v>
+        <v>2.5</v>
       </c>
       <c r="BA11" t="n">
-        <v>1.64</v>
+        <v>2.37</v>
       </c>
       <c r="BB11" t="n">
-        <v>1.678</v>
+        <v>2.5199</v>
       </c>
       <c r="BC11" t="n">
-        <v>1.963</v>
+        <v>2.5</v>
       </c>
       <c r="BD11" t="n">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="BE11" t="n">
-        <v>2.4172</v>
+        <v>0</v>
       </c>
       <c r="BF11" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="BG11" t="n">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="BH11" t="n">
-        <v>3.21</v>
+        <v>2.9</v>
       </c>
       <c r="BI11" t="n">
-        <v>2.1585</v>
-      </c>
-      <c r="BJ11" t="n">
-        <v>1.687</v>
-      </c>
-      <c r="BK11" t="n">
-        <v>3.008</v>
-      </c>
-      <c r="BL11" t="n">
-        <v>1.6762</v>
-      </c>
-      <c r="BM11" t="n">
-        <v>3.1739</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="BJ11" t="inlineStr"/>
+      <c r="BK11" t="inlineStr"/>
+      <c r="BL11" t="inlineStr"/>
+      <c r="BM11" t="inlineStr"/>
       <c r="BN11" t="n">
-        <v>2.414</v>
+        <v>3.14</v>
       </c>
       <c r="BO11" t="n">
-        <v>2.903</v>
-      </c>
-      <c r="BP11" t="n">
-        <v>2.872</v>
-      </c>
-      <c r="BQ11" t="n">
-        <v>2.269</v>
-      </c>
-      <c r="BR11" t="n">
-        <v>4.9955</v>
-      </c>
-      <c r="BS11" t="n">
-        <v>4.862</v>
-      </c>
-      <c r="BT11" t="n">
-        <v>2.938</v>
-      </c>
-      <c r="BU11" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="BV11" t="n">
-        <v>3.33</v>
-      </c>
+        <v>3.4</v>
+      </c>
+      <c r="BP11" t="inlineStr"/>
+      <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
+      <c r="BS11" t="inlineStr"/>
+      <c r="BT11" t="inlineStr"/>
+      <c r="BU11" t="inlineStr"/>
+      <c r="BV11" t="inlineStr"/>
       <c r="BW11" t="n">
-        <v>3.21</v>
+        <v>4.7</v>
       </c>
       <c r="BX11" t="n">
-        <v>2.51</v>
+        <v>4.71</v>
       </c>
       <c r="BY11" t="n">
+        <v>4.697847727273</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="CA11" t="inlineStr"/>
+      <c r="CB11" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="CG11" t="inlineStr"/>
+      <c r="CH11" t="inlineStr"/>
+      <c r="CI11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="CJ11" t="inlineStr"/>
+      <c r="CK11" t="inlineStr"/>
+      <c r="CL11" t="inlineStr"/>
+      <c r="CM11" t="n">
+        <v>1.708490566038</v>
+      </c>
+      <c r="CN11" t="inlineStr"/>
+      <c r="CO11" t="n">
+        <v>1.887499446064</v>
+      </c>
+      <c r="CP11" t="n">
+        <v>2</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="CR11" t="inlineStr"/>
+      <c r="CS11" t="inlineStr"/>
+      <c r="CT11" t="n">
+        <v>2.166</v>
+      </c>
+      <c r="CU11" t="inlineStr"/>
+      <c r="CV11" t="n">
+        <v>2.168401123145</v>
+      </c>
+      <c r="CW11" t="inlineStr"/>
+      <c r="CX11" t="n">
+        <v>2.359402460457</v>
+      </c>
+      <c r="CY11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="CZ11" t="inlineStr"/>
+      <c r="DA11" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="DB11" t="inlineStr"/>
+      <c r="DC11" t="inlineStr"/>
+      <c r="DD11" t="inlineStr"/>
+      <c r="DE11" t="inlineStr"/>
+      <c r="DF11" t="inlineStr"/>
+      <c r="DG11" t="inlineStr"/>
+      <c r="DH11" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="DI11" t="inlineStr"/>
+      <c r="DJ11" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="DK11" t="inlineStr"/>
+      <c r="DL11" t="n">
+        <v>5.898139416458</v>
+      </c>
+      <c r="DM11" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="DN11" t="n">
+        <v>6</v>
+      </c>
+      <c r="DO11" t="n">
+        <v>5.970555756785</v>
+      </c>
+      <c r="DP11" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="DQ11" t="inlineStr"/>
+      <c r="DR11" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="DS11" t="inlineStr"/>
+      <c r="DT11" t="n">
+        <v>5.183984526112</v>
+      </c>
+      <c r="DU11" t="inlineStr"/>
+      <c r="DV11" t="inlineStr"/>
+      <c r="DW11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="DX11" t="inlineStr"/>
+      <c r="DY11" t="n">
+        <v>3.816880706331</v>
+      </c>
+      <c r="DZ11" t="n">
+        <v>3.884697688503</v>
+      </c>
+      <c r="EA11" t="inlineStr"/>
+      <c r="EB11" t="n">
+        <v>4.731260940235</v>
+      </c>
+      <c r="EC11" t="n">
+        <v>4.570233538403</v>
+      </c>
+      <c r="ED11" t="n">
+        <v>3.767567567568</v>
+      </c>
+      <c r="EE11" t="inlineStr"/>
+      <c r="EF11" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="EG11" t="inlineStr"/>
+      <c r="EH11" t="n">
+        <v>3.787353877257</v>
+      </c>
+      <c r="EI11" t="n">
+        <v>7.075076923077</v>
+      </c>
+      <c r="EJ11" t="n">
+        <v>5.210869565217</v>
+      </c>
+      <c r="EK11" t="n">
+        <v>5.491290322581</v>
+      </c>
+      <c r="EL11" t="n">
+        <v>5.57064710505</v>
+      </c>
+      <c r="EM11" t="n">
+        <v>5.450488599349</v>
+      </c>
+      <c r="EN11" t="n">
+        <v>5.037686170676</v>
+      </c>
+      <c r="EO11" t="n">
+        <v>6.260511884666</v>
+      </c>
+      <c r="EP11" t="n">
+        <v>6.700183334911</v>
+      </c>
+      <c r="EQ11" t="n">
+        <v>6.041141859696</v>
+      </c>
+      <c r="ER11" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="ES11" t="n">
+        <v>5.467824242186</v>
+      </c>
+      <c r="ET11" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="EU11" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="EV11" t="n">
+        <v>4.845962669027</v>
+      </c>
+      <c r="EW11" t="n">
+        <v>4.861873859258</v>
+      </c>
+      <c r="EX11" t="n">
+        <v>4.850001400375</v>
+      </c>
+      <c r="EY11" t="n">
+        <v>4.718320732193</v>
+      </c>
+      <c r="EZ11" t="n">
+        <v>4.606908967961</v>
+      </c>
+      <c r="FA11" t="n">
+        <v>5.184865453414</v>
+      </c>
+      <c r="FB11" t="n">
+        <v>5</v>
+      </c>
+      <c r="FC11" t="n">
+        <v>4.98125</v>
+      </c>
+      <c r="FD11" t="n">
+        <v>5.094395650355</v>
+      </c>
+      <c r="FE11" t="n">
+        <v>4.851226095446</v>
+      </c>
+      <c r="FF11" t="n">
+        <v>3.69847715736</v>
+      </c>
+      <c r="FG11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="FH11" t="n">
+        <v>5</v>
+      </c>
+      <c r="FI11" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="FJ11" t="n">
+        <v>3.781169044106</v>
+      </c>
+      <c r="FK11" t="inlineStr"/>
+      <c r="FL11" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="FM11" t="n">
+        <v>3.675</v>
+      </c>
+      <c r="FN11" t="n">
+        <v>3.395909276851</v>
+      </c>
+      <c r="FO11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="FP11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="FQ11" t="n">
+        <v>3.250176782557</v>
+      </c>
+      <c r="FR11" t="n">
+        <v>3.0875</v>
+      </c>
+      <c r="FS11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="FT11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="FU11" t="inlineStr"/>
+      <c r="FV11" t="n">
+        <v>3.042174364471</v>
+      </c>
+      <c r="FW11" t="n">
+        <v>3.188372093023</v>
+      </c>
+      <c r="FX11" t="n">
+        <v>3.313638026231</v>
+      </c>
+      <c r="FY11" t="n">
+        <v>4.94312704839</v>
+      </c>
+      <c r="FZ11" t="n">
+        <v>4.156778675658</v>
+      </c>
+      <c r="GA11" t="n">
+        <v>4.397658934708</v>
+      </c>
+      <c r="GB11" t="n">
+        <v>4.82329561806</v>
+      </c>
+      <c r="GC11" t="n">
+        <v>4.740150524558</v>
+      </c>
+      <c r="GD11" t="n">
+        <v>5.005049811061</v>
+      </c>
+      <c r="GE11" t="n">
+        <v>5.0439204854</v>
+      </c>
+      <c r="GF11" t="n">
+        <v>4.524294024326</v>
+      </c>
+      <c r="GG11" t="n">
+        <v>4.691525716258</v>
+      </c>
+      <c r="GH11" t="n">
+        <v>4.796583723413</v>
+      </c>
+      <c r="GI11" t="n">
+        <v>4.881038612645</v>
+      </c>
+      <c r="GJ11" t="n">
+        <v>4.977844208886</v>
+      </c>
+      <c r="GK11" t="n">
+        <v>5.438977311006</v>
+      </c>
+      <c r="GL11" t="n">
+        <v>5.259194365713</v>
+      </c>
+      <c r="GM11" t="n">
+        <v>5.175808521138</v>
+      </c>
+      <c r="GN11" t="n">
+        <v>4.747984833655</v>
+      </c>
+      <c r="GO11" t="n">
+        <v>4.917848553312</v>
+      </c>
+      <c r="GP11" t="n">
+        <v>5.284058256249</v>
+      </c>
+      <c r="GQ11" t="n">
+        <v>5.116245943652</v>
+      </c>
+      <c r="GR11" t="n">
+        <v>5.15076818397</v>
+      </c>
+      <c r="GS11" t="n">
+        <v>3.386836200639</v>
+      </c>
+      <c r="GT11" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="GU11" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="GV11" t="n">
+        <v>3.883896466959</v>
+      </c>
+      <c r="GW11" t="n">
+        <v>3.645138697356</v>
+      </c>
+      <c r="GX11" t="n">
+        <v>4.173734527697</v>
+      </c>
+      <c r="GY11" t="n">
+        <v>3</v>
+      </c>
+      <c r="GZ11" t="n">
+        <v>3.22212407773</v>
+      </c>
+      <c r="HA11" t="n">
+        <v>4.492063492063</v>
+      </c>
+      <c r="HB11" t="n">
+        <v>4.431752514803</v>
+      </c>
+      <c r="HC11" t="n">
+        <v>9.707012898265999</v>
+      </c>
+      <c r="HD11" t="n">
+        <v>3.72034481116</v>
+      </c>
+      <c r="HE11" t="n">
+        <v>2.970932563139</v>
+      </c>
+      <c r="HF11" t="n">
+        <v>4.616542943959</v>
+      </c>
+      <c r="HG11" t="n">
+        <v>5.514986316802</v>
+      </c>
+      <c r="HH11" t="n">
+        <v>3.149703542728</v>
+      </c>
+      <c r="HI11" t="n">
+        <v>3.442134062068</v>
+      </c>
+      <c r="HJ11" t="n">
+        <v>3</v>
+      </c>
+      <c r="HK11" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="HL11" t="n">
+        <v>2.6127</v>
+      </c>
+      <c r="HM11" t="n">
+        <v>2.582</v>
+      </c>
+      <c r="HN11" t="n">
+        <v>2.2856</v>
+      </c>
+      <c r="HO11" t="inlineStr"/>
+      <c r="HP11" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="HQ11" t="n">
+        <v>2.9674</v>
+      </c>
+      <c r="HR11" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="HS11" t="inlineStr"/>
+      <c r="HT11" t="n">
+        <v>3.6453</v>
+      </c>
+      <c r="HU11" t="n">
+        <v>3.3107</v>
+      </c>
+      <c r="HV11" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="HW11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="HX11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="HY11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="HZ11" t="n">
         <v>3.15</v>
       </c>
-      <c r="BZ11" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="CA11" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="CB11" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="CC11" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="CD11" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="CE11" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="CF11" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="CG11" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="CH11" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="CI11" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="CJ11" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="CK11" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="CL11" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="CM11" t="n">
-        <v>1.041883032632</v>
-      </c>
-      <c r="CN11" t="n">
-        <v>1.595105537574</v>
-      </c>
-      <c r="CO11" t="n">
-        <v>1.54438341108</v>
-      </c>
-      <c r="CP11" t="n">
-        <v>1.594941153865</v>
-      </c>
-      <c r="CQ11" t="n">
-        <v>1.514555675</v>
-      </c>
-      <c r="CR11" t="n">
-        <v>1.435282450101</v>
-      </c>
-      <c r="CS11" t="n">
-        <v>1.483561249254</v>
-      </c>
-      <c r="CT11" t="n">
-        <v>1.468771613065</v>
-      </c>
-      <c r="CU11" t="n">
-        <v>1.797896086816</v>
-      </c>
-      <c r="CV11" t="n">
-        <v>1.632184955604</v>
-      </c>
-      <c r="CW11" t="n">
-        <v>1.644356366645</v>
-      </c>
-      <c r="CX11" t="n">
-        <v>1.929691561872</v>
-      </c>
-      <c r="CY11" t="n">
-        <v>2.724023460892</v>
-      </c>
-      <c r="CZ11" t="n">
-        <v>2.0549</v>
-      </c>
-      <c r="DA11" t="n">
-        <v>2.029250412108</v>
-      </c>
-      <c r="DB11" t="n">
-        <v>2.461678205506</v>
-      </c>
-      <c r="DC11" t="n">
-        <v>2.017381996529</v>
-      </c>
-      <c r="DD11" t="n">
-        <v>2.06331173138</v>
-      </c>
-      <c r="DE11" t="n">
-        <v>4.301715260141</v>
-      </c>
-      <c r="DF11" t="n">
-        <v>4.702295006104</v>
-      </c>
-      <c r="DG11" t="n">
-        <v>4.031352189682</v>
-      </c>
-      <c r="DH11" t="n">
-        <v>2.385560335855</v>
-      </c>
-      <c r="DI11" t="n">
-        <v>2.909032373026</v>
-      </c>
-      <c r="DJ11" t="n">
-        <v>3.775633496179</v>
-      </c>
-      <c r="DK11" t="n">
-        <v>5.946242945393</v>
-      </c>
-      <c r="DL11" t="n">
-        <v>5.253157675714</v>
-      </c>
-      <c r="DM11" t="n">
-        <v>3.905351620155</v>
-      </c>
-      <c r="DN11" t="n">
-        <v>4.003735260835</v>
-      </c>
-      <c r="DO11" t="n">
-        <v>3.926096538623</v>
-      </c>
-      <c r="DP11" t="n">
-        <v>3.789358135749</v>
-      </c>
-      <c r="DQ11" t="n">
-        <v>4.016987064341</v>
-      </c>
-      <c r="DR11" t="n">
-        <v>4.453693682649</v>
-      </c>
-      <c r="DS11" t="n">
-        <v>4.160229928929</v>
-      </c>
-      <c r="DT11" t="n">
-        <v>3.185268208256</v>
-      </c>
-      <c r="DU11" t="n">
-        <v>3.854403345542</v>
-      </c>
-      <c r="DV11" t="n">
-        <v>2.935160809728</v>
-      </c>
-      <c r="DW11" t="n">
-        <v>3.228042059627</v>
-      </c>
-      <c r="DX11" t="n">
-        <v>3.49089789156</v>
-      </c>
-      <c r="DY11" t="n">
-        <v>3.477862406547</v>
-      </c>
-      <c r="DZ11" t="n">
-        <v>3.420366304352</v>
-      </c>
-      <c r="EA11" t="n">
-        <v>3.174361512241</v>
-      </c>
-      <c r="EB11" t="n">
-        <v>3.189517270034</v>
-      </c>
-      <c r="EC11" t="n">
-        <v>3.342144013879</v>
-      </c>
-      <c r="ED11" t="n">
-        <v>3.093574701626</v>
-      </c>
-      <c r="EE11" t="n">
-        <v>3.457396230336</v>
-      </c>
-      <c r="EF11" t="n">
-        <v>3.152699841152</v>
-      </c>
-      <c r="EG11" t="n">
-        <v>3.349083427648</v>
-      </c>
-      <c r="EH11" t="n">
-        <v>3.647778493236</v>
-      </c>
-      <c r="EI11" t="n">
-        <v>7.020984239969</v>
-      </c>
-      <c r="EJ11" t="n">
-        <v>4.175844082153</v>
-      </c>
-      <c r="EK11" t="n">
-        <v>4.07278510646</v>
-      </c>
-      <c r="EL11" t="n">
-        <v>3.762585496793</v>
-      </c>
-      <c r="EM11" t="n">
-        <v>4.346465130452</v>
-      </c>
-      <c r="EN11" t="n">
-        <v>4.521334582502</v>
-      </c>
-      <c r="EO11" t="n">
-        <v>5.257782135905</v>
-      </c>
-      <c r="EP11" t="n">
-        <v>4.706579395803</v>
-      </c>
-      <c r="EQ11" t="n">
-        <v>4.296648875768</v>
-      </c>
-      <c r="ER11" t="n">
-        <v>3.390749719755</v>
-      </c>
-      <c r="ES11" t="n">
-        <v>3.581998558929</v>
-      </c>
-      <c r="ET11" t="n">
-        <v>3.233103947008</v>
-      </c>
-      <c r="EU11" t="n">
-        <v>3.403844394917</v>
-      </c>
-      <c r="EV11" t="n">
-        <v>3.828004852975</v>
-      </c>
-      <c r="EW11" t="n">
-        <v>3.476682891417</v>
-      </c>
-      <c r="EX11" t="n">
-        <v>3.274403196441</v>
-      </c>
-      <c r="EY11" t="n">
-        <v>3.075924776479</v>
-      </c>
-      <c r="EZ11" t="n">
-        <v>3.242570914316</v>
-      </c>
-      <c r="FA11" t="n">
-        <v>4.312454904666</v>
-      </c>
-      <c r="FB11" t="n">
-        <v>3.993743571558</v>
-      </c>
-      <c r="FC11" t="n">
-        <v>4.649449814589</v>
-      </c>
-      <c r="FD11" t="n">
-        <v>4.491253242119</v>
-      </c>
-      <c r="FE11" t="n">
-        <v>2.937519883435</v>
-      </c>
-      <c r="FF11" t="n">
-        <v>2.121129337608</v>
-      </c>
-      <c r="FG11" t="n">
-        <v>2.518034229006</v>
-      </c>
-      <c r="FH11" t="n">
-        <v>2.580727370258</v>
-      </c>
-      <c r="FI11" t="n">
-        <v>2.478725745329</v>
-      </c>
-      <c r="FJ11" t="n">
-        <v>2.408657441673</v>
-      </c>
-      <c r="FK11" t="n">
-        <v>2.426781278807</v>
-      </c>
-      <c r="FL11" t="n">
-        <v>2.367268492589</v>
-      </c>
-      <c r="FM11" t="n">
-        <v>2.453793085883</v>
-      </c>
-      <c r="FN11" t="n">
-        <v>2.491956896833</v>
-      </c>
-      <c r="FO11" t="n">
-        <v>2.418301188712</v>
-      </c>
-      <c r="FP11" t="n">
-        <v>2.485770805884</v>
-      </c>
-      <c r="FQ11" t="n">
-        <v>2.488754399474</v>
-      </c>
-      <c r="FR11" t="n">
-        <v>2.423722872408</v>
-      </c>
-      <c r="FS11" t="n">
-        <v>2.497650565595</v>
-      </c>
-      <c r="FT11" t="n">
-        <v>2.473183779219</v>
-      </c>
-      <c r="FU11" t="n">
-        <v>2.476312707804</v>
-      </c>
-      <c r="FV11" t="n">
-        <v>2.525190995824</v>
-      </c>
-      <c r="FW11" t="n">
-        <v>2.704443744921</v>
-      </c>
-      <c r="FX11" t="n">
-        <v>2.71536774536</v>
-      </c>
-      <c r="FY11" t="n">
-        <v>3.079219199945</v>
-      </c>
-      <c r="FZ11" t="n">
-        <v>2.669924093172</v>
-      </c>
-      <c r="GA11" t="n">
-        <v>3.079266453972</v>
-      </c>
-      <c r="GB11" t="n">
-        <v>3.506751640664</v>
-      </c>
-      <c r="GC11" t="n">
-        <v>3.363317822186</v>
-      </c>
-      <c r="GD11" t="n">
-        <v>3.290091806059</v>
-      </c>
-      <c r="GE11" t="n">
-        <v>3.485378577034</v>
-      </c>
-      <c r="GF11" t="n">
-        <v>3.319378869743</v>
-      </c>
-      <c r="GG11" t="n">
-        <v>3.542125658895</v>
-      </c>
-      <c r="GH11" t="n">
-        <v>3.409829384479</v>
-      </c>
-      <c r="GI11" t="n">
-        <v>3.374348645723</v>
-      </c>
-      <c r="GJ11" t="n">
-        <v>3.486001007266</v>
-      </c>
-      <c r="GK11" t="n">
-        <v>3.862646204539</v>
-      </c>
-      <c r="GL11" t="n">
-        <v>3.233787358971</v>
-      </c>
-      <c r="GM11" t="n">
-        <v>3.092465864048</v>
-      </c>
-      <c r="GN11" t="n">
-        <v>3.325158710569</v>
-      </c>
-      <c r="GO11" t="n">
-        <v>3.586906631631</v>
-      </c>
-      <c r="GP11" t="n">
-        <v>3.217628549485</v>
-      </c>
-      <c r="GQ11" t="n">
-        <v>3.463174487783</v>
-      </c>
-      <c r="GR11" t="n">
-        <v>2.741947436979</v>
-      </c>
-      <c r="GS11" t="n">
-        <v>2.569234499124</v>
-      </c>
-      <c r="GT11" t="n">
-        <v>2.693253926749</v>
-      </c>
-      <c r="GU11" t="n">
-        <v>2.657438033174</v>
-      </c>
-      <c r="GV11" t="n">
-        <v>2.702504070492</v>
-      </c>
-      <c r="GW11" t="n">
-        <v>3.221404309472</v>
-      </c>
-      <c r="GX11" t="n">
-        <v>2.581594703408</v>
-      </c>
-      <c r="GY11" t="n">
-        <v>2.641849873043</v>
-      </c>
-      <c r="GZ11" t="n">
-        <v>2.850370047695</v>
-      </c>
-      <c r="HA11" t="n">
-        <v>2.747533694367</v>
-      </c>
-      <c r="HB11" t="n">
-        <v>2.681787054189</v>
-      </c>
-      <c r="HC11" t="n">
-        <v>2.549179507376</v>
-      </c>
-      <c r="HD11" t="n">
-        <v>2.66243188777</v>
-      </c>
-      <c r="HE11" t="n">
-        <v>2.791307786546</v>
-      </c>
-      <c r="HF11" t="n">
-        <v>2.711631162798</v>
-      </c>
-      <c r="HG11" t="n">
-        <v>2.75618046563</v>
-      </c>
-      <c r="HH11" t="n">
-        <v>2.703984387298</v>
-      </c>
-      <c r="HI11" t="n">
-        <v>2.693319986913</v>
-      </c>
-      <c r="HJ11" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="HK11" t="n">
-        <v>2.4159</v>
-      </c>
-      <c r="HL11" t="n">
-        <v>2.0676</v>
-      </c>
-      <c r="HM11" t="n">
-        <v>1.5988</v>
-      </c>
-      <c r="HN11" t="n">
-        <v>1.6746</v>
-      </c>
-      <c r="HO11" t="n">
-        <v>2.1895</v>
-      </c>
-      <c r="HP11" t="n">
-        <v>2.2536</v>
-      </c>
-      <c r="HQ11" t="n">
-        <v>2.3762</v>
-      </c>
-      <c r="HR11" t="n">
-        <v>2.3323</v>
-      </c>
-      <c r="HS11" t="n">
-        <v>2.6247</v>
-      </c>
-      <c r="HT11" t="n">
-        <v>2.6513</v>
-      </c>
-      <c r="HU11" t="n">
-        <v>2.4682</v>
-      </c>
-      <c r="HV11" t="n">
-        <v>2.8529</v>
-      </c>
-      <c r="HW11" t="n">
-        <v>2.3668</v>
-      </c>
-      <c r="HX11" t="n">
-        <v>2.2642</v>
-      </c>
-      <c r="HY11" t="n">
-        <v>2.1506</v>
-      </c>
-      <c r="HZ11" t="inlineStr"/>
-      <c r="IA11" t="inlineStr"/>
-      <c r="IB11" t="inlineStr"/>
-      <c r="IC11" t="inlineStr"/>
-      <c r="ID11" t="inlineStr"/>
-      <c r="IE11" t="inlineStr"/>
-      <c r="IF11" t="inlineStr"/>
-      <c r="IG11" t="inlineStr"/>
-      <c r="IH11" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="II11" t="inlineStr"/>
+      <c r="IA11" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="IB11" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="IC11" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="ID11" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="IE11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="IF11" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="IG11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="IH11" t="inlineStr"/>
+      <c r="II11" t="n">
+        <v>2.5</v>
+      </c>
       <c r="IJ11" t="inlineStr"/>
       <c r="IK11" t="inlineStr"/>
       <c r="IL11" t="inlineStr"/>
@@ -8701,7 +8843,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>9个月</t>
+          <t>1年</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -8711,7 +8853,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>2.094</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -8720,25 +8862,25 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2.014</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2.319</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>2.401</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8783,551 +8925,579 @@
         <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>2.75</v>
+        <v>2.93</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.68</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="AE12" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="BI12" t="n">
         <v>2.5</v>
       </c>
-      <c r="AF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>2.5199</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH12" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="BI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ12" t="inlineStr"/>
-      <c r="BK12" t="inlineStr"/>
+      <c r="BJ12" t="n">
+        <v>2.784</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>2.826</v>
+      </c>
       <c r="BL12" t="inlineStr"/>
       <c r="BM12" t="inlineStr"/>
-      <c r="BN12" t="n">
-        <v>3.14</v>
-      </c>
+      <c r="BN12" t="inlineStr"/>
       <c r="BO12" t="n">
         <v>3.4</v>
       </c>
-      <c r="BP12" t="inlineStr"/>
+      <c r="BP12" t="n">
+        <v>3.5</v>
+      </c>
       <c r="BQ12" t="inlineStr"/>
       <c r="BR12" t="inlineStr"/>
       <c r="BS12" t="inlineStr"/>
       <c r="BT12" t="inlineStr"/>
-      <c r="BU12" t="inlineStr"/>
+      <c r="BU12" t="n">
+        <v>5.6</v>
+      </c>
       <c r="BV12" t="inlineStr"/>
       <c r="BW12" t="n">
-        <v>4.7</v>
+        <v>4.48</v>
       </c>
       <c r="BX12" t="n">
-        <v>4.71</v>
+        <v>5.12</v>
       </c>
       <c r="BY12" t="n">
-        <v>4.697847727273</v>
+        <v>5.150387283237</v>
       </c>
       <c r="BZ12" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="CA12" t="inlineStr"/>
+        <v>4.76</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>4.79</v>
+      </c>
       <c r="CB12" t="n">
-        <v>4.71</v>
+        <v>4.73</v>
       </c>
       <c r="CC12" t="n">
-        <v>4.62</v>
+        <v>4.72</v>
       </c>
       <c r="CD12" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="CE12" t="n">
         <v>4.66</v>
       </c>
-      <c r="CE12" t="n">
+      <c r="CF12" t="n">
         <v>4.59</v>
-      </c>
-      <c r="CF12" t="n">
-        <v>4.31</v>
       </c>
       <c r="CG12" t="inlineStr"/>
       <c r="CH12" t="inlineStr"/>
       <c r="CI12" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="CJ12" t="inlineStr"/>
+        <v>1.58</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>1.66</v>
+      </c>
       <c r="CK12" t="inlineStr"/>
       <c r="CL12" t="inlineStr"/>
       <c r="CM12" t="n">
-        <v>1.708490566038</v>
-      </c>
-      <c r="CN12" t="inlineStr"/>
+        <v>1.910467781581</v>
+      </c>
+      <c r="CN12" t="n">
+        <v>2.096105297908</v>
+      </c>
       <c r="CO12" t="n">
-        <v>1.887499446064</v>
+        <v>2.228357996029</v>
       </c>
       <c r="CP12" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="CQ12" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="CR12" t="inlineStr"/>
+        <v>2.274007220217</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>2.5</v>
+      </c>
       <c r="CS12" t="inlineStr"/>
       <c r="CT12" t="n">
-        <v>2.166</v>
-      </c>
-      <c r="CU12" t="inlineStr"/>
+        <v>2.5</v>
+      </c>
+      <c r="CU12" t="n">
+        <v>2.667364016736</v>
+      </c>
       <c r="CV12" t="n">
-        <v>2.168401123145</v>
-      </c>
-      <c r="CW12" t="inlineStr"/>
-      <c r="CX12" t="n">
-        <v>2.359402460457</v>
-      </c>
+        <v>2.343619858816</v>
+      </c>
+      <c r="CW12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="CX12" t="inlineStr"/>
       <c r="CY12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="CZ12" t="inlineStr"/>
+        <v>3.6</v>
+      </c>
+      <c r="CZ12" t="n">
+        <v>2.88</v>
+      </c>
       <c r="DA12" t="n">
-        <v>2.9</v>
+        <v>2.908333333333</v>
       </c>
       <c r="DB12" t="inlineStr"/>
-      <c r="DC12" t="inlineStr"/>
+      <c r="DC12" t="n">
+        <v>3.6</v>
+      </c>
       <c r="DD12" t="inlineStr"/>
-      <c r="DE12" t="inlineStr"/>
-      <c r="DF12" t="inlineStr"/>
+      <c r="DE12" t="n">
+        <v>5.233333333333</v>
+      </c>
+      <c r="DF12" t="n">
+        <v>5.004527296937</v>
+      </c>
       <c r="DG12" t="inlineStr"/>
       <c r="DH12" t="n">
-        <v>4.25</v>
+        <v>0</v>
       </c>
       <c r="DI12" t="inlineStr"/>
-      <c r="DJ12" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="DK12" t="inlineStr"/>
+      <c r="DJ12" t="inlineStr"/>
+      <c r="DK12" t="n">
+        <v>5.6</v>
+      </c>
       <c r="DL12" t="n">
-        <v>5.898139416458</v>
+        <v>5.584073148796</v>
       </c>
       <c r="DM12" t="n">
-        <v>5.45</v>
+        <v>5.680874028743</v>
       </c>
       <c r="DN12" t="n">
-        <v>6</v>
+        <v>6.428215363858</v>
       </c>
       <c r="DO12" t="n">
-        <v>5.970555756785</v>
+        <v>5.693549329285</v>
       </c>
       <c r="DP12" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="DQ12" t="inlineStr"/>
+        <v>5.578593706518</v>
+      </c>
+      <c r="DQ12" t="n">
+        <v>5.506315951373</v>
+      </c>
       <c r="DR12" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="DS12" t="inlineStr"/>
+        <v>6.916000022489</v>
+      </c>
+      <c r="DS12" t="n">
+        <v>5.3</v>
+      </c>
       <c r="DT12" t="n">
-        <v>5.183984526112</v>
-      </c>
-      <c r="DU12" t="inlineStr"/>
+        <v>4.747179177934</v>
+      </c>
+      <c r="DU12" t="n">
+        <v>5.131241257952</v>
+      </c>
       <c r="DV12" t="inlineStr"/>
-      <c r="DW12" t="n">
-        <v>4.5</v>
-      </c>
+      <c r="DW12" t="inlineStr"/>
       <c r="DX12" t="inlineStr"/>
       <c r="DY12" t="n">
-        <v>3.816880706331</v>
+        <v>3.75</v>
       </c>
       <c r="DZ12" t="n">
-        <v>3.884697688503</v>
-      </c>
-      <c r="EA12" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="EA12" t="n">
+        <v>5.8</v>
+      </c>
       <c r="EB12" t="n">
-        <v>4.731260940235</v>
+        <v>5.085666674602</v>
       </c>
       <c r="EC12" t="n">
-        <v>4.570233538403</v>
-      </c>
-      <c r="ED12" t="n">
-        <v>3.767567567568</v>
-      </c>
-      <c r="EE12" t="inlineStr"/>
+        <v>3.982808411272</v>
+      </c>
+      <c r="ED12" t="inlineStr"/>
+      <c r="EE12" t="n">
+        <v>4</v>
+      </c>
       <c r="EF12" t="n">
+        <v>4.441865739422</v>
+      </c>
+      <c r="EG12" t="n">
+        <v>4.192102923723</v>
+      </c>
+      <c r="EH12" t="inlineStr"/>
+      <c r="EI12" t="n">
+        <v>6.098510844934</v>
+      </c>
+      <c r="EJ12" t="n">
+        <v>5.039120983898</v>
+      </c>
+      <c r="EK12" t="n">
+        <v>5.424745821157</v>
+      </c>
+      <c r="EL12" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="EM12" t="n">
+        <v>5.973949579832</v>
+      </c>
+      <c r="EN12" t="n">
+        <v>5.936555629867</v>
+      </c>
+      <c r="EO12" t="n">
+        <v>6.241466561909</v>
+      </c>
+      <c r="EP12" t="n">
+        <v>6.315833369498</v>
+      </c>
+      <c r="EQ12" t="n">
+        <v>6.462375197057</v>
+      </c>
+      <c r="ER12" t="n">
+        <v>4.682052992593</v>
+      </c>
+      <c r="ES12" t="n">
+        <v>5.555415337679</v>
+      </c>
+      <c r="ET12" t="n">
+        <v>4.479052620235</v>
+      </c>
+      <c r="EU12" t="n">
+        <v>4.91469435371</v>
+      </c>
+      <c r="EV12" t="n">
+        <v>4.824998748962</v>
+      </c>
+      <c r="EW12" t="n">
+        <v>4.974500799746</v>
+      </c>
+      <c r="EX12" t="n">
+        <v>4.878311908043</v>
+      </c>
+      <c r="EY12" t="n">
+        <v>4.675203169357</v>
+      </c>
+      <c r="EZ12" t="inlineStr"/>
+      <c r="FA12" t="n">
+        <v>5.317302451137</v>
+      </c>
+      <c r="FB12" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="FC12" t="n">
+        <v>5.048043676069</v>
+      </c>
+      <c r="FD12" t="n">
+        <v>4.56095223823</v>
+      </c>
+      <c r="FE12" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="FF12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="FG12" t="inlineStr"/>
+      <c r="FH12" t="n">
+        <v>4.234615384615</v>
+      </c>
+      <c r="FI12" t="n">
         <v>4.2</v>
       </c>
-      <c r="EG12" t="inlineStr"/>
-      <c r="EH12" t="n">
-        <v>3.787353877257</v>
-      </c>
-      <c r="EI12" t="n">
-        <v>7.075076923077</v>
-      </c>
-      <c r="EJ12" t="n">
-        <v>5.210869565217</v>
-      </c>
-      <c r="EK12" t="n">
-        <v>5.491290322581</v>
-      </c>
-      <c r="EL12" t="n">
-        <v>5.57064710505</v>
-      </c>
-      <c r="EM12" t="n">
-        <v>5.450488599349</v>
-      </c>
-      <c r="EN12" t="n">
-        <v>5.037686170676</v>
-      </c>
-      <c r="EO12" t="n">
-        <v>6.260511884666</v>
-      </c>
-      <c r="EP12" t="n">
-        <v>6.700183334911</v>
-      </c>
-      <c r="EQ12" t="n">
-        <v>6.041141859696</v>
-      </c>
-      <c r="ER12" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="ES12" t="n">
-        <v>5.467824242186</v>
-      </c>
-      <c r="ET12" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="EU12" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="EV12" t="n">
-        <v>4.845962669027</v>
-      </c>
-      <c r="EW12" t="n">
-        <v>4.861873859258</v>
-      </c>
-      <c r="EX12" t="n">
-        <v>4.850001400375</v>
-      </c>
-      <c r="EY12" t="n">
-        <v>4.718320732193</v>
-      </c>
-      <c r="EZ12" t="n">
-        <v>4.606908967961</v>
-      </c>
-      <c r="FA12" t="n">
-        <v>5.184865453414</v>
-      </c>
-      <c r="FB12" t="n">
-        <v>5</v>
-      </c>
-      <c r="FC12" t="n">
-        <v>4.98125</v>
-      </c>
-      <c r="FD12" t="n">
-        <v>5.094395650355</v>
-      </c>
-      <c r="FE12" t="n">
-        <v>4.851226095446</v>
-      </c>
-      <c r="FF12" t="n">
-        <v>3.69847715736</v>
-      </c>
-      <c r="FG12" t="n">
+      <c r="FJ12" t="inlineStr"/>
+      <c r="FK12" t="inlineStr"/>
+      <c r="FL12" t="inlineStr"/>
+      <c r="FM12" t="inlineStr"/>
+      <c r="FN12" t="n">
+        <v>3.112881355932</v>
+      </c>
+      <c r="FO12" t="n">
+        <v>3.040540540541</v>
+      </c>
+      <c r="FP12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="FQ12" t="n">
+        <v>3</v>
+      </c>
+      <c r="FR12" t="inlineStr"/>
+      <c r="FS12" t="inlineStr"/>
+      <c r="FT12" t="n">
         <v>3.4</v>
       </c>
-      <c r="FH12" t="n">
-        <v>5</v>
-      </c>
-      <c r="FI12" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="FJ12" t="n">
-        <v>3.781169044106</v>
-      </c>
-      <c r="FK12" t="inlineStr"/>
-      <c r="FL12" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="FM12" t="n">
-        <v>3.675</v>
-      </c>
-      <c r="FN12" t="n">
-        <v>3.395909276851</v>
-      </c>
-      <c r="FO12" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="FP12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="FQ12" t="n">
-        <v>3.250176782557</v>
-      </c>
-      <c r="FR12" t="n">
-        <v>3.0875</v>
-      </c>
-      <c r="FS12" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="FT12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="FU12" t="inlineStr"/>
+      <c r="FU12" t="n">
+        <v>3</v>
+      </c>
       <c r="FV12" t="n">
-        <v>3.042174364471</v>
+        <v>3.127659574468</v>
       </c>
       <c r="FW12" t="n">
-        <v>3.188372093023</v>
+        <v>3.45</v>
       </c>
       <c r="FX12" t="n">
-        <v>3.313638026231</v>
+        <v>3.432367927058</v>
       </c>
       <c r="FY12" t="n">
-        <v>4.94312704839</v>
+        <v>4.613948009344</v>
       </c>
       <c r="FZ12" t="n">
-        <v>4.156778675658</v>
+        <v>4.560899633171</v>
       </c>
       <c r="GA12" t="n">
-        <v>4.397658934708</v>
+        <v>4.551612903226</v>
       </c>
       <c r="GB12" t="n">
-        <v>4.82329561806</v>
+        <v>4.92762063228</v>
       </c>
       <c r="GC12" t="n">
-        <v>4.740150524558</v>
+        <v>4.817941064034</v>
       </c>
       <c r="GD12" t="n">
-        <v>5.005049811061</v>
+        <v>5.1</v>
       </c>
       <c r="GE12" t="n">
-        <v>5.0439204854</v>
+        <v>5.039362230006</v>
       </c>
       <c r="GF12" t="n">
-        <v>4.524294024326</v>
+        <v>4.625271562297</v>
       </c>
       <c r="GG12" t="n">
-        <v>4.691525716258</v>
+        <v>4.712603055286</v>
       </c>
       <c r="GH12" t="n">
-        <v>4.796583723413</v>
+        <v>4.888814799045</v>
       </c>
       <c r="GI12" t="n">
-        <v>4.881038612645</v>
+        <v>4.920571496682</v>
       </c>
       <c r="GJ12" t="n">
-        <v>4.977844208886</v>
+        <v>5.10270774356</v>
       </c>
       <c r="GK12" t="n">
-        <v>5.438977311006</v>
+        <v>5.201986778897</v>
       </c>
       <c r="GL12" t="n">
-        <v>5.259194365713</v>
+        <v>5.276814900375</v>
       </c>
       <c r="GM12" t="n">
-        <v>5.175808521138</v>
+        <v>5.292786796396</v>
       </c>
       <c r="GN12" t="n">
-        <v>4.747984833655</v>
+        <v>5.116407552839</v>
       </c>
       <c r="GO12" t="n">
-        <v>4.917848553312</v>
+        <v>5.206676766738</v>
       </c>
       <c r="GP12" t="n">
-        <v>5.284058256249</v>
+        <v>5.394884437596</v>
       </c>
       <c r="GQ12" t="n">
-        <v>5.116245943652</v>
+        <v>5.014542238792</v>
       </c>
       <c r="GR12" t="n">
-        <v>5.15076818397</v>
+        <v>4.228571428571</v>
       </c>
       <c r="GS12" t="n">
-        <v>3.386836200639</v>
+        <v>3.888127467569</v>
       </c>
       <c r="GT12" t="n">
-        <v>3.8</v>
+        <v>3.745496535797</v>
       </c>
       <c r="GU12" t="n">
-        <v>5.2</v>
+        <v>3.65</v>
       </c>
       <c r="GV12" t="n">
-        <v>3.883896466959</v>
+        <v>4.143370809278</v>
       </c>
       <c r="GW12" t="n">
-        <v>3.645138697356</v>
+        <v>3.801511335013</v>
       </c>
       <c r="GX12" t="n">
-        <v>4.173734527697</v>
+        <v>4.008568378072</v>
       </c>
       <c r="GY12" t="n">
-        <v>3</v>
+        <v>3.775</v>
       </c>
       <c r="GZ12" t="n">
-        <v>3.22212407773</v>
+        <v>3.338611789327</v>
       </c>
       <c r="HA12" t="n">
-        <v>4.492063492063</v>
+        <v>3.742303919911</v>
       </c>
       <c r="HB12" t="n">
-        <v>4.431752514803</v>
+        <v>3.711737089202</v>
       </c>
       <c r="HC12" t="n">
-        <v>9.707012898265999</v>
+        <v>4.631380651434</v>
       </c>
       <c r="HD12" t="n">
-        <v>3.72034481116</v>
-      </c>
-      <c r="HE12" t="n">
-        <v>2.970932563139</v>
-      </c>
+        <v>3.688254480865</v>
+      </c>
+      <c r="HE12" t="inlineStr"/>
       <c r="HF12" t="n">
-        <v>4.616542943959</v>
+        <v>20</v>
       </c>
       <c r="HG12" t="n">
-        <v>5.514986316802</v>
+        <v>7.006402640264</v>
       </c>
       <c r="HH12" t="n">
-        <v>3.149703542728</v>
+        <v>3.465554273852</v>
       </c>
       <c r="HI12" t="n">
-        <v>3.442134062068</v>
+        <v>3.425965457015</v>
       </c>
       <c r="HJ12" t="n">
-        <v>3</v>
+        <v>3.8667</v>
       </c>
       <c r="HK12" t="n">
-        <v>3.85</v>
+        <v>3.6473</v>
       </c>
       <c r="HL12" t="n">
-        <v>2.6127</v>
+        <v>2.6249</v>
       </c>
       <c r="HM12" t="n">
-        <v>2.582</v>
+        <v>1.7585</v>
       </c>
       <c r="HN12" t="n">
-        <v>2.2856</v>
-      </c>
-      <c r="HO12" t="inlineStr"/>
+        <v>1.7108</v>
+      </c>
+      <c r="HO12" t="n">
+        <v>2.2339</v>
+      </c>
       <c r="HP12" t="n">
+        <v>2.7624</v>
+      </c>
+      <c r="HQ12" t="inlineStr"/>
+      <c r="HR12" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="HS12" t="n">
+        <v>5.4275</v>
+      </c>
+      <c r="HT12" t="n">
+        <v>6.5086</v>
+      </c>
+      <c r="HU12" t="inlineStr"/>
+      <c r="HV12" t="inlineStr"/>
+      <c r="HW12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="HX12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="HY12" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="HZ12" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="IA12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="IB12" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="IC12" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="ID12" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="IE12" t="inlineStr"/>
+      <c r="IF12" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="IG12" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="IH12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="II12" t="n">
         <v>2.8</v>
       </c>
-      <c r="HQ12" t="n">
-        <v>2.9674</v>
-      </c>
-      <c r="HR12" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="HS12" t="inlineStr"/>
-      <c r="HT12" t="n">
-        <v>3.6453</v>
-      </c>
-      <c r="HU12" t="n">
-        <v>3.3107</v>
-      </c>
-      <c r="HV12" t="n">
-        <v>2.9783</v>
-      </c>
-      <c r="HW12" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="HX12" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="HY12" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="HZ12" t="inlineStr"/>
-      <c r="IA12" t="inlineStr"/>
-      <c r="IB12" t="inlineStr"/>
-      <c r="IC12" t="inlineStr"/>
-      <c r="ID12" t="inlineStr"/>
-      <c r="IE12" t="inlineStr"/>
-      <c r="IF12" t="inlineStr"/>
-      <c r="IG12" t="inlineStr"/>
-      <c r="IH12" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
-      <c r="II12" t="inlineStr"/>
       <c r="IJ12" t="inlineStr"/>
       <c r="IK12" t="inlineStr"/>
       <c r="IL12" t="inlineStr"/>
@@ -9573,24 +9743,48 @@
       <c r="HS13" t="inlineStr"/>
       <c r="HT13" t="inlineStr"/>
       <c r="HU13" t="inlineStr"/>
-      <c r="HV13" t="inlineStr"/>
-      <c r="HW13" t="inlineStr"/>
-      <c r="HX13" t="inlineStr"/>
-      <c r="HY13" t="inlineStr"/>
-      <c r="HZ13" t="inlineStr"/>
-      <c r="IA13" t="inlineStr"/>
-      <c r="IB13" t="inlineStr"/>
-      <c r="IC13" t="inlineStr"/>
-      <c r="ID13" t="inlineStr"/>
-      <c r="IE13" t="inlineStr"/>
-      <c r="IF13" t="inlineStr"/>
-      <c r="IG13" t="inlineStr"/>
-      <c r="IH13" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="II13" t="inlineStr"/>
+      <c r="HV13" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="HW13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="HX13" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="HY13" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="HZ13" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="IA13" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="IB13" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="IC13" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="ID13" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="IE13" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="IF13" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="IG13" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="IH13" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="II13" t="n">
+        <v>2.06</v>
+      </c>
       <c r="IJ13" t="inlineStr"/>
       <c r="IK13" t="inlineStr"/>
       <c r="IL13" t="inlineStr"/>
